--- a/Code/dataset.xlsx
+++ b/Code/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7th_Sem_Project\PP-I\source_code\20CS713-PP-I-C12\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B06144-8F00-427E-8F28-E301B786F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECED240-4472-4DCD-B9C6-58336201F38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{25CED6B5-A0F3-467B-B53B-A30D2BC9A7C0}"/>
   </bookViews>
@@ -1131,17 +1131,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1475,13 +1465,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
       <selection activeCell="B352" sqref="B352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="158" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="64.08984375" customWidth="1"/>
     <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -29424,14 +29415,14 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>180</formula>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Coimbatore">
+      <formula>NOT(ISERROR(SEARCH("Coimbatore",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Coimbatore">
-      <formula>NOT(ISERROR(SEARCH("Coimbatore",B1)))</formula>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>180</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/dataset.xlsx
+++ b/Code/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7th_Sem_Project\PP-I\source_code\20CS713-PP-I-C12\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECED240-4472-4DCD-B9C6-58336201F38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C5ACE1-5BA7-42B2-8116-83C3C7D555A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{25CED6B5-A0F3-467B-B53B-A30D2BC9A7C0}"/>
   </bookViews>
@@ -1131,7 +1131,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1462,11 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6592C329-423D-456B-A327-481CAD1C7A9A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B352" sqref="B352"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1515,7 +1534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1553,7 +1572,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1591,7 +1610,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1629,7 +1648,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1667,7 +1686,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1705,7 +1724,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1743,7 +1762,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1781,7 +1800,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1819,7 +1838,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1857,7 +1876,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1895,7 +1914,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1933,7 +1952,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1971,7 +1990,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2009,7 +2028,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2047,7 +2066,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2085,7 +2104,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2123,7 +2142,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2161,7 +2180,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2199,7 +2218,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2237,7 +2256,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2275,7 +2294,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2313,7 +2332,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2351,7 +2370,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2389,7 +2408,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2427,7 +2446,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2465,7 +2484,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2503,7 +2522,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2541,7 +2560,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1013</v>
       </c>
@@ -2579,7 +2598,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1013</v>
       </c>
@@ -2617,7 +2636,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1014</v>
       </c>
@@ -2655,7 +2674,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1014</v>
       </c>
@@ -2693,7 +2712,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1015</v>
       </c>
@@ -2731,7 +2750,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1015</v>
       </c>
@@ -2769,7 +2788,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1015</v>
       </c>
@@ -2807,7 +2826,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1026</v>
       </c>
@@ -2845,7 +2864,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1026</v>
       </c>
@@ -2883,7 +2902,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1113</v>
       </c>
@@ -2921,7 +2940,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1113</v>
       </c>
@@ -2959,7 +2978,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1113</v>
       </c>
@@ -2997,7 +3016,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1120</v>
       </c>
@@ -3035,7 +3054,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1128</v>
       </c>
@@ -3073,7 +3092,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1210</v>
       </c>
@@ -3111,7 +3130,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1210</v>
       </c>
@@ -3149,7 +3168,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1210</v>
       </c>
@@ -3187,7 +3206,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1210</v>
       </c>
@@ -3225,7 +3244,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1211</v>
       </c>
@@ -3263,7 +3282,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1211</v>
       </c>
@@ -3301,7 +3320,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1211</v>
       </c>
@@ -3339,7 +3358,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1211</v>
       </c>
@@ -3377,7 +3396,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1211</v>
       </c>
@@ -3415,7 +3434,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1211</v>
       </c>
@@ -3453,7 +3472,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1211</v>
       </c>
@@ -3491,7 +3510,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1216</v>
       </c>
@@ -3529,7 +3548,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1219</v>
       </c>
@@ -3567,7 +3586,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1219</v>
       </c>
@@ -3605,7 +3624,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1219</v>
       </c>
@@ -3643,7 +3662,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1304</v>
       </c>
@@ -3681,7 +3700,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1304</v>
       </c>
@@ -3719,7 +3738,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1304</v>
       </c>
@@ -3795,7 +3814,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1309</v>
       </c>
@@ -3833,7 +3852,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1315</v>
       </c>
@@ -3871,7 +3890,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1315</v>
       </c>
@@ -3909,7 +3928,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1315</v>
       </c>
@@ -3947,7 +3966,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1315</v>
       </c>
@@ -4023,7 +4042,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1315</v>
       </c>
@@ -4061,7 +4080,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1317</v>
       </c>
@@ -4099,7 +4118,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1317</v>
       </c>
@@ -4137,7 +4156,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1317</v>
       </c>
@@ -4175,7 +4194,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1321</v>
       </c>
@@ -4213,7 +4232,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1419</v>
       </c>
@@ -4251,7 +4270,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1450</v>
       </c>
@@ -4289,7 +4308,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1516</v>
       </c>
@@ -4327,7 +4346,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1516</v>
       </c>
@@ -4365,7 +4384,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1516</v>
       </c>
@@ -4403,7 +4422,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2005</v>
       </c>
@@ -4441,7 +4460,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2005</v>
       </c>
@@ -4479,7 +4498,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2005</v>
       </c>
@@ -4517,7 +4536,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2005</v>
       </c>
@@ -4555,7 +4574,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2005</v>
       </c>
@@ -4593,7 +4612,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2005</v>
       </c>
@@ -4631,7 +4650,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2006</v>
       </c>
@@ -4669,7 +4688,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2006</v>
       </c>
@@ -4707,7 +4726,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2006</v>
       </c>
@@ -4745,7 +4764,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2006</v>
       </c>
@@ -4783,7 +4802,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2006</v>
       </c>
@@ -4821,7 +4840,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2006</v>
       </c>
@@ -4859,7 +4878,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2006</v>
       </c>
@@ -4897,7 +4916,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2006</v>
       </c>
@@ -4935,7 +4954,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2007</v>
       </c>
@@ -4973,7 +4992,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2007</v>
       </c>
@@ -5011,7 +5030,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2007</v>
       </c>
@@ -5049,7 +5068,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2007</v>
       </c>
@@ -5087,7 +5106,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2007</v>
       </c>
@@ -5125,7 +5144,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2369</v>
       </c>
@@ -5163,7 +5182,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2369</v>
       </c>
@@ -5201,7 +5220,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2369</v>
       </c>
@@ -5239,7 +5258,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2377</v>
       </c>
@@ -5277,7 +5296,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2377</v>
       </c>
@@ -5315,7 +5334,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2603</v>
       </c>
@@ -5353,7 +5372,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2603</v>
       </c>
@@ -5391,7 +5410,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2615</v>
       </c>
@@ -5429,7 +5448,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2615</v>
       </c>
@@ -5467,7 +5486,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2615</v>
       </c>
@@ -5505,7 +5524,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2615</v>
       </c>
@@ -5543,7 +5562,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2615</v>
       </c>
@@ -5581,7 +5600,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2618</v>
       </c>
@@ -5619,7 +5638,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2618</v>
       </c>
@@ -5657,7 +5676,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2702</v>
       </c>
@@ -5695,7 +5714,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2702</v>
       </c>
@@ -5733,7 +5752,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2702</v>
       </c>
@@ -5771,7 +5790,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2702</v>
       </c>
@@ -5809,7 +5828,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2702</v>
       </c>
@@ -5847,7 +5866,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2708</v>
       </c>
@@ -5885,7 +5904,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2709</v>
       </c>
@@ -5923,7 +5942,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2710</v>
       </c>
@@ -5961,7 +5980,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2711</v>
       </c>
@@ -5999,7 +6018,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2711</v>
       </c>
@@ -6037,7 +6056,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2711</v>
       </c>
@@ -6075,7 +6094,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2711</v>
       </c>
@@ -6113,7 +6132,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2712</v>
       </c>
@@ -6151,7 +6170,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2712</v>
       </c>
@@ -6189,7 +6208,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2712</v>
       </c>
@@ -6227,7 +6246,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2712</v>
       </c>
@@ -6265,7 +6284,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2712</v>
       </c>
@@ -6303,7 +6322,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2718</v>
       </c>
@@ -6341,7 +6360,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2718</v>
       </c>
@@ -6379,7 +6398,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2719</v>
       </c>
@@ -6417,7 +6436,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2719</v>
       </c>
@@ -6455,7 +6474,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>3011</v>
       </c>
@@ -6493,7 +6512,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>3011</v>
       </c>
@@ -6531,7 +6550,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>3011</v>
       </c>
@@ -6569,7 +6588,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>3011</v>
       </c>
@@ -6607,7 +6626,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>3011</v>
       </c>
@@ -6683,7 +6702,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>3011</v>
       </c>
@@ -6721,7 +6740,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>3011</v>
       </c>
@@ -6759,7 +6778,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>3011</v>
       </c>
@@ -6797,7 +6816,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>3021</v>
       </c>
@@ -6835,7 +6854,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>3464</v>
       </c>
@@ -6873,7 +6892,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>3464</v>
       </c>
@@ -6911,7 +6930,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>3464</v>
       </c>
@@ -6949,7 +6968,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>3465</v>
       </c>
@@ -6987,7 +7006,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>3465</v>
       </c>
@@ -7025,7 +7044,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>3465</v>
       </c>
@@ -7063,7 +7082,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>3819</v>
       </c>
@@ -7101,7 +7120,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>3819</v>
       </c>
@@ -7139,7 +7158,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>3830</v>
       </c>
@@ -7177,7 +7196,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>3830</v>
       </c>
@@ -7215,7 +7234,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>4023</v>
       </c>
@@ -7253,7 +7272,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>4024</v>
       </c>
@@ -7291,7 +7310,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>4960</v>
       </c>
@@ -7329,7 +7348,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>4974</v>
       </c>
@@ -7367,7 +7386,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>4974</v>
       </c>
@@ -7405,7 +7424,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>4974</v>
       </c>
@@ -7443,7 +7462,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>4974</v>
       </c>
@@ -7481,7 +7500,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>4974</v>
       </c>
@@ -7519,7 +7538,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>5008</v>
       </c>
@@ -7557,7 +7576,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>5008</v>
       </c>
@@ -7595,7 +7614,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>5008</v>
       </c>
@@ -7633,7 +7652,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>5008</v>
       </c>
@@ -7671,7 +7690,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>5008</v>
       </c>
@@ -7709,7 +7728,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>5008</v>
       </c>
@@ -7747,7 +7766,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>5008</v>
       </c>
@@ -7785,7 +7804,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>5009</v>
       </c>
@@ -7823,7 +7842,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>5009</v>
       </c>
@@ -7861,7 +7880,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>5017</v>
       </c>
@@ -7899,7 +7918,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>5022</v>
       </c>
@@ -7937,7 +7956,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>5022</v>
       </c>
@@ -7975,7 +7994,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>5901</v>
       </c>
@@ -8013,7 +8032,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>5901</v>
       </c>
@@ -8051,7 +8070,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>5901</v>
       </c>
@@ -8089,7 +8108,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>5901</v>
       </c>
@@ -8127,7 +8146,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>5910</v>
       </c>
@@ -8165,7 +8184,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>5986</v>
       </c>
@@ -8203,7 +8222,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1</v>
       </c>
@@ -8241,7 +8260,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1</v>
       </c>
@@ -8279,7 +8298,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1</v>
       </c>
@@ -8317,7 +8336,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1</v>
       </c>
@@ -8355,7 +8374,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1</v>
       </c>
@@ -8393,7 +8412,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1</v>
       </c>
@@ -8431,7 +8450,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1</v>
       </c>
@@ -8469,7 +8488,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1</v>
       </c>
@@ -8507,7 +8526,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1</v>
       </c>
@@ -8545,7 +8564,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1</v>
       </c>
@@ -8583,7 +8602,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1</v>
       </c>
@@ -8621,7 +8640,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1</v>
       </c>
@@ -8659,7 +8678,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2</v>
       </c>
@@ -8697,7 +8716,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2</v>
       </c>
@@ -8735,7 +8754,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2</v>
       </c>
@@ -8773,7 +8792,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2</v>
       </c>
@@ -8811,7 +8830,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2</v>
       </c>
@@ -8849,7 +8868,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>4</v>
       </c>
@@ -8887,7 +8906,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>4</v>
       </c>
@@ -8925,7 +8944,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>4</v>
       </c>
@@ -8963,7 +8982,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>4</v>
       </c>
@@ -9001,7 +9020,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>4</v>
       </c>
@@ -9039,7 +9058,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>4</v>
       </c>
@@ -9077,7 +9096,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>4</v>
       </c>
@@ -9115,7 +9134,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>4</v>
       </c>
@@ -9153,7 +9172,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>4</v>
       </c>
@@ -9191,7 +9210,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1015</v>
       </c>
@@ -9229,7 +9248,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1026</v>
       </c>
@@ -9267,7 +9286,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1026</v>
       </c>
@@ -9305,7 +9324,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1210</v>
       </c>
@@ -9381,7 +9400,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1211</v>
       </c>
@@ -9419,7 +9438,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1211</v>
       </c>
@@ -9457,7 +9476,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1219</v>
       </c>
@@ -9495,7 +9514,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1219</v>
       </c>
@@ -9533,7 +9552,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1304</v>
       </c>
@@ -9571,7 +9590,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1315</v>
       </c>
@@ -9609,7 +9628,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1315</v>
       </c>
@@ -9685,7 +9704,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1315</v>
       </c>
@@ -9723,7 +9742,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1321</v>
       </c>
@@ -9761,7 +9780,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1516</v>
       </c>
@@ -9799,7 +9818,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1516</v>
       </c>
@@ -9837,7 +9856,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1516</v>
       </c>
@@ -9875,7 +9894,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1516</v>
       </c>
@@ -9913,7 +9932,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2005</v>
       </c>
@@ -9951,7 +9970,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2005</v>
       </c>
@@ -9989,7 +10008,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2005</v>
       </c>
@@ -10027,7 +10046,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2005</v>
       </c>
@@ -10065,7 +10084,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2005</v>
       </c>
@@ -10103,7 +10122,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2005</v>
       </c>
@@ -10141,7 +10160,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -10179,7 +10198,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -10217,7 +10236,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -10255,7 +10274,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -10293,7 +10312,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -10331,7 +10350,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2006</v>
       </c>
@@ -10369,7 +10388,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>2006</v>
       </c>
@@ -10407,7 +10426,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>2006</v>
       </c>
@@ -10445,7 +10464,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>2006</v>
       </c>
@@ -10483,7 +10502,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>2006</v>
       </c>
@@ -10521,7 +10540,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>2007</v>
       </c>
@@ -10559,7 +10578,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>2007</v>
       </c>
@@ -10597,7 +10616,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>2007</v>
       </c>
@@ -10635,7 +10654,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>2007</v>
       </c>
@@ -10673,7 +10692,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2007</v>
       </c>
@@ -10711,7 +10730,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>2007</v>
       </c>
@@ -10749,7 +10768,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>2025</v>
       </c>
@@ -10787,7 +10806,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>2025</v>
       </c>
@@ -10825,7 +10844,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>2345</v>
       </c>
@@ -10863,7 +10882,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>2345</v>
       </c>
@@ -10901,7 +10920,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>2357</v>
       </c>
@@ -10939,7 +10958,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2369</v>
       </c>
@@ -10977,7 +10996,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>2369</v>
       </c>
@@ -11015,7 +11034,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>2377</v>
       </c>
@@ -11053,7 +11072,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>2377</v>
       </c>
@@ -11091,7 +11110,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>2603</v>
       </c>
@@ -11129,7 +11148,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>2603</v>
       </c>
@@ -11167,7 +11186,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>2609</v>
       </c>
@@ -11205,7 +11224,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>2611</v>
       </c>
@@ -11243,7 +11262,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>2611</v>
       </c>
@@ -11281,7 +11300,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>2615</v>
       </c>
@@ -11319,7 +11338,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>2615</v>
       </c>
@@ -11357,7 +11376,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>2615</v>
       </c>
@@ -11395,7 +11414,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>2615</v>
       </c>
@@ -11433,7 +11452,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>2618</v>
       </c>
@@ -11471,7 +11490,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>2618</v>
       </c>
@@ -11509,7 +11528,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>2640</v>
       </c>
@@ -11547,7 +11566,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>2650</v>
       </c>
@@ -11585,7 +11604,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>2702</v>
       </c>
@@ -11623,7 +11642,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>2711</v>
       </c>
@@ -11661,7 +11680,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>2711</v>
       </c>
@@ -11699,7 +11718,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>2712</v>
       </c>
@@ -11737,7 +11756,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>2712</v>
       </c>
@@ -11775,7 +11794,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>2712</v>
       </c>
@@ -11813,7 +11832,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>2712</v>
       </c>
@@ -11851,7 +11870,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>2718</v>
       </c>
@@ -11889,7 +11908,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>2719</v>
       </c>
@@ -11927,7 +11946,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>2723</v>
       </c>
@@ -11965,7 +11984,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>2725</v>
       </c>
@@ -12003,7 +12022,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>3011</v>
       </c>
@@ -12041,7 +12060,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>3011</v>
       </c>
@@ -12079,7 +12098,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>3011</v>
       </c>
@@ -12117,7 +12136,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>3011</v>
       </c>
@@ -12155,7 +12174,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>3464</v>
       </c>
@@ -12193,7 +12212,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>3465</v>
       </c>
@@ -12231,7 +12250,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>3812</v>
       </c>
@@ -12269,7 +12288,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>3819</v>
       </c>
@@ -12307,7 +12326,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>3826</v>
       </c>
@@ -12345,7 +12364,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>4974</v>
       </c>
@@ -12383,7 +12402,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>4974</v>
       </c>
@@ -12421,7 +12440,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>4974</v>
       </c>
@@ -12459,7 +12478,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>5008</v>
       </c>
@@ -12497,7 +12516,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>5008</v>
       </c>
@@ -12535,7 +12554,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>5901</v>
       </c>
@@ -12573,7 +12592,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>5901</v>
       </c>
@@ -12611,7 +12630,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>5901</v>
       </c>
@@ -12649,7 +12668,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>5910</v>
       </c>
@@ -12687,7 +12706,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1</v>
       </c>
@@ -12725,7 +12744,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1</v>
       </c>
@@ -12763,7 +12782,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1</v>
       </c>
@@ -12801,7 +12820,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1</v>
       </c>
@@ -12839,7 +12858,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1</v>
       </c>
@@ -12877,7 +12896,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1</v>
       </c>
@@ -12915,7 +12934,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1</v>
       </c>
@@ -12953,7 +12972,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>1</v>
       </c>
@@ -12991,7 +13010,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1</v>
       </c>
@@ -13029,7 +13048,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>2</v>
       </c>
@@ -13067,7 +13086,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>2</v>
       </c>
@@ -13105,7 +13124,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>2</v>
       </c>
@@ -13143,7 +13162,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>2</v>
       </c>
@@ -13181,7 +13200,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>2</v>
       </c>
@@ -13219,7 +13238,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>4</v>
       </c>
@@ -13257,7 +13276,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>4</v>
       </c>
@@ -13295,7 +13314,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>4</v>
       </c>
@@ -13333,7 +13352,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>4</v>
       </c>
@@ -13371,7 +13390,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>4</v>
       </c>
@@ -13409,7 +13428,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>4</v>
       </c>
@@ -13447,7 +13466,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>4</v>
       </c>
@@ -13485,7 +13504,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>4</v>
       </c>
@@ -13523,7 +13542,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>4</v>
       </c>
@@ -13561,7 +13580,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>5</v>
       </c>
@@ -13599,7 +13618,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1013</v>
       </c>
@@ -13637,7 +13656,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>1026</v>
       </c>
@@ -13675,7 +13694,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1026</v>
       </c>
@@ -13713,7 +13732,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1113</v>
       </c>
@@ -13751,7 +13770,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1118</v>
       </c>
@@ -13827,7 +13846,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1120</v>
       </c>
@@ -13865,7 +13884,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1202</v>
       </c>
@@ -13903,7 +13922,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1202</v>
       </c>
@@ -13941,7 +13960,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1210</v>
       </c>
@@ -13979,7 +13998,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1211</v>
       </c>
@@ -14017,7 +14036,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1211</v>
       </c>
@@ -14055,7 +14074,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1211</v>
       </c>
@@ -14093,7 +14112,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1219</v>
       </c>
@@ -14131,7 +14150,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1219</v>
       </c>
@@ -14207,7 +14226,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>1309</v>
       </c>
@@ -14245,7 +14264,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1315</v>
       </c>
@@ -14283,7 +14302,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1315</v>
       </c>
@@ -14321,7 +14340,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1315</v>
       </c>
@@ -14397,7 +14416,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1315</v>
       </c>
@@ -14435,7 +14454,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1317</v>
       </c>
@@ -14473,7 +14492,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>1321</v>
       </c>
@@ -14549,7 +14568,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>1452</v>
       </c>
@@ -14587,7 +14606,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1516</v>
       </c>
@@ -14625,7 +14644,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>1516</v>
       </c>
@@ -14663,7 +14682,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1516</v>
       </c>
@@ -14701,7 +14720,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>2005</v>
       </c>
@@ -14739,7 +14758,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>2005</v>
       </c>
@@ -14777,7 +14796,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>2005</v>
       </c>
@@ -14853,7 +14872,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>2005</v>
       </c>
@@ -14891,7 +14910,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>2005</v>
       </c>
@@ -14929,7 +14948,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>2006</v>
       </c>
@@ -14967,7 +14986,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>2006</v>
       </c>
@@ -15005,7 +15024,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>2006</v>
       </c>
@@ -15043,7 +15062,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>2006</v>
       </c>
@@ -15081,7 +15100,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>2006</v>
       </c>
@@ -15119,7 +15138,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>2006</v>
       </c>
@@ -15157,7 +15176,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>2006</v>
       </c>
@@ -15195,7 +15214,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>2006</v>
       </c>
@@ -15233,7 +15252,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>2006</v>
       </c>
@@ -15271,7 +15290,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>2007</v>
       </c>
@@ -15309,7 +15328,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>2007</v>
       </c>
@@ -15347,7 +15366,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>2007</v>
       </c>
@@ -15385,7 +15404,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>2007</v>
       </c>
@@ -15423,7 +15442,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>2007</v>
       </c>
@@ -15461,7 +15480,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>2007</v>
       </c>
@@ -15499,7 +15518,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>2025</v>
       </c>
@@ -15537,7 +15556,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>2025</v>
       </c>
@@ -15575,7 +15594,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>2369</v>
       </c>
@@ -15613,7 +15632,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>2377</v>
       </c>
@@ -15651,7 +15670,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>2377</v>
       </c>
@@ -15689,7 +15708,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>2603</v>
       </c>
@@ -15727,7 +15746,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>2608</v>
       </c>
@@ -15765,7 +15784,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>2610</v>
       </c>
@@ -15803,7 +15822,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>2610</v>
       </c>
@@ -15841,7 +15860,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>2610</v>
       </c>
@@ -15917,7 +15936,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>2610</v>
       </c>
@@ -15955,7 +15974,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>2611</v>
       </c>
@@ -16031,7 +16050,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>2615</v>
       </c>
@@ -16069,7 +16088,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>2615</v>
       </c>
@@ -16107,7 +16126,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>2615</v>
       </c>
@@ -16145,7 +16164,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>2615</v>
       </c>
@@ -16183,7 +16202,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>2615</v>
       </c>
@@ -16221,7 +16240,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>2618</v>
       </c>
@@ -16259,7 +16278,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>2618</v>
       </c>
@@ -16297,7 +16316,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>2620</v>
       </c>
@@ -16335,7 +16354,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>2622</v>
       </c>
@@ -16373,7 +16392,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>2622</v>
       </c>
@@ -16411,7 +16430,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>2622</v>
       </c>
@@ -16449,7 +16468,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>2622</v>
       </c>
@@ -16525,7 +16544,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>2622</v>
       </c>
@@ -16563,7 +16582,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>2636</v>
       </c>
@@ -16601,7 +16620,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>2640</v>
       </c>
@@ -16639,7 +16658,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>2660</v>
       </c>
@@ -16677,7 +16696,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>2702</v>
       </c>
@@ -16715,7 +16734,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>2704</v>
       </c>
@@ -16753,7 +16772,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>2711</v>
       </c>
@@ -16791,7 +16810,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>2712</v>
       </c>
@@ -16829,7 +16848,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>2712</v>
       </c>
@@ -16867,7 +16886,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>2712</v>
       </c>
@@ -16905,7 +16924,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>2712</v>
       </c>
@@ -16981,7 +17000,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>2712</v>
       </c>
@@ -17019,7 +17038,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>2718</v>
       </c>
@@ -17057,7 +17076,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>2718</v>
       </c>
@@ -17095,7 +17114,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>2718</v>
       </c>
@@ -17133,7 +17152,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>2719</v>
       </c>
@@ -17171,7 +17190,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>2723</v>
       </c>
@@ -17209,7 +17228,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>2727</v>
       </c>
@@ -17247,7 +17266,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>2736</v>
       </c>
@@ -17285,7 +17304,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>2741</v>
       </c>
@@ -17323,7 +17342,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>2750</v>
       </c>
@@ -17361,7 +17380,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>2750</v>
       </c>
@@ -17399,7 +17418,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>3011</v>
       </c>
@@ -17437,7 +17456,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>3011</v>
       </c>
@@ -17475,7 +17494,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>3011</v>
       </c>
@@ -17513,7 +17532,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>3011</v>
       </c>
@@ -17551,7 +17570,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>3011</v>
       </c>
@@ -17627,7 +17646,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>3011</v>
       </c>
@@ -17665,7 +17684,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>3458</v>
       </c>
@@ -17703,7 +17722,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>3464</v>
       </c>
@@ -17741,7 +17760,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>3465</v>
       </c>
@@ -17779,7 +17798,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>3465</v>
       </c>
@@ -17817,7 +17836,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>3465</v>
       </c>
@@ -17855,7 +17874,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>3819</v>
       </c>
@@ -17893,7 +17912,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>3826</v>
       </c>
@@ -17931,7 +17950,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>3845</v>
       </c>
@@ -17969,7 +17988,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>4974</v>
       </c>
@@ -18007,7 +18026,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>4974</v>
       </c>
@@ -18045,7 +18064,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>4974</v>
       </c>
@@ -18083,7 +18102,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>5008</v>
       </c>
@@ -18121,7 +18140,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>5008</v>
       </c>
@@ -18159,7 +18178,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>5008</v>
       </c>
@@ -18197,7 +18216,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>5008</v>
       </c>
@@ -18235,7 +18254,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>5008</v>
       </c>
@@ -18273,7 +18292,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>5010</v>
       </c>
@@ -18311,7 +18330,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>5901</v>
       </c>
@@ -18349,7 +18368,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>5901</v>
       </c>
@@ -18387,7 +18406,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>5901</v>
       </c>
@@ -18425,7 +18444,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>5901</v>
       </c>
@@ -18463,7 +18482,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>1</v>
       </c>
@@ -18501,7 +18520,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>1</v>
       </c>
@@ -18539,7 +18558,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>1</v>
       </c>
@@ -18577,7 +18596,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>1</v>
       </c>
@@ -18615,7 +18634,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>1</v>
       </c>
@@ -18653,7 +18672,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>1</v>
       </c>
@@ -18691,7 +18710,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>1</v>
       </c>
@@ -18729,7 +18748,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>1</v>
       </c>
@@ -18767,7 +18786,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>1</v>
       </c>
@@ -18805,7 +18824,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>1</v>
       </c>
@@ -18843,7 +18862,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>2</v>
       </c>
@@ -18881,7 +18900,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>2</v>
       </c>
@@ -18919,7 +18938,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>2</v>
       </c>
@@ -18957,7 +18976,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>2</v>
       </c>
@@ -18995,7 +19014,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>2</v>
       </c>
@@ -19033,7 +19052,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>4</v>
       </c>
@@ -19071,7 +19090,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>4</v>
       </c>
@@ -19109,7 +19128,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>4</v>
       </c>
@@ -19147,7 +19166,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>4</v>
       </c>
@@ -19185,7 +19204,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>4</v>
       </c>
@@ -19223,7 +19242,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>4</v>
       </c>
@@ -19261,7 +19280,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>4</v>
       </c>
@@ -19299,7 +19318,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>4</v>
       </c>
@@ -19337,7 +19356,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>1026</v>
       </c>
@@ -19375,7 +19394,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>1113</v>
       </c>
@@ -19413,7 +19432,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>1210</v>
       </c>
@@ -19451,7 +19470,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>1210</v>
       </c>
@@ -19489,7 +19508,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>1211</v>
       </c>
@@ -19527,7 +19546,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>1211</v>
       </c>
@@ -19565,7 +19584,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>1211</v>
       </c>
@@ -19603,7 +19622,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>1211</v>
       </c>
@@ -19641,7 +19660,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>1219</v>
       </c>
@@ -19679,7 +19698,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>1304</v>
       </c>
@@ -19717,7 +19736,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>1315</v>
       </c>
@@ -19755,7 +19774,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>1315</v>
       </c>
@@ -19831,7 +19850,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>1321</v>
       </c>
@@ -19907,7 +19926,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>1399</v>
       </c>
@@ -19945,7 +19964,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>1419</v>
       </c>
@@ -19983,7 +20002,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>1516</v>
       </c>
@@ -20021,7 +20040,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>2005</v>
       </c>
@@ -20059,7 +20078,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>2005</v>
       </c>
@@ -20097,7 +20116,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>2005</v>
       </c>
@@ -20135,7 +20154,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>2005</v>
       </c>
@@ -20211,7 +20230,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>2005</v>
       </c>
@@ -20249,7 +20268,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>2005</v>
       </c>
@@ -20287,7 +20306,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>2006</v>
       </c>
@@ -20325,7 +20344,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>2006</v>
       </c>
@@ -20363,7 +20382,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>2006</v>
       </c>
@@ -20401,7 +20420,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>2006</v>
       </c>
@@ -20439,7 +20458,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>2006</v>
       </c>
@@ -20477,7 +20496,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>2006</v>
       </c>
@@ -20515,7 +20534,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>2006</v>
       </c>
@@ -20553,7 +20572,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>2006</v>
       </c>
@@ -20591,7 +20610,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>2006</v>
       </c>
@@ -20629,7 +20648,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>2006</v>
       </c>
@@ -20667,7 +20686,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>2007</v>
       </c>
@@ -20705,7 +20724,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>2007</v>
       </c>
@@ -20743,7 +20762,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>2007</v>
       </c>
@@ -20781,7 +20800,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>2007</v>
       </c>
@@ -20819,7 +20838,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>2007</v>
       </c>
@@ -20857,7 +20876,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>2025</v>
       </c>
@@ -20895,7 +20914,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>2025</v>
       </c>
@@ -20933,7 +20952,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>2025</v>
       </c>
@@ -20971,7 +20990,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>2357</v>
       </c>
@@ -21009,7 +21028,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>2369</v>
       </c>
@@ -21047,7 +21066,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>2369</v>
       </c>
@@ -21085,7 +21104,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>2377</v>
       </c>
@@ -21123,7 +21142,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>2377</v>
       </c>
@@ -21161,7 +21180,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>2603</v>
       </c>
@@ -21199,7 +21218,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>2603</v>
       </c>
@@ -21237,7 +21256,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>2609</v>
       </c>
@@ -21275,7 +21294,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>2611</v>
       </c>
@@ -21313,7 +21332,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>2611</v>
       </c>
@@ -21351,7 +21370,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>2615</v>
       </c>
@@ -21389,7 +21408,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>2615</v>
       </c>
@@ -21427,7 +21446,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>2615</v>
       </c>
@@ -21465,7 +21484,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>2615</v>
       </c>
@@ -21503,7 +21522,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>2615</v>
       </c>
@@ -21541,7 +21560,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>2620</v>
       </c>
@@ -21579,7 +21598,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>2622</v>
       </c>
@@ -21617,7 +21636,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>2622</v>
       </c>
@@ -21655,7 +21674,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>2622</v>
       </c>
@@ -21731,7 +21750,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>2623</v>
       </c>
@@ -21769,7 +21788,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>2624</v>
       </c>
@@ -21807,7 +21826,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>2632</v>
       </c>
@@ -21845,7 +21864,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>2702</v>
       </c>
@@ -21883,7 +21902,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>2702</v>
       </c>
@@ -21921,7 +21940,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>2704</v>
       </c>
@@ -21997,7 +22016,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>2711</v>
       </c>
@@ -22035,7 +22054,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>2712</v>
       </c>
@@ -22073,7 +22092,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>2712</v>
       </c>
@@ -22111,7 +22130,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>2712</v>
       </c>
@@ -22149,7 +22168,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>2712</v>
       </c>
@@ -22187,7 +22206,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>2712</v>
       </c>
@@ -22225,7 +22244,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>2718</v>
       </c>
@@ -22263,7 +22282,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>2718</v>
       </c>
@@ -22339,7 +22358,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>2719</v>
       </c>
@@ -22377,7 +22396,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>2719</v>
       </c>
@@ -22415,7 +22434,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>2729</v>
       </c>
@@ -22453,7 +22472,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>2750</v>
       </c>
@@ -22491,7 +22510,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>3011</v>
       </c>
@@ -22529,7 +22548,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>3011</v>
       </c>
@@ -22567,7 +22586,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>3011</v>
       </c>
@@ -22605,7 +22624,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>3465</v>
       </c>
@@ -22643,7 +22662,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>3465</v>
       </c>
@@ -22681,7 +22700,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>3819</v>
       </c>
@@ -22719,7 +22738,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>4974</v>
       </c>
@@ -22757,7 +22776,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>4974</v>
       </c>
@@ -22795,7 +22814,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>5008</v>
       </c>
@@ -22833,7 +22852,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>5008</v>
       </c>
@@ -22871,7 +22890,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>5008</v>
       </c>
@@ -22909,7 +22928,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>5008</v>
       </c>
@@ -22947,7 +22966,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>5008</v>
       </c>
@@ -22985,7 +23004,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>5008</v>
       </c>
@@ -23023,7 +23042,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>5010</v>
       </c>
@@ -23061,7 +23080,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>5901</v>
       </c>
@@ -23099,7 +23118,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>5901</v>
       </c>
@@ -23137,7 +23156,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>1</v>
       </c>
@@ -23175,7 +23194,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>1</v>
       </c>
@@ -23213,7 +23232,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>1</v>
       </c>
@@ -23251,7 +23270,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>1</v>
       </c>
@@ -23289,7 +23308,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>1</v>
       </c>
@@ -23327,7 +23346,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>1</v>
       </c>
@@ -23365,7 +23384,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>1</v>
       </c>
@@ -23403,7 +23422,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>1</v>
       </c>
@@ -23441,7 +23460,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>1</v>
       </c>
@@ -23479,7 +23498,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>1</v>
       </c>
@@ -23517,7 +23536,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>2</v>
       </c>
@@ -23555,7 +23574,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>2</v>
       </c>
@@ -23593,7 +23612,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>2</v>
       </c>
@@ -23631,7 +23650,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>4</v>
       </c>
@@ -23669,7 +23688,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>4</v>
       </c>
@@ -23707,7 +23726,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>4</v>
       </c>
@@ -23745,7 +23764,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>5</v>
       </c>
@@ -23783,7 +23802,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>5</v>
       </c>
@@ -23821,7 +23840,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>5</v>
       </c>
@@ -23935,7 +23954,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>1015</v>
       </c>
@@ -23973,7 +23992,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>1113</v>
       </c>
@@ -24011,7 +24030,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>1120</v>
       </c>
@@ -24049,7 +24068,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>1128</v>
       </c>
@@ -24087,7 +24106,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>1210</v>
       </c>
@@ -24125,7 +24144,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>1211</v>
       </c>
@@ -24163,7 +24182,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>1211</v>
       </c>
@@ -24201,7 +24220,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>1211</v>
       </c>
@@ -24277,7 +24296,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>1219</v>
       </c>
@@ -24315,7 +24334,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>1219</v>
       </c>
@@ -24391,7 +24410,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>1231</v>
       </c>
@@ -24429,7 +24448,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>1231</v>
       </c>
@@ -24467,7 +24486,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>1233</v>
       </c>
@@ -24505,7 +24524,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>1307</v>
       </c>
@@ -24543,7 +24562,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>1315</v>
       </c>
@@ -24581,7 +24600,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>1315</v>
       </c>
@@ -24619,7 +24638,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>1315</v>
       </c>
@@ -24695,7 +24714,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>1315</v>
       </c>
@@ -24733,7 +24752,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>1317</v>
       </c>
@@ -24771,7 +24790,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>1321</v>
       </c>
@@ -24809,7 +24828,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>1399</v>
       </c>
@@ -24847,7 +24866,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>1422</v>
       </c>
@@ -24885,7 +24904,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>1432</v>
       </c>
@@ -24923,7 +24942,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>1452</v>
       </c>
@@ -24961,7 +24980,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>1516</v>
       </c>
@@ -24999,7 +25018,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>1516</v>
       </c>
@@ -25037,7 +25056,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>1516</v>
       </c>
@@ -25075,7 +25094,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>2005</v>
       </c>
@@ -25113,7 +25132,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>2005</v>
       </c>
@@ -25189,7 +25208,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>2005</v>
       </c>
@@ -25227,7 +25246,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>2005</v>
       </c>
@@ -25265,7 +25284,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>2006</v>
       </c>
@@ -25303,7 +25322,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>2006</v>
       </c>
@@ -25341,7 +25360,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>2006</v>
       </c>
@@ -25379,7 +25398,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>2006</v>
       </c>
@@ -25417,7 +25436,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>2006</v>
       </c>
@@ -25455,7 +25474,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>2006</v>
       </c>
@@ -25493,7 +25512,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>2007</v>
       </c>
@@ -25531,7 +25550,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>2007</v>
       </c>
@@ -25569,7 +25588,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>2007</v>
       </c>
@@ -25607,7 +25626,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>2007</v>
       </c>
@@ -25645,7 +25664,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>2025</v>
       </c>
@@ -25683,7 +25702,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>2025</v>
       </c>
@@ -25721,7 +25740,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>2329</v>
       </c>
@@ -25759,7 +25778,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>2357</v>
       </c>
@@ -25797,7 +25816,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>2369</v>
       </c>
@@ -25835,7 +25854,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>2377</v>
       </c>
@@ -25873,7 +25892,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>2377</v>
       </c>
@@ -25911,7 +25930,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>2603</v>
       </c>
@@ -25949,7 +25968,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>2603</v>
       </c>
@@ -26025,7 +26044,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>2610</v>
       </c>
@@ -26101,7 +26120,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>2611</v>
       </c>
@@ -26139,7 +26158,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>2611</v>
       </c>
@@ -26215,7 +26234,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>2613</v>
       </c>
@@ -26253,7 +26272,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>2615</v>
       </c>
@@ -26291,7 +26310,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>2615</v>
       </c>
@@ -26329,7 +26348,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>2615</v>
       </c>
@@ -26405,7 +26424,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>2620</v>
       </c>
@@ -26443,7 +26462,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>2622</v>
       </c>
@@ -26481,7 +26500,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>2622</v>
       </c>
@@ -26519,7 +26538,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>2622</v>
       </c>
@@ -26595,7 +26614,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>2628</v>
       </c>
@@ -26633,7 +26652,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>2636</v>
       </c>
@@ -26671,7 +26690,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>2636</v>
       </c>
@@ -26747,7 +26766,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>2643</v>
       </c>
@@ -26785,7 +26804,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>2650</v>
       </c>
@@ -26823,7 +26842,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>2656</v>
       </c>
@@ -26861,7 +26880,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>2657</v>
       </c>
@@ -26899,7 +26918,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>2665</v>
       </c>
@@ -26937,7 +26956,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>2702</v>
       </c>
@@ -26975,7 +26994,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>2702</v>
       </c>
@@ -27013,7 +27032,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>2702</v>
       </c>
@@ -27127,7 +27146,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>2707</v>
       </c>
@@ -27241,7 +27260,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>2709</v>
       </c>
@@ -27279,7 +27298,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>2710</v>
       </c>
@@ -27317,7 +27336,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>2710</v>
       </c>
@@ -27393,7 +27412,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>2711</v>
       </c>
@@ -27469,7 +27488,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>2712</v>
       </c>
@@ -27507,7 +27526,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>2712</v>
       </c>
@@ -27545,7 +27564,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>2712</v>
       </c>
@@ -27583,7 +27602,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>2712</v>
       </c>
@@ -27621,7 +27640,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>2712</v>
       </c>
@@ -27659,7 +27678,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>2712</v>
       </c>
@@ -27697,7 +27716,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>2718</v>
       </c>
@@ -27735,7 +27754,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>2718</v>
       </c>
@@ -27811,7 +27830,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>2719</v>
       </c>
@@ -27849,7 +27868,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>2719</v>
       </c>
@@ -27887,7 +27906,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>2722</v>
       </c>
@@ -27925,7 +27944,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>2723</v>
       </c>
@@ -28001,7 +28020,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>2727</v>
       </c>
@@ -28039,7 +28058,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>2731</v>
       </c>
@@ -28077,7 +28096,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>2740</v>
       </c>
@@ -28115,7 +28134,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>2741</v>
       </c>
@@ -28153,7 +28172,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>2741</v>
       </c>
@@ -28229,7 +28248,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>2750</v>
       </c>
@@ -28267,7 +28286,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>2750</v>
       </c>
@@ -28305,7 +28324,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>2755</v>
       </c>
@@ -28343,7 +28362,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>2776</v>
       </c>
@@ -28381,7 +28400,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>3011</v>
       </c>
@@ -28419,7 +28438,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>3011</v>
       </c>
@@ -28495,7 +28514,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>3011</v>
       </c>
@@ -28533,7 +28552,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>3011</v>
       </c>
@@ -28571,7 +28590,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>3465</v>
       </c>
@@ -28609,7 +28628,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>3465</v>
       </c>
@@ -28647,7 +28666,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>3786</v>
       </c>
@@ -28685,7 +28704,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>3805</v>
       </c>
@@ -28723,7 +28742,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>3819</v>
       </c>
@@ -28761,7 +28780,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>3819</v>
       </c>
@@ -28799,7 +28818,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>3826</v>
       </c>
@@ -28837,7 +28856,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>3826</v>
       </c>
@@ -28875,7 +28894,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>4020</v>
       </c>
@@ -28913,7 +28932,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>4020</v>
       </c>
@@ -28951,7 +28970,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>4974</v>
       </c>
@@ -28989,7 +29008,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>4974</v>
       </c>
@@ -29027,7 +29046,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>5008</v>
       </c>
@@ -29065,7 +29084,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>5008</v>
       </c>
@@ -29103,7 +29122,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>5008</v>
       </c>
@@ -29141,7 +29160,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>5008</v>
       </c>
@@ -29179,7 +29198,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>5008</v>
       </c>
@@ -29217,7 +29236,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>5010</v>
       </c>
@@ -29255,7 +29274,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>5010</v>
       </c>
@@ -29293,7 +29312,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>5901</v>
       </c>
@@ -29331,7 +29350,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>5901</v>
       </c>
@@ -29369,7 +29388,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>5901</v>
       </c>
@@ -29408,23 +29427,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D735" xr:uid="{6592C329-423D-456B-A327-481CAD1C7A9A}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Information Technology"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Coimbatore">
-      <formula>NOT(ISERROR(SEARCH("Coimbatore",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>180</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <autoFilter ref="D1:D735" xr:uid="{6592C329-423D-456B-A327-481CAD1C7A9A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Code/dataset.xlsx
+++ b/Code/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7th_Sem_Project\PP-I\source_code\20CS713-PP-I-C12\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFBD62B-CD16-440D-9C64-5A488CE4409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB91CD-DCBD-4E8C-8DB2-A3CE6177468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{25CED6B5-A0F3-467B-B53B-A30D2BC9A7C0}"/>
   </bookViews>
@@ -615,9 +615,6 @@
     <t>D M I College of Engineering, Palanchoor, Nazrethpet, Chennai 602103</t>
   </si>
   <si>
-    <t>Panimalar Engineering College, Nazarethpet, Poonamallee, Chennai 602103</t>
-  </si>
-  <si>
     <t>Rajalakshmi Engineering College (Autonomous), Thandalam, Sriperumpudur Taluk, Kancheepuram District 602105</t>
   </si>
   <si>
@@ -921,12 +918,6 @@
     <t>R M K College of Engineering and Technology (Autonomous), Puduvoyal, Gummidipoondi Taluk, Thiruvallur District 601206</t>
   </si>
   <si>
-    <t>Panimalar Engineering College (Autonomous), Nazarethpet, Poonamallee, Chennai 602103</t>
-  </si>
-  <si>
-    <t>Panimalar Institute of Technology, Nazarethpet, Poonamallee, Chennai 602103</t>
-  </si>
-  <si>
     <t>AD</t>
   </si>
   <si>
@@ -1092,7 +1083,16 @@
     <t>Placement_Percentage</t>
   </si>
   <si>
-    <t>ANIMALAR ENGINEERING COLLEGE,BANGALORE TRUNK ROAD, THIRUVALLUR DIST, PIN - 600123.</t>
+    <t>PANIMALAR ENGINEERING COLLEGE,BANGALORE TRUNK ROAD, THIRUVALLUR DIST, PIN - 600123.</t>
+  </si>
+  <si>
+    <t>PPANIMALAR Engineering College, Nazarethpet, Poonamallee, Chennai 602103</t>
+  </si>
+  <si>
+    <t>PPANIMALAR Engineering College (Autonomous), Nazarethpet, Poonamallee, Chennai 602103</t>
+  </si>
+  <si>
+    <t>PPANIMALAR Institute of Technology, Nazarethpet, Poonamallee, Chennai 602103</t>
   </si>
 </sst>
 </file>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6592C329-423D-456B-A327-481CAD1C7A9A}">
   <dimension ref="A1:M735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1461,16 +1461,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" t="s">
         <v>346</v>
       </c>
-      <c r="B1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" t="s">
-        <v>349</v>
-      </c>
       <c r="D1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1634,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E5">
         <v>199</v>
@@ -3186,7 +3186,7 @@
         <v>1210</v>
       </c>
       <c r="B43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -3227,7 +3227,7 @@
         <v>1210</v>
       </c>
       <c r="B44" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -3268,7 +3268,7 @@
         <v>1210</v>
       </c>
       <c r="B45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
@@ -3309,7 +3309,7 @@
         <v>1210</v>
       </c>
       <c r="B46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C46" t="s">
         <v>23</v>
@@ -4955,7 +4955,7 @@
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E86">
         <v>199</v>
@@ -5201,7 +5201,7 @@
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E92">
         <v>197.5</v>
@@ -8030,7 +8030,7 @@
         <v>122</v>
       </c>
       <c r="D161" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E161">
         <v>195.75</v>
@@ -8850,7 +8850,7 @@
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E181">
         <v>198.5</v>
@@ -8932,7 +8932,7 @@
         <v>17</v>
       </c>
       <c r="D183" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E183">
         <v>199.33</v>
@@ -9014,7 +9014,7 @@
         <v>19</v>
       </c>
       <c r="D185" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E185">
         <v>198.25</v>
@@ -9506,7 +9506,7 @@
         <v>17</v>
       </c>
       <c r="D197" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E197">
         <v>197.75</v>
@@ -9588,7 +9588,7 @@
         <v>19</v>
       </c>
       <c r="D199" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E199">
         <v>196.75</v>
@@ -9793,7 +9793,7 @@
         <v>17</v>
       </c>
       <c r="D204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E204">
         <v>152.25</v>
@@ -9910,13 +9910,13 @@
         <v>1210</v>
       </c>
       <c r="B207" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C207" t="s">
         <v>17</v>
       </c>
       <c r="D207" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E207">
         <v>185.5</v>
@@ -9951,7 +9951,7 @@
         <v>1210</v>
       </c>
       <c r="B208" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -10039,7 +10039,7 @@
         <v>17</v>
       </c>
       <c r="D210" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E210">
         <v>186</v>
@@ -10121,7 +10121,7 @@
         <v>17</v>
       </c>
       <c r="D212" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E212">
         <v>193.25</v>
@@ -10244,7 +10244,7 @@
         <v>17</v>
       </c>
       <c r="D215" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E215">
         <v>195.75</v>
@@ -10449,7 +10449,7 @@
         <v>17</v>
       </c>
       <c r="D220" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E220">
         <v>181</v>
@@ -10900,7 +10900,7 @@
         <v>15</v>
       </c>
       <c r="D231" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E231">
         <v>198.5</v>
@@ -10941,7 +10941,7 @@
         <v>17</v>
       </c>
       <c r="D232" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E232">
         <v>198.75</v>
@@ -11023,7 +11023,7 @@
         <v>19</v>
       </c>
       <c r="D234" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E234">
         <v>197.75</v>
@@ -11269,7 +11269,7 @@
         <v>15</v>
       </c>
       <c r="D240" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E240">
         <v>195.5</v>
@@ -11351,7 +11351,7 @@
         <v>17</v>
       </c>
       <c r="D242" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E242">
         <v>196.75</v>
@@ -11597,7 +11597,7 @@
         <v>17</v>
       </c>
       <c r="D248" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E248">
         <v>151</v>
@@ -11638,7 +11638,7 @@
         <v>17</v>
       </c>
       <c r="D249" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E249">
         <v>174.25</v>
@@ -11761,7 +11761,7 @@
         <v>17</v>
       </c>
       <c r="D252" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E252">
         <v>195.25</v>
@@ -11843,7 +11843,7 @@
         <v>17</v>
       </c>
       <c r="D254" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E254">
         <v>188.75</v>
@@ -12007,7 +12007,7 @@
         <v>17</v>
       </c>
       <c r="D258" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E258">
         <v>147.5</v>
@@ -12458,7 +12458,7 @@
         <v>17</v>
       </c>
       <c r="D269" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E269">
         <v>188.75</v>
@@ -12581,7 +12581,7 @@
         <v>17</v>
       </c>
       <c r="D272" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E272">
         <v>193.25</v>
@@ -13360,7 +13360,7 @@
         <v>19</v>
       </c>
       <c r="D291" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E291">
         <v>194.75</v>
@@ -13770,7 +13770,7 @@
         <v>19</v>
       </c>
       <c r="D301" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E301">
         <v>193.33</v>
@@ -13852,7 +13852,7 @@
         <v>21</v>
       </c>
       <c r="D303" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E303">
         <v>192.5</v>
@@ -14303,7 +14303,7 @@
         <v>19</v>
       </c>
       <c r="D314" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E314">
         <v>191</v>
@@ -14344,7 +14344,7 @@
         <v>21</v>
       </c>
       <c r="D315" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E315">
         <v>190</v>
@@ -14912,7 +14912,7 @@
         <v>1210</v>
       </c>
       <c r="B329" t="s">
-        <v>195</v>
+        <v>352</v>
       </c>
       <c r="C329" t="s">
         <v>16</v>
@@ -14953,13 +14953,13 @@
         <v>1211</v>
       </c>
       <c r="B330" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C330" t="s">
         <v>61</v>
       </c>
       <c r="D330" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E330">
         <v>171</v>
@@ -14994,7 +14994,7 @@
         <v>1211</v>
       </c>
       <c r="B331" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C331" t="s">
         <v>16</v>
@@ -15035,7 +15035,7 @@
         <v>1211</v>
       </c>
       <c r="B332" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C332" t="s">
         <v>17</v>
@@ -15076,7 +15076,7 @@
         <v>1219</v>
       </c>
       <c r="B333" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C333" t="s">
         <v>16</v>
@@ -15117,7 +15117,7 @@
         <v>1219</v>
       </c>
       <c r="B334" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C334" t="s">
         <v>17</v>
@@ -15158,7 +15158,7 @@
         <v>1219</v>
       </c>
       <c r="B335" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C335" t="s">
         <v>68</v>
@@ -15199,7 +15199,7 @@
         <v>1309</v>
       </c>
       <c r="B336" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C336" t="s">
         <v>17</v>
@@ -15240,7 +15240,7 @@
         <v>1315</v>
       </c>
       <c r="B337" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C337" t="s">
         <v>16</v>
@@ -15281,7 +15281,7 @@
         <v>1315</v>
       </c>
       <c r="B338" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C338" t="s">
         <v>17</v>
@@ -15322,7 +15322,7 @@
         <v>1315</v>
       </c>
       <c r="B339" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C339" t="s">
         <v>18</v>
@@ -15363,7 +15363,7 @@
         <v>1315</v>
       </c>
       <c r="B340" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C340" t="s">
         <v>68</v>
@@ -15404,7 +15404,7 @@
         <v>1315</v>
       </c>
       <c r="B341" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C341" t="s">
         <v>23</v>
@@ -15445,7 +15445,7 @@
         <v>1317</v>
       </c>
       <c r="B342" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C342" t="s">
         <v>16</v>
@@ -15486,7 +15486,7 @@
         <v>1321</v>
       </c>
       <c r="B343" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C343" t="s">
         <v>74</v>
@@ -15527,7 +15527,7 @@
         <v>1325</v>
       </c>
       <c r="B344" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C344" t="s">
         <v>68</v>
@@ -15568,7 +15568,7 @@
         <v>1452</v>
       </c>
       <c r="B345" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C345" t="s">
         <v>16</v>
@@ -15609,7 +15609,7 @@
         <v>1516</v>
       </c>
       <c r="B346" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C346" t="s">
         <v>17</v>
@@ -15650,7 +15650,7 @@
         <v>1516</v>
       </c>
       <c r="B347" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C347" t="s">
         <v>18</v>
@@ -15691,7 +15691,7 @@
         <v>1516</v>
       </c>
       <c r="B348" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C348" t="s">
         <v>23</v>
@@ -15732,7 +15732,7 @@
         <v>2005</v>
       </c>
       <c r="B349" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C349" t="s">
         <v>13</v>
@@ -15773,7 +15773,7 @@
         <v>2005</v>
       </c>
       <c r="B350" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C350" t="s">
         <v>18</v>
@@ -15814,13 +15814,13 @@
         <v>2005</v>
       </c>
       <c r="B351" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C351" t="s">
         <v>45</v>
       </c>
       <c r="D351" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E351">
         <v>182</v>
@@ -15855,7 +15855,7 @@
         <v>2005</v>
       </c>
       <c r="B352" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C352" t="s">
         <v>68</v>
@@ -15896,7 +15896,7 @@
         <v>2005</v>
       </c>
       <c r="B353" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C353" t="s">
         <v>23</v>
@@ -15937,7 +15937,7 @@
         <v>2005</v>
       </c>
       <c r="B354" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C354" t="s">
         <v>49</v>
@@ -15978,7 +15978,7 @@
         <v>2006</v>
       </c>
       <c r="B355" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C355" t="s">
         <v>15</v>
@@ -16019,7 +16019,7 @@
         <v>2006</v>
       </c>
       <c r="B356" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C356" t="s">
         <v>17</v>
@@ -16060,7 +16060,7 @@
         <v>2006</v>
       </c>
       <c r="B357" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C357" t="s">
         <v>18</v>
@@ -16101,13 +16101,13 @@
         <v>2006</v>
       </c>
       <c r="B358" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C358" t="s">
         <v>19</v>
       </c>
       <c r="D358" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E358">
         <v>192.25</v>
@@ -16142,13 +16142,13 @@
         <v>2006</v>
       </c>
       <c r="B359" t="s">
+        <v>207</v>
+      </c>
+      <c r="C359" t="s">
         <v>208</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
         <v>209</v>
-      </c>
-      <c r="D359" t="s">
-        <v>210</v>
       </c>
       <c r="E359">
         <v>184</v>
@@ -16183,13 +16183,13 @@
         <v>2006</v>
       </c>
       <c r="B360" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C360" t="s">
         <v>21</v>
       </c>
       <c r="D360" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E360">
         <v>191</v>
@@ -16224,7 +16224,7 @@
         <v>2006</v>
       </c>
       <c r="B361" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C361" t="s">
         <v>23</v>
@@ -16265,7 +16265,7 @@
         <v>2006</v>
       </c>
       <c r="B362" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C362" t="s">
         <v>47</v>
@@ -16306,13 +16306,13 @@
         <v>2006</v>
       </c>
       <c r="B363" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C363" t="s">
+        <v>210</v>
+      </c>
+      <c r="D363" t="s">
         <v>211</v>
-      </c>
-      <c r="D363" t="s">
-        <v>212</v>
       </c>
       <c r="E363">
         <v>189</v>
@@ -16347,7 +16347,7 @@
         <v>2007</v>
       </c>
       <c r="B364" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C364" t="s">
         <v>16</v>
@@ -16388,7 +16388,7 @@
         <v>2007</v>
       </c>
       <c r="B365" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C365" t="s">
         <v>17</v>
@@ -16429,13 +16429,13 @@
         <v>2007</v>
       </c>
       <c r="B366" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C366" t="s">
         <v>19</v>
       </c>
       <c r="D366" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E366">
         <v>188</v>
@@ -16470,13 +16470,13 @@
         <v>2007</v>
       </c>
       <c r="B367" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C367" t="s">
         <v>123</v>
       </c>
       <c r="D367" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E367">
         <v>185.5</v>
@@ -16511,13 +16511,13 @@
         <v>2007</v>
       </c>
       <c r="B368" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C368" t="s">
         <v>21</v>
       </c>
       <c r="D368" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E368">
         <v>187.5</v>
@@ -16552,7 +16552,7 @@
         <v>2007</v>
       </c>
       <c r="B369" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C369" t="s">
         <v>23</v>
@@ -16593,7 +16593,7 @@
         <v>2025</v>
       </c>
       <c r="B370" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C370" t="s">
         <v>16</v>
@@ -16634,7 +16634,7 @@
         <v>2025</v>
       </c>
       <c r="B371" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C371" t="s">
         <v>18</v>
@@ -16675,7 +16675,7 @@
         <v>2369</v>
       </c>
       <c r="B372" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C372" t="s">
         <v>18</v>
@@ -16716,7 +16716,7 @@
         <v>2377</v>
       </c>
       <c r="B373" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C373" t="s">
         <v>13</v>
@@ -16757,7 +16757,7 @@
         <v>2377</v>
       </c>
       <c r="B374" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C374" t="s">
         <v>18</v>
@@ -16798,7 +16798,7 @@
         <v>2603</v>
       </c>
       <c r="B375" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C375" t="s">
         <v>18</v>
@@ -16839,7 +16839,7 @@
         <v>2608</v>
       </c>
       <c r="B376" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C376" t="s">
         <v>23</v>
@@ -16880,7 +16880,7 @@
         <v>2610</v>
       </c>
       <c r="B377" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C377" t="s">
         <v>16</v>
@@ -16921,7 +16921,7 @@
         <v>2610</v>
       </c>
       <c r="B378" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C378" t="s">
         <v>17</v>
@@ -16962,7 +16962,7 @@
         <v>2610</v>
       </c>
       <c r="B379" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C379" t="s">
         <v>18</v>
@@ -17003,7 +17003,7 @@
         <v>2610</v>
       </c>
       <c r="B380" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C380" t="s">
         <v>68</v>
@@ -17044,7 +17044,7 @@
         <v>2610</v>
       </c>
       <c r="B381" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C381" t="s">
         <v>23</v>
@@ -17085,7 +17085,7 @@
         <v>2611</v>
       </c>
       <c r="B382" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C382" t="s">
         <v>16</v>
@@ -17126,7 +17126,7 @@
         <v>2611</v>
       </c>
       <c r="B383" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C383" t="s">
         <v>68</v>
@@ -17167,7 +17167,7 @@
         <v>2615</v>
       </c>
       <c r="B384" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C384" t="s">
         <v>13</v>
@@ -17208,7 +17208,7 @@
         <v>2615</v>
       </c>
       <c r="B385" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C385" t="s">
         <v>16</v>
@@ -17249,7 +17249,7 @@
         <v>2615</v>
       </c>
       <c r="B386" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C386" t="s">
         <v>18</v>
@@ -17290,7 +17290,7 @@
         <v>2615</v>
       </c>
       <c r="B387" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C387" t="s">
         <v>23</v>
@@ -17331,7 +17331,7 @@
         <v>2615</v>
       </c>
       <c r="B388" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C388" t="s">
         <v>94</v>
@@ -17372,7 +17372,7 @@
         <v>2618</v>
       </c>
       <c r="B389" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C389" t="s">
         <v>18</v>
@@ -17413,7 +17413,7 @@
         <v>2618</v>
       </c>
       <c r="B390" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C390" t="s">
         <v>23</v>
@@ -17454,7 +17454,7 @@
         <v>2620</v>
       </c>
       <c r="B391" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C391" t="s">
         <v>16</v>
@@ -17495,7 +17495,7 @@
         <v>2622</v>
       </c>
       <c r="B392" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C392" t="s">
         <v>13</v>
@@ -17536,7 +17536,7 @@
         <v>2622</v>
       </c>
       <c r="B393" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C393" t="s">
         <v>32</v>
@@ -17577,7 +17577,7 @@
         <v>2622</v>
       </c>
       <c r="B394" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C394" t="s">
         <v>16</v>
@@ -17618,7 +17618,7 @@
         <v>2622</v>
       </c>
       <c r="B395" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C395" t="s">
         <v>17</v>
@@ -17659,7 +17659,7 @@
         <v>2622</v>
       </c>
       <c r="B396" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C396" t="s">
         <v>68</v>
@@ -17700,7 +17700,7 @@
         <v>2622</v>
       </c>
       <c r="B397" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C397" t="s">
         <v>23</v>
@@ -17741,7 +17741,7 @@
         <v>2636</v>
       </c>
       <c r="B398" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C398" t="s">
         <v>16</v>
@@ -17782,7 +17782,7 @@
         <v>2640</v>
       </c>
       <c r="B399" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C399" t="s">
         <v>16</v>
@@ -17823,13 +17823,13 @@
         <v>2660</v>
       </c>
       <c r="B400" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C400" t="s">
         <v>61</v>
       </c>
       <c r="D400" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E400">
         <v>120</v>
@@ -17864,13 +17864,13 @@
         <v>2702</v>
       </c>
       <c r="B401" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C401" t="s">
         <v>63</v>
       </c>
       <c r="D401" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E401">
         <v>161</v>
@@ -17905,7 +17905,7 @@
         <v>2704</v>
       </c>
       <c r="B402" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C402" t="s">
         <v>16</v>
@@ -17946,7 +17946,7 @@
         <v>2711</v>
       </c>
       <c r="B403" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C403" t="s">
         <v>23</v>
@@ -17987,7 +17987,7 @@
         <v>2712</v>
       </c>
       <c r="B404" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C404" t="s">
         <v>13</v>
@@ -18028,7 +18028,7 @@
         <v>2712</v>
       </c>
       <c r="B405" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C405" t="s">
         <v>16</v>
@@ -18069,7 +18069,7 @@
         <v>2712</v>
       </c>
       <c r="B406" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C406" t="s">
         <v>17</v>
@@ -18110,7 +18110,7 @@
         <v>2712</v>
       </c>
       <c r="B407" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C407" t="s">
         <v>18</v>
@@ -18151,7 +18151,7 @@
         <v>2712</v>
       </c>
       <c r="B408" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C408" t="s">
         <v>68</v>
@@ -18192,7 +18192,7 @@
         <v>2712</v>
       </c>
       <c r="B409" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C409" t="s">
         <v>23</v>
@@ -18233,7 +18233,7 @@
         <v>2718</v>
       </c>
       <c r="B410" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C410" t="s">
         <v>16</v>
@@ -18274,7 +18274,7 @@
         <v>2718</v>
       </c>
       <c r="B411" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C411" t="s">
         <v>17</v>
@@ -18315,7 +18315,7 @@
         <v>2718</v>
       </c>
       <c r="B412" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C412" t="s">
         <v>23</v>
@@ -18356,7 +18356,7 @@
         <v>2719</v>
       </c>
       <c r="B413" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C413" t="s">
         <v>18</v>
@@ -18397,7 +18397,7 @@
         <v>2723</v>
       </c>
       <c r="B414" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C414" t="s">
         <v>17</v>
@@ -18438,7 +18438,7 @@
         <v>2727</v>
       </c>
       <c r="B415" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C415" t="s">
         <v>16</v>
@@ -18479,7 +18479,7 @@
         <v>2736</v>
       </c>
       <c r="B416" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C416" t="s">
         <v>16</v>
@@ -18520,7 +18520,7 @@
         <v>2741</v>
       </c>
       <c r="B417" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C417" t="s">
         <v>17</v>
@@ -18561,7 +18561,7 @@
         <v>2750</v>
       </c>
       <c r="B418" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C418" t="s">
         <v>17</v>
@@ -18602,7 +18602,7 @@
         <v>2750</v>
       </c>
       <c r="B419" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C419" t="s">
         <v>23</v>
@@ -18643,13 +18643,13 @@
         <v>3011</v>
       </c>
       <c r="B420" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C420" t="s">
         <v>63</v>
       </c>
       <c r="D420" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E420">
         <v>171</v>
@@ -18684,7 +18684,7 @@
         <v>3011</v>
       </c>
       <c r="B421" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C421" t="s">
         <v>13</v>
@@ -18725,7 +18725,7 @@
         <v>3011</v>
       </c>
       <c r="B422" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C422" t="s">
         <v>16</v>
@@ -18766,7 +18766,7 @@
         <v>3011</v>
       </c>
       <c r="B423" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C423" t="s">
         <v>17</v>
@@ -18807,7 +18807,7 @@
         <v>3011</v>
       </c>
       <c r="B424" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C424" t="s">
         <v>18</v>
@@ -18848,7 +18848,7 @@
         <v>3011</v>
       </c>
       <c r="B425" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C425" t="s">
         <v>68</v>
@@ -18889,7 +18889,7 @@
         <v>3011</v>
       </c>
       <c r="B426" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C426" t="s">
         <v>23</v>
@@ -18930,13 +18930,13 @@
         <v>3458</v>
       </c>
       <c r="B427" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C427" t="s">
         <v>98</v>
       </c>
       <c r="D427" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E427">
         <v>114.5</v>
@@ -18971,7 +18971,7 @@
         <v>3464</v>
       </c>
       <c r="B428" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C428" t="s">
         <v>23</v>
@@ -19012,7 +19012,7 @@
         <v>3465</v>
       </c>
       <c r="B429" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C429" t="s">
         <v>16</v>
@@ -19053,7 +19053,7 @@
         <v>3465</v>
       </c>
       <c r="B430" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C430" t="s">
         <v>18</v>
@@ -19094,7 +19094,7 @@
         <v>3465</v>
       </c>
       <c r="B431" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C431" t="s">
         <v>23</v>
@@ -19135,7 +19135,7 @@
         <v>3819</v>
       </c>
       <c r="B432" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C432" t="s">
         <v>16</v>
@@ -19176,7 +19176,7 @@
         <v>3826</v>
       </c>
       <c r="B433" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C433" t="s">
         <v>23</v>
@@ -19217,7 +19217,7 @@
         <v>3845</v>
       </c>
       <c r="B434" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C434" t="s">
         <v>17</v>
@@ -19258,7 +19258,7 @@
         <v>4974</v>
       </c>
       <c r="B435" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C435" t="s">
         <v>13</v>
@@ -19299,7 +19299,7 @@
         <v>4974</v>
       </c>
       <c r="B436" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C436" t="s">
         <v>17</v>
@@ -19340,7 +19340,7 @@
         <v>4974</v>
       </c>
       <c r="B437" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C437" t="s">
         <v>23</v>
@@ -19381,7 +19381,7 @@
         <v>5008</v>
       </c>
       <c r="B438" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C438" t="s">
         <v>13</v>
@@ -19422,7 +19422,7 @@
         <v>5008</v>
       </c>
       <c r="B439" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C439" t="s">
         <v>15</v>
@@ -19463,13 +19463,13 @@
         <v>5008</v>
       </c>
       <c r="B440" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C440" t="s">
         <v>122</v>
       </c>
       <c r="D440" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E440">
         <v>177.5</v>
@@ -19504,7 +19504,7 @@
         <v>5008</v>
       </c>
       <c r="B441" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C441" t="s">
         <v>16</v>
@@ -19545,13 +19545,13 @@
         <v>5008</v>
       </c>
       <c r="B442" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C442" t="s">
         <v>21</v>
       </c>
       <c r="D442" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E442">
         <v>187</v>
@@ -19586,7 +19586,7 @@
         <v>5010</v>
       </c>
       <c r="B443" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C443" t="s">
         <v>17</v>
@@ -19627,7 +19627,7 @@
         <v>5901</v>
       </c>
       <c r="B444" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C444" t="s">
         <v>16</v>
@@ -19668,7 +19668,7 @@
         <v>5901</v>
       </c>
       <c r="B445" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C445" t="s">
         <v>17</v>
@@ -19709,7 +19709,7 @@
         <v>5901</v>
       </c>
       <c r="B446" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C446" t="s">
         <v>18</v>
@@ -19750,7 +19750,7 @@
         <v>5901</v>
       </c>
       <c r="B447" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C447" t="s">
         <v>23</v>
@@ -20043,7 +20043,7 @@
         <v>19</v>
       </c>
       <c r="D454" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E454">
         <v>193.5</v>
@@ -20125,7 +20125,7 @@
         <v>21</v>
       </c>
       <c r="D456" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E456">
         <v>193.5</v>
@@ -20406,7 +20406,7 @@
         <v>4</v>
       </c>
       <c r="B463" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C463" t="s">
         <v>43</v>
@@ -20447,7 +20447,7 @@
         <v>4</v>
       </c>
       <c r="B464" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C464" t="s">
         <v>15</v>
@@ -20488,7 +20488,7 @@
         <v>4</v>
       </c>
       <c r="B465" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C465" t="s">
         <v>17</v>
@@ -20529,13 +20529,13 @@
         <v>4</v>
       </c>
       <c r="B466" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C466" t="s">
         <v>19</v>
       </c>
       <c r="D466" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E466">
         <v>191</v>
@@ -20570,13 +20570,13 @@
         <v>4</v>
       </c>
       <c r="B467" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C467" t="s">
         <v>21</v>
       </c>
       <c r="D467" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E467">
         <v>191.5</v>
@@ -20611,7 +20611,7 @@
         <v>4</v>
       </c>
       <c r="B468" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C468" t="s">
         <v>47</v>
@@ -20652,7 +20652,7 @@
         <v>4</v>
       </c>
       <c r="B469" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C469" t="s">
         <v>49</v>
@@ -20693,7 +20693,7 @@
         <v>4</v>
       </c>
       <c r="B470" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C470" t="s">
         <v>51</v>
@@ -20775,7 +20775,7 @@
         <v>1113</v>
       </c>
       <c r="B472" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C472" t="s">
         <v>16</v>
@@ -20816,7 +20816,7 @@
         <v>1210</v>
       </c>
       <c r="B473" t="s">
-        <v>195</v>
+        <v>352</v>
       </c>
       <c r="C473" t="s">
         <v>16</v>
@@ -20857,7 +20857,7 @@
         <v>1210</v>
       </c>
       <c r="B474" t="s">
-        <v>195</v>
+        <v>352</v>
       </c>
       <c r="C474" t="s">
         <v>17</v>
@@ -20898,13 +20898,13 @@
         <v>1211</v>
       </c>
       <c r="B475" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C475" t="s">
+        <v>255</v>
+      </c>
+      <c r="D475" t="s">
         <v>256</v>
-      </c>
-      <c r="D475" t="s">
-        <v>257</v>
       </c>
       <c r="E475">
         <v>178</v>
@@ -20939,13 +20939,13 @@
         <v>1211</v>
       </c>
       <c r="B476" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C476" t="s">
         <v>63</v>
       </c>
       <c r="D476" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E476">
         <v>173</v>
@@ -20980,7 +20980,7 @@
         <v>1211</v>
       </c>
       <c r="B477" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C477" t="s">
         <v>16</v>
@@ -21021,7 +21021,7 @@
         <v>1211</v>
       </c>
       <c r="B478" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C478" t="s">
         <v>17</v>
@@ -21062,7 +21062,7 @@
         <v>1219</v>
       </c>
       <c r="B479" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C479" t="s">
         <v>16</v>
@@ -21103,7 +21103,7 @@
         <v>1304</v>
       </c>
       <c r="B480" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C480" t="s">
         <v>16</v>
@@ -21144,7 +21144,7 @@
         <v>1315</v>
       </c>
       <c r="B481" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C481" t="s">
         <v>16</v>
@@ -21185,7 +21185,7 @@
         <v>1315</v>
       </c>
       <c r="B482" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C482" t="s">
         <v>17</v>
@@ -21226,7 +21226,7 @@
         <v>1315</v>
       </c>
       <c r="B483" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C483" t="s">
         <v>68</v>
@@ -21267,7 +21267,7 @@
         <v>1321</v>
       </c>
       <c r="B484" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C484" t="s">
         <v>74</v>
@@ -21308,7 +21308,7 @@
         <v>1325</v>
       </c>
       <c r="B485" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C485" t="s">
         <v>68</v>
@@ -21349,7 +21349,7 @@
         <v>1399</v>
       </c>
       <c r="B486" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C486" t="s">
         <v>16</v>
@@ -21390,7 +21390,7 @@
         <v>1419</v>
       </c>
       <c r="B487" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C487" t="s">
         <v>16</v>
@@ -21431,7 +21431,7 @@
         <v>1516</v>
       </c>
       <c r="B488" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C488" t="s">
         <v>17</v>
@@ -21472,7 +21472,7 @@
         <v>2005</v>
       </c>
       <c r="B489" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C489" t="s">
         <v>13</v>
@@ -21513,7 +21513,7 @@
         <v>2005</v>
       </c>
       <c r="B490" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C490" t="s">
         <v>18</v>
@@ -21554,13 +21554,13 @@
         <v>2005</v>
       </c>
       <c r="B491" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C491" t="s">
         <v>45</v>
       </c>
       <c r="D491" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E491">
         <v>182</v>
@@ -21595,7 +21595,7 @@
         <v>2005</v>
       </c>
       <c r="B492" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C492" t="s">
         <v>80</v>
@@ -21636,7 +21636,7 @@
         <v>2005</v>
       </c>
       <c r="B493" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C493" t="s">
         <v>68</v>
@@ -21677,7 +21677,7 @@
         <v>2005</v>
       </c>
       <c r="B494" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C494" t="s">
         <v>23</v>
@@ -21718,7 +21718,7 @@
         <v>2005</v>
       </c>
       <c r="B495" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C495" t="s">
         <v>49</v>
@@ -21759,7 +21759,7 @@
         <v>2006</v>
       </c>
       <c r="B496" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C496" t="s">
         <v>15</v>
@@ -21800,7 +21800,7 @@
         <v>2006</v>
       </c>
       <c r="B497" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C497" t="s">
         <v>17</v>
@@ -21841,7 +21841,7 @@
         <v>2006</v>
       </c>
       <c r="B498" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C498" t="s">
         <v>18</v>
@@ -21882,13 +21882,13 @@
         <v>2006</v>
       </c>
       <c r="B499" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C499" t="s">
         <v>19</v>
       </c>
       <c r="D499" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E499">
         <v>191</v>
@@ -21923,13 +21923,13 @@
         <v>2006</v>
       </c>
       <c r="B500" t="s">
+        <v>207</v>
+      </c>
+      <c r="C500" t="s">
         <v>208</v>
       </c>
-      <c r="C500" t="s">
+      <c r="D500" t="s">
         <v>209</v>
-      </c>
-      <c r="D500" t="s">
-        <v>210</v>
       </c>
       <c r="E500">
         <v>187.5</v>
@@ -21964,13 +21964,13 @@
         <v>2006</v>
       </c>
       <c r="B501" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C501" t="s">
         <v>85</v>
       </c>
       <c r="D501" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E501">
         <v>174</v>
@@ -22005,13 +22005,13 @@
         <v>2006</v>
       </c>
       <c r="B502" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C502" t="s">
         <v>21</v>
       </c>
       <c r="D502" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E502">
         <v>190.5</v>
@@ -22046,7 +22046,7 @@
         <v>2006</v>
       </c>
       <c r="B503" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C503" t="s">
         <v>23</v>
@@ -22087,7 +22087,7 @@
         <v>2006</v>
       </c>
       <c r="B504" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C504" t="s">
         <v>47</v>
@@ -22128,13 +22128,13 @@
         <v>2006</v>
       </c>
       <c r="B505" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C505" t="s">
+        <v>210</v>
+      </c>
+      <c r="D505" t="s">
         <v>211</v>
-      </c>
-      <c r="D505" t="s">
-        <v>212</v>
       </c>
       <c r="E505">
         <v>189.5</v>
@@ -22169,7 +22169,7 @@
         <v>2007</v>
       </c>
       <c r="B506" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C506" t="s">
         <v>16</v>
@@ -22210,7 +22210,7 @@
         <v>2007</v>
       </c>
       <c r="B507" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C507" t="s">
         <v>17</v>
@@ -22251,13 +22251,13 @@
         <v>2007</v>
       </c>
       <c r="B508" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C508" t="s">
         <v>19</v>
       </c>
       <c r="D508" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E508">
         <v>189</v>
@@ -22292,7 +22292,7 @@
         <v>2007</v>
       </c>
       <c r="B509" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C509" t="s">
         <v>23</v>
@@ -22333,7 +22333,7 @@
         <v>2007</v>
       </c>
       <c r="B510" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C510" t="s">
         <v>47</v>
@@ -22374,7 +22374,7 @@
         <v>2025</v>
       </c>
       <c r="B511" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C511" t="s">
         <v>16</v>
@@ -22415,7 +22415,7 @@
         <v>2025</v>
       </c>
       <c r="B512" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C512" t="s">
         <v>17</v>
@@ -22456,7 +22456,7 @@
         <v>2025</v>
       </c>
       <c r="B513" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C513" t="s">
         <v>18</v>
@@ -22497,7 +22497,7 @@
         <v>2357</v>
       </c>
       <c r="B514" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C514" t="s">
         <v>16</v>
@@ -22538,7 +22538,7 @@
         <v>2369</v>
       </c>
       <c r="B515" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C515" t="s">
         <v>13</v>
@@ -22579,7 +22579,7 @@
         <v>2369</v>
       </c>
       <c r="B516" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C516" t="s">
         <v>17</v>
@@ -22620,7 +22620,7 @@
         <v>2377</v>
       </c>
       <c r="B517" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C517" t="s">
         <v>13</v>
@@ -22661,7 +22661,7 @@
         <v>2377</v>
       </c>
       <c r="B518" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C518" t="s">
         <v>23</v>
@@ -22702,7 +22702,7 @@
         <v>2603</v>
       </c>
       <c r="B519" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C519" t="s">
         <v>16</v>
@@ -22743,7 +22743,7 @@
         <v>2603</v>
       </c>
       <c r="B520" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C520" t="s">
         <v>18</v>
@@ -22784,7 +22784,7 @@
         <v>2609</v>
       </c>
       <c r="B521" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C521" t="s">
         <v>16</v>
@@ -22825,13 +22825,13 @@
         <v>2611</v>
       </c>
       <c r="B522" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C522" t="s">
         <v>61</v>
       </c>
       <c r="D522" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E522">
         <v>112.5</v>
@@ -22866,7 +22866,7 @@
         <v>2611</v>
       </c>
       <c r="B523" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C523" t="s">
         <v>16</v>
@@ -22907,7 +22907,7 @@
         <v>2615</v>
       </c>
       <c r="B524" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C524" t="s">
         <v>13</v>
@@ -22948,7 +22948,7 @@
         <v>2615</v>
       </c>
       <c r="B525" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C525" t="s">
         <v>16</v>
@@ -22989,7 +22989,7 @@
         <v>2615</v>
       </c>
       <c r="B526" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C526" t="s">
         <v>18</v>
@@ -23030,7 +23030,7 @@
         <v>2615</v>
       </c>
       <c r="B527" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C527" t="s">
         <v>23</v>
@@ -23071,7 +23071,7 @@
         <v>2615</v>
       </c>
       <c r="B528" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C528" t="s">
         <v>94</v>
@@ -23112,7 +23112,7 @@
         <v>2620</v>
       </c>
       <c r="B529" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C529" t="s">
         <v>16</v>
@@ -23153,13 +23153,13 @@
         <v>2622</v>
       </c>
       <c r="B530" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C530" t="s">
         <v>61</v>
       </c>
       <c r="D530" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E530">
         <v>153.5</v>
@@ -23194,7 +23194,7 @@
         <v>2622</v>
       </c>
       <c r="B531" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C531" t="s">
         <v>16</v>
@@ -23235,7 +23235,7 @@
         <v>2622</v>
       </c>
       <c r="B532" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C532" t="s">
         <v>17</v>
@@ -23276,7 +23276,7 @@
         <v>2622</v>
       </c>
       <c r="B533" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C533" t="s">
         <v>68</v>
@@ -23317,13 +23317,13 @@
         <v>2623</v>
       </c>
       <c r="B534" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C534" t="s">
         <v>61</v>
       </c>
       <c r="D534" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E534">
         <v>116.5</v>
@@ -23358,13 +23358,13 @@
         <v>2624</v>
       </c>
       <c r="B535" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C535" t="s">
         <v>61</v>
       </c>
       <c r="D535" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E535">
         <v>96</v>
@@ -23399,7 +23399,7 @@
         <v>2632</v>
       </c>
       <c r="B536" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C536" t="s">
         <v>16</v>
@@ -23440,13 +23440,13 @@
         <v>2702</v>
       </c>
       <c r="B537" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C537" t="s">
         <v>63</v>
       </c>
       <c r="D537" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E537">
         <v>164</v>
@@ -23481,7 +23481,7 @@
         <v>2702</v>
       </c>
       <c r="B538" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C538" t="s">
         <v>18</v>
@@ -23522,7 +23522,7 @@
         <v>2704</v>
       </c>
       <c r="B539" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C539" t="s">
         <v>16</v>
@@ -23563,7 +23563,7 @@
         <v>2704</v>
       </c>
       <c r="B540" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C540" t="s">
         <v>68</v>
@@ -23604,7 +23604,7 @@
         <v>2711</v>
       </c>
       <c r="B541" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C541" t="s">
         <v>16</v>
@@ -23645,7 +23645,7 @@
         <v>2712</v>
       </c>
       <c r="B542" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C542" t="s">
         <v>16</v>
@@ -23686,7 +23686,7 @@
         <v>2712</v>
       </c>
       <c r="B543" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C543" t="s">
         <v>17</v>
@@ -23727,7 +23727,7 @@
         <v>2712</v>
       </c>
       <c r="B544" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C544" t="s">
         <v>18</v>
@@ -23768,13 +23768,13 @@
         <v>2712</v>
       </c>
       <c r="B545" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C545" t="s">
+        <v>270</v>
+      </c>
+      <c r="D545" t="s">
         <v>271</v>
-      </c>
-      <c r="D545" t="s">
-        <v>272</v>
       </c>
       <c r="E545">
         <v>151</v>
@@ -23809,7 +23809,7 @@
         <v>2712</v>
       </c>
       <c r="B546" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C546" t="s">
         <v>23</v>
@@ -23850,7 +23850,7 @@
         <v>2718</v>
       </c>
       <c r="B547" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C547" t="s">
         <v>16</v>
@@ -23891,7 +23891,7 @@
         <v>2718</v>
       </c>
       <c r="B548" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C548" t="s">
         <v>17</v>
@@ -23932,7 +23932,7 @@
         <v>2718</v>
       </c>
       <c r="B549" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C549" t="s">
         <v>68</v>
@@ -23973,7 +23973,7 @@
         <v>2719</v>
       </c>
       <c r="B550" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C550" t="s">
         <v>16</v>
@@ -24014,7 +24014,7 @@
         <v>2719</v>
       </c>
       <c r="B551" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C551" t="s">
         <v>18</v>
@@ -24055,7 +24055,7 @@
         <v>2729</v>
       </c>
       <c r="B552" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C552" t="s">
         <v>16</v>
@@ -24096,7 +24096,7 @@
         <v>2750</v>
       </c>
       <c r="B553" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C553" t="s">
         <v>17</v>
@@ -24137,13 +24137,13 @@
         <v>3011</v>
       </c>
       <c r="B554" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C554" t="s">
         <v>63</v>
       </c>
       <c r="D554" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E554">
         <v>173.5</v>
@@ -24178,7 +24178,7 @@
         <v>3011</v>
       </c>
       <c r="B555" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C555" t="s">
         <v>17</v>
@@ -24219,7 +24219,7 @@
         <v>3011</v>
       </c>
       <c r="B556" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C556" t="s">
         <v>108</v>
@@ -24260,7 +24260,7 @@
         <v>3465</v>
       </c>
       <c r="B557" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C557" t="s">
         <v>16</v>
@@ -24301,7 +24301,7 @@
         <v>3465</v>
       </c>
       <c r="B558" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C558" t="s">
         <v>23</v>
@@ -24342,7 +24342,7 @@
         <v>3819</v>
       </c>
       <c r="B559" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C559" t="s">
         <v>16</v>
@@ -24383,7 +24383,7 @@
         <v>4974</v>
       </c>
       <c r="B560" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C560" t="s">
         <v>13</v>
@@ -24424,7 +24424,7 @@
         <v>4974</v>
       </c>
       <c r="B561" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C561" t="s">
         <v>16</v>
@@ -24465,7 +24465,7 @@
         <v>5008</v>
       </c>
       <c r="B562" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C562" t="s">
         <v>13</v>
@@ -24506,7 +24506,7 @@
         <v>5008</v>
       </c>
       <c r="B563" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C563" t="s">
         <v>15</v>
@@ -24547,13 +24547,13 @@
         <v>5008</v>
       </c>
       <c r="B564" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C564" t="s">
         <v>122</v>
       </c>
       <c r="D564" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E564">
         <v>174</v>
@@ -24588,7 +24588,7 @@
         <v>5008</v>
       </c>
       <c r="B565" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C565" t="s">
         <v>16</v>
@@ -24629,13 +24629,13 @@
         <v>5008</v>
       </c>
       <c r="B566" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C566" t="s">
         <v>123</v>
       </c>
       <c r="D566" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E566">
         <v>184.5</v>
@@ -24670,13 +24670,13 @@
         <v>5008</v>
       </c>
       <c r="B567" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C567" t="s">
         <v>21</v>
       </c>
       <c r="D567" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E567">
         <v>188</v>
@@ -24711,7 +24711,7 @@
         <v>5010</v>
       </c>
       <c r="B568" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C568" t="s">
         <v>16</v>
@@ -24752,7 +24752,7 @@
         <v>5901</v>
       </c>
       <c r="B569" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C569" t="s">
         <v>16</v>
@@ -24793,7 +24793,7 @@
         <v>5901</v>
       </c>
       <c r="B570" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C570" t="s">
         <v>18</v>
@@ -24840,7 +24840,7 @@
         <v>11</v>
       </c>
       <c r="D571" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E571">
         <v>195</v>
@@ -24881,7 +24881,7 @@
         <v>13</v>
       </c>
       <c r="D572" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E572">
         <v>193.5</v>
@@ -24922,7 +24922,7 @@
         <v>15</v>
       </c>
       <c r="D573" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E573">
         <v>198</v>
@@ -24963,7 +24963,7 @@
         <v>16</v>
       </c>
       <c r="D574" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E574">
         <v>199</v>
@@ -25004,7 +25004,7 @@
         <v>17</v>
       </c>
       <c r="D575" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E575">
         <v>197.99</v>
@@ -25045,7 +25045,7 @@
         <v>18</v>
       </c>
       <c r="D576" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E576">
         <v>195.995</v>
@@ -25086,7 +25086,7 @@
         <v>19</v>
       </c>
       <c r="D577" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E577">
         <v>196.57499999999999</v>
@@ -25127,7 +25127,7 @@
         <v>21</v>
       </c>
       <c r="D578" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E578">
         <v>197</v>
@@ -25291,7 +25291,7 @@
         <v>183</v>
       </c>
       <c r="D582" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E582">
         <v>190.5</v>
@@ -25367,13 +25367,13 @@
         <v>4</v>
       </c>
       <c r="B584" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C584" t="s">
         <v>15</v>
       </c>
       <c r="D584" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E584">
         <v>196.5</v>
@@ -25408,13 +25408,13 @@
         <v>4</v>
       </c>
       <c r="B585" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C585" t="s">
         <v>45</v>
       </c>
       <c r="D585" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E585">
         <v>194.51499999999999</v>
@@ -25449,13 +25449,13 @@
         <v>4</v>
       </c>
       <c r="B586" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C586" t="s">
         <v>47</v>
       </c>
       <c r="D586" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E586">
         <v>193</v>
@@ -25490,13 +25490,13 @@
         <v>5</v>
       </c>
       <c r="B587" t="s">
+        <v>289</v>
+      </c>
+      <c r="C587" t="s">
         <v>290</v>
       </c>
-      <c r="C587" t="s">
+      <c r="D587" t="s">
         <v>291</v>
-      </c>
-      <c r="D587" t="s">
-        <v>292</v>
       </c>
       <c r="E587">
         <v>176.95500000000001</v>
@@ -25531,13 +25531,13 @@
         <v>5</v>
       </c>
       <c r="B588" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C588" t="s">
         <v>32</v>
       </c>
       <c r="D588" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E588">
         <v>168.255</v>
@@ -25572,13 +25572,13 @@
         <v>5</v>
       </c>
       <c r="B589" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C589" t="s">
         <v>16</v>
       </c>
       <c r="D589" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E589">
         <v>184.185</v>
@@ -25613,7 +25613,7 @@
         <v>5</v>
       </c>
       <c r="B590" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C590" t="s">
         <v>68</v>
@@ -25654,7 +25654,7 @@
         <v>1014</v>
       </c>
       <c r="B591" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C591" t="s">
         <v>68</v>
@@ -25695,13 +25695,13 @@
         <v>1015</v>
       </c>
       <c r="B592" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C592" t="s">
         <v>16</v>
       </c>
       <c r="D592" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E592">
         <v>176.625</v>
@@ -25736,13 +25736,13 @@
         <v>1113</v>
       </c>
       <c r="B593" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C593" t="s">
         <v>16</v>
       </c>
       <c r="D593" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E593">
         <v>191.01</v>
@@ -25783,7 +25783,7 @@
         <v>16</v>
       </c>
       <c r="D594" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E594">
         <v>185.20500000000001</v>
@@ -25818,13 +25818,13 @@
         <v>1128</v>
       </c>
       <c r="B595" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C595" t="s">
         <v>16</v>
       </c>
       <c r="D595" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E595">
         <v>184.82</v>
@@ -25859,13 +25859,13 @@
         <v>1210</v>
       </c>
       <c r="B596" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="C596" t="s">
         <v>16</v>
       </c>
       <c r="D596" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E596">
         <v>187.405</v>
@@ -25900,13 +25900,13 @@
         <v>1211</v>
       </c>
       <c r="B597" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C597" t="s">
+        <v>255</v>
+      </c>
+      <c r="D597" t="s">
         <v>256</v>
-      </c>
-      <c r="D597" t="s">
-        <v>257</v>
       </c>
       <c r="E597">
         <v>189.5</v>
@@ -25941,13 +25941,13 @@
         <v>1211</v>
       </c>
       <c r="B598" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C598" t="s">
         <v>16</v>
       </c>
       <c r="D598" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E598">
         <v>192</v>
@@ -25982,13 +25982,13 @@
         <v>1211</v>
       </c>
       <c r="B599" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C599" t="s">
         <v>17</v>
       </c>
       <c r="D599" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E599">
         <v>189.745</v>
@@ -26023,7 +26023,7 @@
         <v>1211</v>
       </c>
       <c r="B600" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C600" t="s">
         <v>68</v>
@@ -26064,13 +26064,13 @@
         <v>1219</v>
       </c>
       <c r="B601" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C601" t="s">
         <v>17</v>
       </c>
       <c r="D601" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E601">
         <v>191.13</v>
@@ -26105,13 +26105,13 @@
         <v>1219</v>
       </c>
       <c r="B602" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C602" t="s">
         <v>18</v>
       </c>
       <c r="D602" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E602">
         <v>188.5</v>
@@ -26146,7 +26146,7 @@
         <v>1219</v>
       </c>
       <c r="B603" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C603" t="s">
         <v>68</v>
@@ -26187,13 +26187,13 @@
         <v>1231</v>
       </c>
       <c r="B604" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="C604" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D604" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E604">
         <v>178.26</v>
@@ -26228,13 +26228,13 @@
         <v>1231</v>
       </c>
       <c r="B605" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="C605" t="s">
         <v>16</v>
       </c>
       <c r="D605" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E605">
         <v>182</v>
@@ -26269,13 +26269,13 @@
         <v>1233</v>
       </c>
       <c r="B606" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C606" t="s">
         <v>16</v>
       </c>
       <c r="D606" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E606">
         <v>176.48500000000001</v>
@@ -26310,13 +26310,13 @@
         <v>1307</v>
       </c>
       <c r="B607" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C607" t="s">
         <v>16</v>
       </c>
       <c r="D607" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E607">
         <v>176.155</v>
@@ -26351,13 +26351,13 @@
         <v>1315</v>
       </c>
       <c r="B608" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C608" t="s">
         <v>13</v>
       </c>
       <c r="D608" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E608">
         <v>190.5</v>
@@ -26392,13 +26392,13 @@
         <v>1315</v>
       </c>
       <c r="B609" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C609" t="s">
         <v>16</v>
       </c>
       <c r="D609" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E609">
         <v>197</v>
@@ -26433,13 +26433,13 @@
         <v>1315</v>
       </c>
       <c r="B610" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C610" t="s">
         <v>18</v>
       </c>
       <c r="D610" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E610">
         <v>194</v>
@@ -26474,7 +26474,7 @@
         <v>1315</v>
       </c>
       <c r="B611" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C611" t="s">
         <v>68</v>
@@ -26515,7 +26515,7 @@
         <v>1315</v>
       </c>
       <c r="B612" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C612" t="s">
         <v>23</v>
@@ -26556,13 +26556,13 @@
         <v>1317</v>
       </c>
       <c r="B613" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C613" t="s">
         <v>16</v>
       </c>
       <c r="D613" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E613">
         <v>191.21</v>
@@ -26597,7 +26597,7 @@
         <v>1321</v>
       </c>
       <c r="B614" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C614" t="s">
         <v>149</v>
@@ -26638,13 +26638,13 @@
         <v>1399</v>
       </c>
       <c r="B615" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C615" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D615" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E615">
         <v>191.36</v>
@@ -26679,13 +26679,13 @@
         <v>1422</v>
       </c>
       <c r="B616" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C616" t="s">
         <v>16</v>
       </c>
       <c r="D616" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E616">
         <v>185.51499999999999</v>
@@ -26720,13 +26720,13 @@
         <v>1432</v>
       </c>
       <c r="B617" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C617" t="s">
         <v>16</v>
       </c>
       <c r="D617" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E617">
         <v>186.5</v>
@@ -26761,13 +26761,13 @@
         <v>1452</v>
       </c>
       <c r="B618" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C618" t="s">
         <v>17</v>
       </c>
       <c r="D618" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E618">
         <v>165.11</v>
@@ -26802,13 +26802,13 @@
         <v>1516</v>
       </c>
       <c r="B619" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C619" t="s">
         <v>16</v>
       </c>
       <c r="D619" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E619">
         <v>187.285</v>
@@ -26843,13 +26843,13 @@
         <v>1516</v>
       </c>
       <c r="B620" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C620" t="s">
         <v>17</v>
       </c>
       <c r="D620" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E620">
         <v>183.245</v>
@@ -26884,7 +26884,7 @@
         <v>1516</v>
       </c>
       <c r="B621" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C621" t="s">
         <v>23</v>
@@ -26925,13 +26925,13 @@
         <v>2005</v>
       </c>
       <c r="B622" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C622" t="s">
         <v>13</v>
       </c>
       <c r="D622" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E622">
         <v>186.465</v>
@@ -26966,13 +26966,13 @@
         <v>2005</v>
       </c>
       <c r="B623" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C623" t="s">
         <v>80</v>
       </c>
       <c r="D623" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E623">
         <v>189.38499999999999</v>
@@ -27007,7 +27007,7 @@
         <v>2005</v>
       </c>
       <c r="B624" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C624" t="s">
         <v>68</v>
@@ -27048,7 +27048,7 @@
         <v>2005</v>
       </c>
       <c r="B625" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C625" t="s">
         <v>23</v>
@@ -27089,7 +27089,7 @@
         <v>2005</v>
       </c>
       <c r="B626" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C626" t="s">
         <v>49</v>
@@ -27130,7 +27130,7 @@
         <v>2006</v>
       </c>
       <c r="B627" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C627" t="s">
         <v>83</v>
@@ -27171,13 +27171,13 @@
         <v>2006</v>
       </c>
       <c r="B628" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C628" t="s">
         <v>11</v>
       </c>
       <c r="D628" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E628">
         <v>192.59</v>
@@ -27212,13 +27212,13 @@
         <v>2006</v>
       </c>
       <c r="B629" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C629" t="s">
         <v>15</v>
       </c>
       <c r="D629" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E629">
         <v>197.5</v>
@@ -27253,13 +27253,13 @@
         <v>2006</v>
       </c>
       <c r="B630" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C630" t="s">
         <v>18</v>
       </c>
       <c r="D630" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E630">
         <v>194.5</v>
@@ -27294,13 +27294,13 @@
         <v>2006</v>
       </c>
       <c r="B631" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C631" t="s">
         <v>21</v>
       </c>
       <c r="D631" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E631">
         <v>195.5</v>
@@ -27335,13 +27335,13 @@
         <v>2006</v>
       </c>
       <c r="B632" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C632" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D632" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E632">
         <v>193.065</v>
@@ -27376,13 +27376,13 @@
         <v>2007</v>
       </c>
       <c r="B633" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C633" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D633" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E633">
         <v>193.5</v>
@@ -27417,13 +27417,13 @@
         <v>2007</v>
       </c>
       <c r="B634" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C634" t="s">
         <v>16</v>
       </c>
       <c r="D634" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E634">
         <v>194.9</v>
@@ -27458,13 +27458,13 @@
         <v>2007</v>
       </c>
       <c r="B635" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C635" t="s">
         <v>17</v>
       </c>
       <c r="D635" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E635">
         <v>194</v>
@@ -27499,13 +27499,13 @@
         <v>2007</v>
       </c>
       <c r="B636" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C636" t="s">
         <v>19</v>
       </c>
       <c r="D636" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E636">
         <v>193.1</v>
@@ -27540,13 +27540,13 @@
         <v>2025</v>
       </c>
       <c r="B637" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C637" t="s">
         <v>16</v>
       </c>
       <c r="D637" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E637">
         <v>190.57</v>
@@ -27581,13 +27581,13 @@
         <v>2025</v>
       </c>
       <c r="B638" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C638" t="s">
         <v>18</v>
       </c>
       <c r="D638" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E638">
         <v>184.595</v>
@@ -27622,13 +27622,13 @@
         <v>2329</v>
       </c>
       <c r="B639" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C639" t="s">
         <v>16</v>
       </c>
       <c r="D639" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E639">
         <v>173.42</v>
@@ -27663,13 +27663,13 @@
         <v>2357</v>
       </c>
       <c r="B640" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C640" t="s">
         <v>16</v>
       </c>
       <c r="D640" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E640">
         <v>170.01</v>
@@ -27704,13 +27704,13 @@
         <v>2369</v>
       </c>
       <c r="B641" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C641" t="s">
         <v>17</v>
       </c>
       <c r="D641" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E641">
         <v>180.81</v>
@@ -27745,13 +27745,13 @@
         <v>2377</v>
       </c>
       <c r="B642" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C642" t="s">
         <v>17</v>
       </c>
       <c r="D642" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E642">
         <v>193.27500000000001</v>
@@ -27786,13 +27786,13 @@
         <v>2377</v>
       </c>
       <c r="B643" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C643" t="s">
         <v>18</v>
       </c>
       <c r="D643" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E643">
         <v>192</v>
@@ -27827,13 +27827,13 @@
         <v>2603</v>
       </c>
       <c r="B644" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C644" t="s">
         <v>17</v>
       </c>
       <c r="D644" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E644">
         <v>185.405</v>
@@ -27868,7 +27868,7 @@
         <v>2603</v>
       </c>
       <c r="B645" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C645" t="s">
         <v>23</v>
@@ -27909,7 +27909,7 @@
         <v>2609</v>
       </c>
       <c r="B646" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C646" t="s">
         <v>68</v>
@@ -27950,13 +27950,13 @@
         <v>2610</v>
       </c>
       <c r="B647" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C647" t="s">
         <v>16</v>
       </c>
       <c r="D647" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E647">
         <v>173.46</v>
@@ -27991,7 +27991,7 @@
         <v>2610</v>
       </c>
       <c r="B648" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C648" t="s">
         <v>68</v>
@@ -28032,13 +28032,13 @@
         <v>2611</v>
       </c>
       <c r="B649" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C649" t="s">
         <v>16</v>
       </c>
       <c r="D649" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E649">
         <v>170.61</v>
@@ -28073,13 +28073,13 @@
         <v>2611</v>
       </c>
       <c r="B650" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C650" t="s">
         <v>17</v>
       </c>
       <c r="D650" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E650">
         <v>159.755</v>
@@ -28114,7 +28114,7 @@
         <v>2611</v>
       </c>
       <c r="B651" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C651" t="s">
         <v>68</v>
@@ -28155,13 +28155,13 @@
         <v>2613</v>
       </c>
       <c r="B652" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C652" t="s">
         <v>16</v>
       </c>
       <c r="D652" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E652">
         <v>171.65</v>
@@ -28196,13 +28196,13 @@
         <v>2615</v>
       </c>
       <c r="B653" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C653" t="s">
         <v>13</v>
       </c>
       <c r="D653" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E653">
         <v>182.24</v>
@@ -28237,7 +28237,7 @@
         <v>2615</v>
       </c>
       <c r="B654" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C654" t="s">
         <v>23</v>
@@ -28278,7 +28278,7 @@
         <v>2615</v>
       </c>
       <c r="B655" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C655" t="s">
         <v>94</v>
@@ -28319,7 +28319,7 @@
         <v>2618</v>
       </c>
       <c r="B656" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C656" t="s">
         <v>68</v>
@@ -28360,13 +28360,13 @@
         <v>2620</v>
       </c>
       <c r="B657" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C657" t="s">
         <v>16</v>
       </c>
       <c r="D657" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E657">
         <v>174.38499999999999</v>
@@ -28401,7 +28401,7 @@
         <v>2622</v>
       </c>
       <c r="B658" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C658" t="s">
         <v>61</v>
@@ -28442,13 +28442,13 @@
         <v>2622</v>
       </c>
       <c r="B659" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C659" t="s">
         <v>63</v>
       </c>
       <c r="D659" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E659">
         <v>178.04499999999999</v>
@@ -28483,13 +28483,13 @@
         <v>2622</v>
       </c>
       <c r="B660" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C660" t="s">
         <v>17</v>
       </c>
       <c r="D660" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E660">
         <v>179.41499999999999</v>
@@ -28524,7 +28524,7 @@
         <v>2622</v>
       </c>
       <c r="B661" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C661" t="s">
         <v>68</v>
@@ -28565,13 +28565,13 @@
         <v>2628</v>
       </c>
       <c r="B662" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C662" t="s">
         <v>16</v>
       </c>
       <c r="D662" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E662">
         <v>159.82499999999999</v>
@@ -28606,13 +28606,13 @@
         <v>2636</v>
       </c>
       <c r="B663" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C663" t="s">
         <v>16</v>
       </c>
       <c r="D663" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E663">
         <v>165.48</v>
@@ -28647,13 +28647,13 @@
         <v>2636</v>
       </c>
       <c r="B664" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C664" t="s">
         <v>17</v>
       </c>
       <c r="D664" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E664">
         <v>162.66999999999999</v>
@@ -28688,7 +28688,7 @@
         <v>2642</v>
       </c>
       <c r="B665" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C665" t="s">
         <v>68</v>
@@ -28729,13 +28729,13 @@
         <v>2643</v>
       </c>
       <c r="B666" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C666" t="s">
         <v>16</v>
       </c>
       <c r="D666" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E666">
         <v>164.88</v>
@@ -28770,13 +28770,13 @@
         <v>2650</v>
       </c>
       <c r="B667" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C667" t="s">
         <v>16</v>
       </c>
       <c r="D667" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E667">
         <v>152.01</v>
@@ -28811,13 +28811,13 @@
         <v>2656</v>
       </c>
       <c r="B668" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C668" t="s">
         <v>16</v>
       </c>
       <c r="D668" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E668">
         <v>178.17500000000001</v>
@@ -28852,13 +28852,13 @@
         <v>2657</v>
       </c>
       <c r="B669" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C669" t="s">
         <v>16</v>
       </c>
       <c r="D669" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E669">
         <v>160.185</v>
@@ -28893,13 +28893,13 @@
         <v>2665</v>
       </c>
       <c r="B670" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C670" t="s">
         <v>16</v>
       </c>
       <c r="D670" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E670">
         <v>144.41</v>
@@ -28934,13 +28934,13 @@
         <v>2702</v>
       </c>
       <c r="B671" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C671" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D671" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E671">
         <v>187.14</v>
@@ -28975,13 +28975,13 @@
         <v>2702</v>
       </c>
       <c r="B672" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C672" t="s">
         <v>16</v>
       </c>
       <c r="D672" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E672">
         <v>189.815</v>
@@ -29016,13 +29016,13 @@
         <v>2702</v>
       </c>
       <c r="B673" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C673" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D673" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E673">
         <v>181.70500000000001</v>
@@ -29057,7 +29057,7 @@
         <v>2702</v>
       </c>
       <c r="B674" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C674" t="s">
         <v>68</v>
@@ -29098,7 +29098,7 @@
         <v>2704</v>
       </c>
       <c r="B675" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C675" t="s">
         <v>68</v>
@@ -29139,13 +29139,13 @@
         <v>2707</v>
       </c>
       <c r="B676" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C676" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D676" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E676">
         <v>167.14</v>
@@ -29180,7 +29180,7 @@
         <v>2707</v>
       </c>
       <c r="B677" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C677" t="s">
         <v>68</v>
@@ -29221,7 +29221,7 @@
         <v>2708</v>
       </c>
       <c r="B678" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C678" t="s">
         <v>68</v>
@@ -29262,13 +29262,13 @@
         <v>2709</v>
       </c>
       <c r="B679" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C679" t="s">
         <v>16</v>
       </c>
       <c r="D679" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E679">
         <v>188.44</v>
@@ -29303,13 +29303,13 @@
         <v>2710</v>
       </c>
       <c r="B680" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C680" t="s">
         <v>16</v>
       </c>
       <c r="D680" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E680">
         <v>183.56</v>
@@ -29344,13 +29344,13 @@
         <v>2710</v>
       </c>
       <c r="B681" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C681" t="s">
         <v>17</v>
       </c>
       <c r="D681" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E681">
         <v>179.29499999999999</v>
@@ -29385,7 +29385,7 @@
         <v>2710</v>
       </c>
       <c r="B682" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C682" t="s">
         <v>68</v>
@@ -29426,13 +29426,13 @@
         <v>2711</v>
       </c>
       <c r="B683" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C683" t="s">
         <v>16</v>
       </c>
       <c r="D683" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E683">
         <v>189.5</v>
@@ -29467,7 +29467,7 @@
         <v>2711</v>
       </c>
       <c r="B684" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C684" t="s">
         <v>68</v>
@@ -29508,13 +29508,13 @@
         <v>2712</v>
       </c>
       <c r="B685" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C685" t="s">
         <v>13</v>
       </c>
       <c r="D685" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E685">
         <v>183.60499999999999</v>
@@ -29549,13 +29549,13 @@
         <v>2712</v>
       </c>
       <c r="B686" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C686" t="s">
         <v>16</v>
       </c>
       <c r="D686" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E686">
         <v>193.49</v>
@@ -29590,13 +29590,13 @@
         <v>2712</v>
       </c>
       <c r="B687" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C687" t="s">
         <v>17</v>
       </c>
       <c r="D687" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E687">
         <v>192.14500000000001</v>
@@ -29631,13 +29631,13 @@
         <v>2712</v>
       </c>
       <c r="B688" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C688" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D688" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E688">
         <v>181.5</v>
@@ -29672,7 +29672,7 @@
         <v>2712</v>
       </c>
       <c r="B689" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C689" t="s">
         <v>23</v>
@@ -29713,13 +29713,13 @@
         <v>2712</v>
       </c>
       <c r="B690" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C690" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D690" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E690">
         <v>187.04499999999999</v>
@@ -29754,13 +29754,13 @@
         <v>2718</v>
       </c>
       <c r="B691" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C691" t="s">
         <v>16</v>
       </c>
       <c r="D691" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E691">
         <v>192</v>
@@ -29795,13 +29795,13 @@
         <v>2718</v>
       </c>
       <c r="B692" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C692" t="s">
         <v>17</v>
       </c>
       <c r="D692" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E692">
         <v>190</v>
@@ -29836,7 +29836,7 @@
         <v>2718</v>
       </c>
       <c r="B693" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C693" t="s">
         <v>68</v>
@@ -29877,13 +29877,13 @@
         <v>2719</v>
       </c>
       <c r="B694" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C694" t="s">
         <v>16</v>
       </c>
       <c r="D694" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E694">
         <v>188.66499999999999</v>
@@ -29918,13 +29918,13 @@
         <v>2719</v>
       </c>
       <c r="B695" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C695" t="s">
         <v>17</v>
       </c>
       <c r="D695" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E695">
         <v>184.8</v>
@@ -29959,13 +29959,13 @@
         <v>2722</v>
       </c>
       <c r="B696" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C696" t="s">
         <v>16</v>
       </c>
       <c r="D696" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E696">
         <v>188.01499999999999</v>
@@ -30000,7 +30000,7 @@
         <v>2723</v>
       </c>
       <c r="B697" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C697" t="s">
         <v>61</v>
@@ -30041,7 +30041,7 @@
         <v>2723</v>
       </c>
       <c r="B698" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C698" t="s">
         <v>68</v>
@@ -30082,13 +30082,13 @@
         <v>2727</v>
       </c>
       <c r="B699" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C699" t="s">
         <v>16</v>
       </c>
       <c r="D699" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E699">
         <v>181.55</v>
@@ -30123,13 +30123,13 @@
         <v>2731</v>
       </c>
       <c r="B700" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C700" t="s">
         <v>16</v>
       </c>
       <c r="D700" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E700">
         <v>170.76</v>
@@ -30164,13 +30164,13 @@
         <v>2740</v>
       </c>
       <c r="B701" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C701" t="s">
         <v>16</v>
       </c>
       <c r="D701" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E701">
         <v>175.44</v>
@@ -30205,13 +30205,13 @@
         <v>2741</v>
       </c>
       <c r="B702" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C702" t="s">
         <v>16</v>
       </c>
       <c r="D702" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E702">
         <v>179.58</v>
@@ -30246,13 +30246,13 @@
         <v>2741</v>
       </c>
       <c r="B703" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C703" t="s">
         <v>18</v>
       </c>
       <c r="D703" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E703">
         <v>167.375</v>
@@ -30287,7 +30287,7 @@
         <v>2744</v>
       </c>
       <c r="B704" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C704" t="s">
         <v>68</v>
@@ -30328,13 +30328,13 @@
         <v>2750</v>
       </c>
       <c r="B705" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C705" t="s">
         <v>17</v>
       </c>
       <c r="D705" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E705">
         <v>174.6</v>
@@ -30369,13 +30369,13 @@
         <v>2750</v>
       </c>
       <c r="B706" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C706" t="s">
         <v>18</v>
       </c>
       <c r="D706" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E706">
         <v>166.92</v>
@@ -30410,13 +30410,13 @@
         <v>2755</v>
       </c>
       <c r="B707" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C707" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D707" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E707">
         <v>159.82499999999999</v>
@@ -30451,13 +30451,13 @@
         <v>2776</v>
       </c>
       <c r="B708" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C708" t="s">
         <v>16</v>
       </c>
       <c r="D708" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E708">
         <v>163.745</v>
@@ -30492,13 +30492,13 @@
         <v>3011</v>
       </c>
       <c r="B709" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C709" t="s">
         <v>63</v>
       </c>
       <c r="D709" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E709">
         <v>186.15</v>
@@ -30533,13 +30533,13 @@
         <v>3011</v>
       </c>
       <c r="B710" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C710" t="s">
         <v>16</v>
       </c>
       <c r="D710" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E710">
         <v>186</v>
@@ -30574,7 +30574,7 @@
         <v>3011</v>
       </c>
       <c r="B711" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C711" t="s">
         <v>68</v>
@@ -30615,7 +30615,7 @@
         <v>3011</v>
       </c>
       <c r="B712" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C712" t="s">
         <v>23</v>
@@ -30656,13 +30656,13 @@
         <v>3011</v>
       </c>
       <c r="B713" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C713" t="s">
         <v>110</v>
       </c>
       <c r="D713" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E713">
         <v>181.21</v>
@@ -30697,13 +30697,13 @@
         <v>3465</v>
       </c>
       <c r="B714" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C714" t="s">
         <v>16</v>
       </c>
       <c r="D714" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E714">
         <v>186.745</v>
@@ -30738,7 +30738,7 @@
         <v>3465</v>
       </c>
       <c r="B715" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C715" t="s">
         <v>23</v>
@@ -30779,13 +30779,13 @@
         <v>3786</v>
       </c>
       <c r="B716" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C716" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D716" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E716">
         <v>152.95500000000001</v>
@@ -30820,13 +30820,13 @@
         <v>3805</v>
       </c>
       <c r="B717" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C717" t="s">
         <v>16</v>
       </c>
       <c r="D717" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E717">
         <v>168.35</v>
@@ -30861,13 +30861,13 @@
         <v>3819</v>
       </c>
       <c r="B718" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C718" t="s">
         <v>16</v>
       </c>
       <c r="D718" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E718">
         <v>184.38499999999999</v>
@@ -30902,13 +30902,13 @@
         <v>3819</v>
       </c>
       <c r="B719" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C719" t="s">
         <v>17</v>
       </c>
       <c r="D719" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E719">
         <v>178.065</v>
@@ -30943,13 +30943,13 @@
         <v>3826</v>
       </c>
       <c r="B720" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C720" t="s">
         <v>16</v>
       </c>
       <c r="D720" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E720">
         <v>181.69</v>
@@ -30984,7 +30984,7 @@
         <v>3826</v>
       </c>
       <c r="B721" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C721" t="s">
         <v>23</v>
@@ -31025,13 +31025,13 @@
         <v>4020</v>
       </c>
       <c r="B722" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C722" t="s">
         <v>16</v>
       </c>
       <c r="D722" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E722">
         <v>183.61500000000001</v>
@@ -31066,13 +31066,13 @@
         <v>4020</v>
       </c>
       <c r="B723" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C723" t="s">
         <v>17</v>
       </c>
       <c r="D723" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E723">
         <v>180.55</v>
@@ -31107,13 +31107,13 @@
         <v>4974</v>
       </c>
       <c r="B724" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C724" t="s">
         <v>17</v>
       </c>
       <c r="D724" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E724">
         <v>187.56</v>
@@ -31148,7 +31148,7 @@
         <v>4974</v>
       </c>
       <c r="B725" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C725" t="s">
         <v>23</v>
@@ -31189,13 +31189,13 @@
         <v>5008</v>
       </c>
       <c r="B726" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C726" t="s">
         <v>13</v>
       </c>
       <c r="D726" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E726">
         <v>190.16499999999999</v>
@@ -31230,13 +31230,13 @@
         <v>5008</v>
       </c>
       <c r="B727" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C727" t="s">
         <v>122</v>
       </c>
       <c r="D727" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E727">
         <v>186.5</v>
@@ -31271,13 +31271,13 @@
         <v>5008</v>
       </c>
       <c r="B728" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C728" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D728" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E728">
         <v>192.495</v>
@@ -31312,13 +31312,13 @@
         <v>5008</v>
       </c>
       <c r="B729" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C729" t="s">
         <v>19</v>
       </c>
       <c r="D729" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E729">
         <v>193.12</v>
@@ -31353,13 +31353,13 @@
         <v>5008</v>
       </c>
       <c r="B730" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C730" t="s">
         <v>21</v>
       </c>
       <c r="D730" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E730">
         <v>193.07499999999999</v>
@@ -31394,13 +31394,13 @@
         <v>5010</v>
       </c>
       <c r="B731" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C731" t="s">
         <v>16</v>
       </c>
       <c r="D731" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E731">
         <v>184.01</v>
@@ -31435,13 +31435,13 @@
         <v>5010</v>
       </c>
       <c r="B732" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C732" t="s">
         <v>17</v>
       </c>
       <c r="D732" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E732">
         <v>181.44</v>
@@ -31476,13 +31476,13 @@
         <v>5901</v>
       </c>
       <c r="B733" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C733" t="s">
         <v>13</v>
       </c>
       <c r="D733" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E733">
         <v>183.23</v>
@@ -31517,13 +31517,13 @@
         <v>5901</v>
       </c>
       <c r="B734" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C734" t="s">
         <v>17</v>
       </c>
       <c r="D734" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E734">
         <v>189.52500000000001</v>
@@ -31558,13 +31558,13 @@
         <v>5901</v>
       </c>
       <c r="B735" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C735" t="s">
         <v>18</v>
       </c>
       <c r="D735" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E735">
         <v>186.63499999999999</v>

--- a/Code/dataset.xlsx
+++ b/Code/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7th_Sem_Project\PP-I\source_code\20CS713-PP-I-C12\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D05330F-8D04-4F0F-B9FD-44543AB274DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7FF965-FE46-4867-8253-67EA20D65C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{25CED6B5-A0F3-467B-B53B-A30D2BC9A7C0}"/>
   </bookViews>
@@ -745,9 +745,6 @@
     <t>https://www.bitsathy.ac.in/</t>
   </si>
   <si>
-    <t>https://hicet.ac.in/?gclid=Cj0KCQjw2PSvBhDjARIsAKc2cgMq244ertFNGB5Ay8ijGx98kxvJwRwbcUDmnDCuSTOV75D-oav7KPsaAqvbEALw_wcB</t>
-  </si>
-  <si>
     <t>https://irtchennai.in/index.php/en/colleges/irttech</t>
   </si>
   <si>
@@ -802,9 +799,6 @@
     <t>https://www.aucermd.edu.in/</t>
   </si>
   <si>
-    <t>https://www.etamilnadu.org/colleges/university-college-of-engineering-dindigul-47214.html</t>
-  </si>
-  <si>
     <t>https://accet.ac.in/</t>
   </si>
   <si>
@@ -1370,6 +1364,12 @@
   </si>
   <si>
     <t>Avg_Salary</t>
+  </si>
+  <si>
+    <t>https://hicet.ac.in/</t>
+  </si>
+  <si>
+    <t>https://shorturl.at/nrs49</t>
   </si>
 </sst>
 </file>
@@ -1422,28 +1422,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1755,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6592C329-423D-456B-A327-481CAD1C7A9A}">
   <dimension ref="A1:O735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="F23" zoomScale="88" workbookViewId="0">
+      <selection activeCell="O171" sqref="O171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1766,7 +1745,7 @@
     <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="118.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -1807,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N1" t="s">
         <v>168</v>
@@ -1827,7 +1806,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E2">
         <v>196.25</v>
@@ -1874,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E3">
         <v>198.25</v>
@@ -1968,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E5">
         <v>199</v>
@@ -2015,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E6">
         <v>199.75</v>
@@ -2485,7 +2464,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E16">
         <v>197.25</v>
@@ -2579,7 +2558,7 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E18">
         <v>195.75</v>
@@ -2667,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -2714,13 +2693,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E21">
         <v>198.75</v>
@@ -2761,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -2808,13 +2787,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E23">
         <v>198.25</v>
@@ -2855,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -2902,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -2949,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -2996,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -3043,13 +3022,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E28">
         <v>194.75</v>
@@ -3096,7 +3075,7 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E29">
         <v>179.25</v>
@@ -3237,7 +3216,7 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E32">
         <v>173.5</v>
@@ -3284,7 +3263,7 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E33">
         <v>169.75</v>
@@ -3425,7 +3404,7 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E36">
         <v>187.25</v>
@@ -3660,7 +3639,7 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E41">
         <v>188</v>
@@ -3754,7 +3733,7 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E43">
         <v>190.5</v>
@@ -3936,7 +3915,7 @@
         <v>1211</v>
       </c>
       <c r="B47" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
@@ -3983,7 +3962,7 @@
         <v>1211</v>
       </c>
       <c r="B48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C48" t="s">
         <v>54</v>
@@ -4030,7 +4009,7 @@
         <v>1211</v>
       </c>
       <c r="B49" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -4077,13 +4056,13 @@
         <v>1211</v>
       </c>
       <c r="B50" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E50">
         <v>190</v>
@@ -4124,7 +4103,7 @@
         <v>1211</v>
       </c>
       <c r="B51" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -4171,7 +4150,7 @@
         <v>1211</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -4218,7 +4197,7 @@
         <v>1211</v>
       </c>
       <c r="B53" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -4312,13 +4291,13 @@
         <v>1219</v>
       </c>
       <c r="B55" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E55">
         <v>196.25</v>
@@ -4359,7 +4338,7 @@
         <v>1219</v>
       </c>
       <c r="B56" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -4406,7 +4385,7 @@
         <v>1219</v>
       </c>
       <c r="B57" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -4453,7 +4432,7 @@
         <v>1304</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -4500,13 +4479,13 @@
         <v>1304</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E59">
         <v>192.75</v>
@@ -4547,7 +4526,7 @@
         <v>1304</v>
       </c>
       <c r="B60" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -4594,7 +4573,7 @@
         <v>1304</v>
       </c>
       <c r="B61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C61" t="s">
         <v>57</v>
@@ -4641,7 +4620,7 @@
         <v>1309</v>
       </c>
       <c r="B62" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -4741,7 +4720,7 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E64">
         <v>197.5</v>
@@ -4976,7 +4955,7 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E69">
         <v>194.25</v>
@@ -5111,7 +5090,7 @@
         <v>1321</v>
       </c>
       <c r="B72" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C72" t="s">
         <v>61</v>
@@ -5164,7 +5143,7 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E73">
         <v>190</v>
@@ -5399,7 +5378,7 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E78">
         <v>197.5</v>
@@ -5493,7 +5472,7 @@
         <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E80">
         <v>196.5</v>
@@ -5728,7 +5707,7 @@
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E85">
         <v>197.5</v>
@@ -5775,7 +5754,7 @@
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E86">
         <v>199</v>
@@ -6010,7 +5989,7 @@
         <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E91">
         <v>195.25</v>
@@ -6057,7 +6036,7 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E92">
         <v>197.5</v>
@@ -6104,7 +6083,7 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E93">
         <v>198</v>
@@ -6527,7 +6506,7 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E102">
         <v>188.75</v>
@@ -6856,7 +6835,7 @@
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E109">
         <v>184.25</v>
@@ -6950,7 +6929,7 @@
         <v>84</v>
       </c>
       <c r="D111" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E111">
         <v>188</v>
@@ -7044,7 +7023,7 @@
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E113">
         <v>190.25</v>
@@ -7217,8 +7196,8 @@
       <c r="N116" t="s">
         <v>175</v>
       </c>
-      <c r="O116" t="s">
-        <v>238</v>
+      <c r="O116" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
@@ -7265,7 +7244,7 @@
         <v>179</v>
       </c>
       <c r="O117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
@@ -7312,7 +7291,7 @@
         <v>175</v>
       </c>
       <c r="O118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
@@ -7359,7 +7338,7 @@
         <v>179</v>
       </c>
       <c r="O119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
@@ -7406,7 +7385,7 @@
         <v>179</v>
       </c>
       <c r="O120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
@@ -7453,7 +7432,7 @@
         <v>179</v>
       </c>
       <c r="O121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
@@ -7500,7 +7479,7 @@
         <v>179</v>
       </c>
       <c r="O122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
@@ -7547,7 +7526,7 @@
         <v>175</v>
       </c>
       <c r="O123" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
@@ -7561,7 +7540,7 @@
         <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E124">
         <v>196.5</v>
@@ -7594,7 +7573,7 @@
         <v>175</v>
       </c>
       <c r="O124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
@@ -7641,7 +7620,7 @@
         <v>175</v>
       </c>
       <c r="O125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
@@ -7688,7 +7667,7 @@
         <v>175</v>
       </c>
       <c r="O126" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
@@ -7735,7 +7714,7 @@
         <v>175</v>
       </c>
       <c r="O127" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
@@ -7782,7 +7761,7 @@
         <v>175</v>
       </c>
       <c r="O128" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
@@ -7829,7 +7808,7 @@
         <v>175</v>
       </c>
       <c r="O129" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
@@ -7876,7 +7855,7 @@
         <v>175</v>
       </c>
       <c r="O130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
@@ -7923,7 +7902,7 @@
         <v>175</v>
       </c>
       <c r="O131" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
@@ -7970,7 +7949,7 @@
         <v>180</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
@@ -8017,7 +7996,7 @@
         <v>180</v>
       </c>
       <c r="O133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
@@ -8031,7 +8010,7 @@
         <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E134">
         <v>189.5</v>
@@ -8064,7 +8043,7 @@
         <v>180</v>
       </c>
       <c r="O134" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
@@ -8111,7 +8090,7 @@
         <v>180</v>
       </c>
       <c r="O135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
@@ -8158,7 +8137,7 @@
         <v>180</v>
       </c>
       <c r="O136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
@@ -8205,7 +8184,7 @@
         <v>180</v>
       </c>
       <c r="O137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
@@ -8252,7 +8231,7 @@
         <v>180</v>
       </c>
       <c r="O138" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
@@ -8299,7 +8278,7 @@
         <v>180</v>
       </c>
       <c r="O139" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
@@ -8346,7 +8325,7 @@
         <v>180</v>
       </c>
       <c r="O140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
@@ -8393,7 +8372,7 @@
         <v>181</v>
       </c>
       <c r="O141" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
@@ -8407,7 +8386,7 @@
         <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E142">
         <v>181</v>
@@ -8440,7 +8419,7 @@
         <v>181</v>
       </c>
       <c r="O142" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
@@ -8487,7 +8466,7 @@
         <v>181</v>
       </c>
       <c r="O143" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
@@ -8534,7 +8513,7 @@
         <v>181</v>
       </c>
       <c r="O144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
@@ -8581,7 +8560,7 @@
         <v>182</v>
       </c>
       <c r="O145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
@@ -8628,7 +8607,7 @@
         <v>182</v>
       </c>
       <c r="O146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
@@ -8675,7 +8654,7 @@
         <v>182</v>
       </c>
       <c r="O147" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
@@ -8722,7 +8701,7 @@
         <v>182</v>
       </c>
       <c r="O148" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
@@ -8769,7 +8748,7 @@
         <v>182</v>
       </c>
       <c r="O149" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
@@ -8816,7 +8795,7 @@
         <v>182</v>
       </c>
       <c r="O150" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.35">
@@ -8863,7 +8842,7 @@
         <v>182</v>
       </c>
       <c r="O151" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.35">
@@ -8910,7 +8889,7 @@
         <v>183</v>
       </c>
       <c r="O152" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.35">
@@ -8957,7 +8936,7 @@
         <v>184</v>
       </c>
       <c r="O153" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.35">
@@ -9004,7 +8983,7 @@
         <v>185</v>
       </c>
       <c r="O154" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
@@ -9051,7 +9030,7 @@
         <v>186</v>
       </c>
       <c r="O155" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
@@ -9065,7 +9044,7 @@
         <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E156">
         <v>192.5</v>
@@ -9098,7 +9077,7 @@
         <v>186</v>
       </c>
       <c r="O156" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.35">
@@ -9145,7 +9124,7 @@
         <v>186</v>
       </c>
       <c r="O157" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
@@ -9192,7 +9171,7 @@
         <v>186</v>
       </c>
       <c r="O158" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.35">
@@ -9239,7 +9218,7 @@
         <v>186</v>
       </c>
       <c r="O159" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.35">
@@ -9286,7 +9265,7 @@
         <v>187</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.35">
@@ -9333,7 +9312,7 @@
         <v>187</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.35">
@@ -9380,7 +9359,7 @@
         <v>187</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.35">
@@ -9394,7 +9373,7 @@
         <v>108</v>
       </c>
       <c r="D163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E163">
         <v>196.75</v>
@@ -9427,7 +9406,7 @@
         <v>187</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
@@ -9474,7 +9453,7 @@
         <v>187</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
@@ -9521,7 +9500,7 @@
         <v>187</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
@@ -9568,7 +9547,7 @@
         <v>187</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
@@ -9615,7 +9594,7 @@
         <v>188</v>
       </c>
       <c r="O167" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
@@ -9662,7 +9641,7 @@
         <v>188</v>
       </c>
       <c r="O168" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
@@ -9709,7 +9688,7 @@
         <v>189</v>
       </c>
       <c r="O169" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
@@ -9756,7 +9735,7 @@
         <v>190</v>
       </c>
       <c r="O170" t="s">
-        <v>257</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">
@@ -9803,7 +9782,7 @@
         <v>190</v>
       </c>
       <c r="O171" t="s">
-        <v>257</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.35">
@@ -9817,7 +9796,7 @@
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E172">
         <v>194.75</v>
@@ -9850,7 +9829,7 @@
         <v>191</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.35">
@@ -9897,7 +9876,7 @@
         <v>191</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.35">
@@ -9944,7 +9923,7 @@
         <v>191</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.35">
@@ -9991,7 +9970,7 @@
         <v>191</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.35">
@@ -10038,7 +10017,7 @@
         <v>190</v>
       </c>
       <c r="O176" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.35">
@@ -10085,7 +10064,7 @@
         <v>187</v>
       </c>
       <c r="O177" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.35">
@@ -10099,7 +10078,7 @@
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E178">
         <v>194.75</v>
@@ -10146,7 +10125,7 @@
         <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E179">
         <v>196.75</v>
@@ -10240,7 +10219,7 @@
         <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E181">
         <v>198.5</v>
@@ -10287,7 +10266,7 @@
         <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E182">
         <v>199.5</v>
@@ -10381,7 +10360,7 @@
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E184">
         <v>198.25</v>
@@ -10428,7 +10407,7 @@
         <v>17</v>
       </c>
       <c r="D185" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E185">
         <v>198.25</v>
@@ -10616,7 +10595,7 @@
         <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E189">
         <v>185.5</v>
@@ -10710,7 +10689,7 @@
         <v>31</v>
       </c>
       <c r="D191" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E191">
         <v>194.75</v>
@@ -10804,7 +10783,7 @@
         <v>34</v>
       </c>
       <c r="D193" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E193">
         <v>192.25</v>
@@ -10892,7 +10871,7 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C195" t="s">
         <v>37</v>
@@ -10939,13 +10918,13 @@
         <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C196" t="s">
         <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E196">
         <v>198</v>
@@ -10986,7 +10965,7 @@
         <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C197" t="s">
         <v>15</v>
@@ -11033,13 +11012,13 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C198" t="s">
         <v>39</v>
       </c>
       <c r="D198" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E198">
         <v>196.5</v>
@@ -11080,13 +11059,13 @@
         <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C199" t="s">
         <v>17</v>
       </c>
       <c r="D199" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E199">
         <v>196.75</v>
@@ -11127,7 +11106,7 @@
         <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C200" t="s">
         <v>18</v>
@@ -11174,7 +11153,7 @@
         <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C201" t="s">
         <v>40</v>
@@ -11221,7 +11200,7 @@
         <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C202" t="s">
         <v>42</v>
@@ -11268,13 +11247,13 @@
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C203" t="s">
         <v>44</v>
       </c>
       <c r="D203" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E203">
         <v>190</v>
@@ -11368,7 +11347,7 @@
         <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E205">
         <v>181.5</v>
@@ -11550,13 +11529,13 @@
         <v>1211</v>
       </c>
       <c r="B209" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C209" t="s">
         <v>14</v>
       </c>
       <c r="D209" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E209">
         <v>188</v>
@@ -11597,7 +11576,7 @@
         <v>1211</v>
       </c>
       <c r="B210" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C210" t="s">
         <v>15</v>
@@ -11644,13 +11623,13 @@
         <v>1219</v>
       </c>
       <c r="B211" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
       </c>
       <c r="D211" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E211">
         <v>194</v>
@@ -11691,7 +11670,7 @@
         <v>1219</v>
       </c>
       <c r="B212" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C212" t="s">
         <v>15</v>
@@ -11738,13 +11717,13 @@
         <v>1304</v>
       </c>
       <c r="B213" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
       </c>
       <c r="D213" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E213">
         <v>189.25</v>
@@ -11791,7 +11770,7 @@
         <v>14</v>
       </c>
       <c r="D214" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E214">
         <v>196</v>
@@ -11973,13 +11952,13 @@
         <v>1321</v>
       </c>
       <c r="B218" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C218" t="s">
         <v>115</v>
       </c>
       <c r="D218" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E218">
         <v>186.5</v>
@@ -12120,7 +12099,7 @@
         <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E221">
         <v>172.75</v>
@@ -12261,7 +12240,7 @@
         <v>16</v>
       </c>
       <c r="D224" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E224">
         <v>195</v>
@@ -12308,7 +12287,7 @@
         <v>39</v>
       </c>
       <c r="D225" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E225">
         <v>193</v>
@@ -12543,7 +12522,7 @@
         <v>116</v>
       </c>
       <c r="D230" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E230">
         <v>195</v>
@@ -12590,7 +12569,7 @@
         <v>13</v>
       </c>
       <c r="D231" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E231">
         <v>198.5</v>
@@ -12684,7 +12663,7 @@
         <v>16</v>
       </c>
       <c r="D233" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E233">
         <v>197.5</v>
@@ -12731,7 +12710,7 @@
         <v>17</v>
       </c>
       <c r="D234" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E234">
         <v>197.75</v>
@@ -12919,7 +12898,7 @@
         <v>117</v>
       </c>
       <c r="D238" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E238">
         <v>194.5</v>
@@ -13013,7 +12992,7 @@
         <v>13</v>
       </c>
       <c r="D240" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E240">
         <v>195.5</v>
@@ -13060,7 +13039,7 @@
         <v>14</v>
       </c>
       <c r="D241" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E241">
         <v>196.75</v>
@@ -13154,7 +13133,7 @@
         <v>108</v>
       </c>
       <c r="D243" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E243">
         <v>194.25</v>
@@ -13248,7 +13227,7 @@
         <v>14</v>
       </c>
       <c r="D245" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E245">
         <v>190</v>
@@ -13281,7 +13260,7 @@
         <v>175</v>
       </c>
       <c r="O245" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
@@ -13328,7 +13307,7 @@
         <v>175</v>
       </c>
       <c r="O246" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
@@ -13342,7 +13321,7 @@
         <v>14</v>
       </c>
       <c r="D247" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E247">
         <v>156.75</v>
@@ -13375,7 +13354,7 @@
         <v>178</v>
       </c>
       <c r="O247" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
@@ -13422,7 +13401,7 @@
         <v>178</v>
       </c>
       <c r="O248" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
@@ -13469,7 +13448,7 @@
         <v>175</v>
       </c>
       <c r="O249" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
@@ -13530,7 +13509,7 @@
         <v>14</v>
       </c>
       <c r="D251" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E251">
         <v>176</v>
@@ -13624,7 +13603,7 @@
         <v>16</v>
       </c>
       <c r="D253" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E253">
         <v>193</v>
@@ -13798,7 +13777,7 @@
         <v>192</v>
       </c>
       <c r="O256" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.35">
@@ -13845,7 +13824,7 @@
         <v>192</v>
       </c>
       <c r="O257" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.35">
@@ -13892,7 +13871,7 @@
         <v>192</v>
       </c>
       <c r="O258" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.35">
@@ -13953,7 +13932,7 @@
         <v>14</v>
       </c>
       <c r="D260" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E260">
         <v>193.5</v>
@@ -14094,7 +14073,7 @@
         <v>16</v>
       </c>
       <c r="D263" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E263">
         <v>167.5</v>
@@ -14188,7 +14167,7 @@
         <v>14</v>
       </c>
       <c r="D265" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E265">
         <v>97.25</v>
@@ -14221,7 +14200,7 @@
         <v>176</v>
       </c>
       <c r="O265" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.35">
@@ -14235,7 +14214,7 @@
         <v>14</v>
       </c>
       <c r="D266" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E266">
         <v>129.5</v>
@@ -14268,7 +14247,7 @@
         <v>175</v>
       </c>
       <c r="O266" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.35">
@@ -14329,7 +14308,7 @@
         <v>14</v>
       </c>
       <c r="D268" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E268">
         <v>190</v>
@@ -14362,7 +14341,7 @@
         <v>179</v>
       </c>
       <c r="O268" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.35">
@@ -14409,7 +14388,7 @@
         <v>179</v>
       </c>
       <c r="O269" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.35">
@@ -14456,7 +14435,7 @@
         <v>175</v>
       </c>
       <c r="O270" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.35">
@@ -14470,7 +14449,7 @@
         <v>14</v>
       </c>
       <c r="D271" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E271">
         <v>194.75</v>
@@ -14503,7 +14482,7 @@
         <v>175</v>
       </c>
       <c r="O271" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.35">
@@ -14550,7 +14529,7 @@
         <v>175</v>
       </c>
       <c r="O272" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
@@ -14597,7 +14576,7 @@
         <v>175</v>
       </c>
       <c r="O273" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
@@ -14611,7 +14590,7 @@
         <v>16</v>
       </c>
       <c r="D274" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E274">
         <v>187.75</v>
@@ -14644,7 +14623,7 @@
         <v>175</v>
       </c>
       <c r="O274" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
@@ -14658,7 +14637,7 @@
         <v>14</v>
       </c>
       <c r="D275" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E275">
         <v>186.5</v>
@@ -14691,7 +14670,7 @@
         <v>175</v>
       </c>
       <c r="O275" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
@@ -14738,7 +14717,7 @@
         <v>179</v>
       </c>
       <c r="O276" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
@@ -14752,7 +14731,7 @@
         <v>14</v>
       </c>
       <c r="D277" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E277">
         <v>165.25</v>
@@ -14785,7 +14764,7 @@
         <v>175</v>
       </c>
       <c r="O277" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
@@ -14799,7 +14778,7 @@
         <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E278">
         <v>186.75</v>
@@ -14832,7 +14811,7 @@
         <v>182</v>
       </c>
       <c r="O278" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
@@ -14846,7 +14825,7 @@
         <v>16</v>
       </c>
       <c r="D279" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E279">
         <v>177.25</v>
@@ -14879,7 +14858,7 @@
         <v>182</v>
       </c>
       <c r="O279" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
@@ -14926,7 +14905,7 @@
         <v>182</v>
       </c>
       <c r="O280" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
@@ -14973,7 +14952,7 @@
         <v>182</v>
       </c>
       <c r="O281" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
@@ -15020,7 +14999,7 @@
         <v>181</v>
       </c>
       <c r="O282" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
@@ -15067,7 +15046,7 @@
         <v>182</v>
       </c>
       <c r="O283" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
@@ -15114,7 +15093,7 @@
         <v>193</v>
       </c>
       <c r="O284" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
@@ -15161,7 +15140,7 @@
         <v>182</v>
       </c>
       <c r="O285" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
@@ -15208,7 +15187,7 @@
         <v>182</v>
       </c>
       <c r="O286" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
@@ -15222,7 +15201,7 @@
         <v>14</v>
       </c>
       <c r="D287" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E287">
         <v>190.75</v>
@@ -15255,7 +15234,7 @@
         <v>194</v>
       </c>
       <c r="O287" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
@@ -15269,7 +15248,7 @@
         <v>16</v>
       </c>
       <c r="D288" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E288">
         <v>186.75</v>
@@ -15302,7 +15281,7 @@
         <v>194</v>
       </c>
       <c r="O288" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.35">
@@ -15349,7 +15328,7 @@
         <v>194</v>
       </c>
       <c r="O289" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.35">
@@ -15396,7 +15375,7 @@
         <v>187</v>
       </c>
       <c r="O290" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
@@ -15410,7 +15389,7 @@
         <v>17</v>
       </c>
       <c r="D291" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E291">
         <v>194.75</v>
@@ -15443,7 +15422,7 @@
         <v>187</v>
       </c>
       <c r="O291" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
@@ -15490,7 +15469,7 @@
         <v>195</v>
       </c>
       <c r="O292" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
@@ -15504,7 +15483,7 @@
         <v>16</v>
       </c>
       <c r="D293" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E293">
         <v>188.5</v>
@@ -15537,7 +15516,7 @@
         <v>195</v>
       </c>
       <c r="O293" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
@@ -15584,7 +15563,7 @@
         <v>195</v>
       </c>
       <c r="O294" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
@@ -15631,7 +15610,7 @@
         <v>190</v>
       </c>
       <c r="O295" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
@@ -15739,7 +15718,7 @@
         <v>13</v>
       </c>
       <c r="D298" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E298">
         <v>195</v>
@@ -15880,7 +15859,7 @@
         <v>17</v>
       </c>
       <c r="D301" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E301">
         <v>193.33</v>
@@ -16297,7 +16276,7 @@
         <v>4</v>
       </c>
       <c r="B310" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C310" t="s">
         <v>37</v>
@@ -16344,13 +16323,13 @@
         <v>4</v>
       </c>
       <c r="B311" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C311" t="s">
         <v>13</v>
       </c>
       <c r="D311" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E311">
         <v>193</v>
@@ -16391,13 +16370,13 @@
         <v>4</v>
       </c>
       <c r="B312" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C312" t="s">
         <v>14</v>
       </c>
       <c r="D312" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E312">
         <v>194.5</v>
@@ -16438,7 +16417,7 @@
         <v>4</v>
       </c>
       <c r="B313" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C313" t="s">
         <v>15</v>
@@ -16485,13 +16464,13 @@
         <v>4</v>
       </c>
       <c r="B314" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C314" t="s">
         <v>17</v>
       </c>
       <c r="D314" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E314">
         <v>191</v>
@@ -16532,7 +16511,7 @@
         <v>4</v>
       </c>
       <c r="B315" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C315" t="s">
         <v>18</v>
@@ -16579,7 +16558,7 @@
         <v>4</v>
       </c>
       <c r="B316" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C316" t="s">
         <v>40</v>
@@ -16626,7 +16605,7 @@
         <v>4</v>
       </c>
       <c r="B317" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C317" t="s">
         <v>42</v>
@@ -16673,7 +16652,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C318" t="s">
         <v>44</v>
@@ -16720,7 +16699,7 @@
         <v>5</v>
       </c>
       <c r="B319" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C319" t="s">
         <v>15</v>
@@ -16759,7 +16738,7 @@
         <v>196</v>
       </c>
       <c r="O319" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.35">
@@ -16773,7 +16752,7 @@
         <v>14</v>
       </c>
       <c r="D320" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E320">
         <v>150.5</v>
@@ -16820,7 +16799,7 @@
         <v>14</v>
       </c>
       <c r="D321" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E321">
         <v>168</v>
@@ -16914,7 +16893,7 @@
         <v>14</v>
       </c>
       <c r="D323" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E323">
         <v>183.5</v>
@@ -16955,7 +16934,7 @@
         <v>1118</v>
       </c>
       <c r="B324" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C324" t="s">
         <v>16</v>
@@ -16994,7 +16973,7 @@
         <v>169</v>
       </c>
       <c r="O324" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.35">
@@ -17002,7 +16981,7 @@
         <v>1118</v>
       </c>
       <c r="B325" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C325" t="s">
         <v>57</v>
@@ -17041,7 +17020,7 @@
         <v>169</v>
       </c>
       <c r="O325" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.35">
@@ -17055,7 +17034,7 @@
         <v>14</v>
       </c>
       <c r="D326" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E326">
         <v>166.5</v>
@@ -17096,13 +17075,13 @@
         <v>1202</v>
       </c>
       <c r="B327" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C327" t="s">
         <v>14</v>
       </c>
       <c r="D327" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E327">
         <v>107</v>
@@ -17135,7 +17114,7 @@
         <v>169</v>
       </c>
       <c r="O327" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.35">
@@ -17143,7 +17122,7 @@
         <v>1202</v>
       </c>
       <c r="B328" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C328" t="s">
         <v>15</v>
@@ -17182,7 +17161,7 @@
         <v>169</v>
       </c>
       <c r="O328" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.35">
@@ -17190,13 +17169,13 @@
         <v>1210</v>
       </c>
       <c r="B329" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C329" t="s">
         <v>14</v>
       </c>
       <c r="D329" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E329">
         <v>173</v>
@@ -17237,7 +17216,7 @@
         <v>1211</v>
       </c>
       <c r="B330" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C330" t="s">
         <v>52</v>
@@ -17284,13 +17263,13 @@
         <v>1211</v>
       </c>
       <c r="B331" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C331" t="s">
         <v>14</v>
       </c>
       <c r="D331" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E331">
         <v>178</v>
@@ -17331,7 +17310,7 @@
         <v>1211</v>
       </c>
       <c r="B332" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C332" t="s">
         <v>15</v>
@@ -17378,13 +17357,13 @@
         <v>1219</v>
       </c>
       <c r="B333" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C333" t="s">
         <v>14</v>
       </c>
       <c r="D333" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E333">
         <v>189</v>
@@ -17425,7 +17404,7 @@
         <v>1219</v>
       </c>
       <c r="B334" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C334" t="s">
         <v>15</v>
@@ -17472,7 +17451,7 @@
         <v>1219</v>
       </c>
       <c r="B335" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C335" t="s">
         <v>57</v>
@@ -17519,7 +17498,7 @@
         <v>1309</v>
       </c>
       <c r="B336" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C336" t="s">
         <v>15</v>
@@ -17566,13 +17545,13 @@
         <v>1315</v>
       </c>
       <c r="B337" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C337" t="s">
         <v>14</v>
       </c>
       <c r="D337" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E337">
         <v>193</v>
@@ -17613,7 +17592,7 @@
         <v>1315</v>
       </c>
       <c r="B338" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C338" t="s">
         <v>15</v>
@@ -17660,7 +17639,7 @@
         <v>1315</v>
       </c>
       <c r="B339" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C339" t="s">
         <v>16</v>
@@ -17707,7 +17686,7 @@
         <v>1315</v>
       </c>
       <c r="B340" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C340" t="s">
         <v>57</v>
@@ -17754,7 +17733,7 @@
         <v>1315</v>
       </c>
       <c r="B341" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C341" t="s">
         <v>20</v>
@@ -17807,7 +17786,7 @@
         <v>14</v>
       </c>
       <c r="D342" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E342">
         <v>183.5</v>
@@ -17848,7 +17827,7 @@
         <v>1321</v>
       </c>
       <c r="B343" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C343" t="s">
         <v>61</v>
@@ -17895,7 +17874,7 @@
         <v>1325</v>
       </c>
       <c r="B344" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C344" t="s">
         <v>57</v>
@@ -17934,7 +17913,7 @@
         <v>170</v>
       </c>
       <c r="O344" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
@@ -17942,13 +17921,13 @@
         <v>1452</v>
       </c>
       <c r="B345" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C345" t="s">
         <v>14</v>
       </c>
       <c r="D345" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E345">
         <v>125.5</v>
@@ -17981,7 +17960,7 @@
         <v>169</v>
       </c>
       <c r="O345" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.35">
@@ -17989,7 +17968,7 @@
         <v>1516</v>
       </c>
       <c r="B346" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C346" t="s">
         <v>15</v>
@@ -18036,7 +18015,7 @@
         <v>1516</v>
       </c>
       <c r="B347" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C347" t="s">
         <v>16</v>
@@ -18083,7 +18062,7 @@
         <v>1516</v>
       </c>
       <c r="B348" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C348" t="s">
         <v>20</v>
@@ -18130,7 +18109,7 @@
         <v>2005</v>
       </c>
       <c r="B349" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C349" t="s">
         <v>11</v>
@@ -18177,7 +18156,7 @@
         <v>2005</v>
       </c>
       <c r="B350" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C350" t="s">
         <v>16</v>
@@ -18224,7 +18203,7 @@
         <v>2005</v>
       </c>
       <c r="B351" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C351" t="s">
         <v>39</v>
@@ -18271,7 +18250,7 @@
         <v>2005</v>
       </c>
       <c r="B352" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C352" t="s">
         <v>57</v>
@@ -18318,7 +18297,7 @@
         <v>2005</v>
       </c>
       <c r="B353" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C353" t="s">
         <v>20</v>
@@ -18365,7 +18344,7 @@
         <v>2005</v>
       </c>
       <c r="B354" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C354" t="s">
         <v>42</v>
@@ -18412,13 +18391,13 @@
         <v>2006</v>
       </c>
       <c r="B355" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C355" t="s">
         <v>13</v>
       </c>
       <c r="D355" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E355">
         <v>194.5</v>
@@ -18459,7 +18438,7 @@
         <v>2006</v>
       </c>
       <c r="B356" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C356" t="s">
         <v>15</v>
@@ -18506,7 +18485,7 @@
         <v>2006</v>
       </c>
       <c r="B357" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C357" t="s">
         <v>16</v>
@@ -18553,13 +18532,13 @@
         <v>2006</v>
       </c>
       <c r="B358" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C358" t="s">
         <v>17</v>
       </c>
       <c r="D358" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E358">
         <v>192.25</v>
@@ -18600,7 +18579,7 @@
         <v>2006</v>
       </c>
       <c r="B359" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C359" t="s">
         <v>141</v>
@@ -18647,7 +18626,7 @@
         <v>2006</v>
       </c>
       <c r="B360" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C360" t="s">
         <v>18</v>
@@ -18694,7 +18673,7 @@
         <v>2006</v>
       </c>
       <c r="B361" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C361" t="s">
         <v>20</v>
@@ -18741,7 +18720,7 @@
         <v>2006</v>
       </c>
       <c r="B362" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C362" t="s">
         <v>40</v>
@@ -18788,13 +18767,13 @@
         <v>2006</v>
       </c>
       <c r="B363" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C363" t="s">
         <v>143</v>
       </c>
       <c r="D363" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E363">
         <v>189</v>
@@ -18835,13 +18814,13 @@
         <v>2007</v>
       </c>
       <c r="B364" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C364" t="s">
         <v>14</v>
       </c>
       <c r="D364" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E364">
         <v>190</v>
@@ -18882,7 +18861,7 @@
         <v>2007</v>
       </c>
       <c r="B365" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C365" t="s">
         <v>15</v>
@@ -18929,13 +18908,13 @@
         <v>2007</v>
       </c>
       <c r="B366" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C366" t="s">
         <v>17</v>
       </c>
       <c r="D366" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E366">
         <v>188</v>
@@ -18976,13 +18955,13 @@
         <v>2007</v>
       </c>
       <c r="B367" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C367" t="s">
         <v>108</v>
       </c>
       <c r="D367" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E367">
         <v>185.5</v>
@@ -19023,7 +19002,7 @@
         <v>2007</v>
       </c>
       <c r="B368" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C368" t="s">
         <v>18</v>
@@ -19070,7 +19049,7 @@
         <v>2007</v>
       </c>
       <c r="B369" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C369" t="s">
         <v>20</v>
@@ -19117,13 +19096,13 @@
         <v>2025</v>
       </c>
       <c r="B370" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C370" t="s">
         <v>14</v>
       </c>
       <c r="D370" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E370">
         <v>179.5</v>
@@ -19156,7 +19135,7 @@
         <v>175</v>
       </c>
       <c r="O370" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.35">
@@ -19164,7 +19143,7 @@
         <v>2025</v>
       </c>
       <c r="B371" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C371" t="s">
         <v>16</v>
@@ -19203,7 +19182,7 @@
         <v>175</v>
       </c>
       <c r="O371" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.35">
@@ -19211,7 +19190,7 @@
         <v>2369</v>
       </c>
       <c r="B372" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C372" t="s">
         <v>16</v>
@@ -19258,7 +19237,7 @@
         <v>2377</v>
       </c>
       <c r="B373" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C373" t="s">
         <v>11</v>
@@ -19305,7 +19284,7 @@
         <v>2377</v>
       </c>
       <c r="B374" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C374" t="s">
         <v>16</v>
@@ -19352,7 +19331,7 @@
         <v>2603</v>
       </c>
       <c r="B375" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C375" t="s">
         <v>16</v>
@@ -19399,7 +19378,7 @@
         <v>2608</v>
       </c>
       <c r="B376" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C376" t="s">
         <v>20</v>
@@ -19438,7 +19417,7 @@
         <v>197</v>
       </c>
       <c r="O376" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.35">
@@ -19446,13 +19425,13 @@
         <v>2610</v>
       </c>
       <c r="B377" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C377" t="s">
         <v>14</v>
       </c>
       <c r="D377" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E377">
         <v>130</v>
@@ -19485,7 +19464,7 @@
         <v>192</v>
       </c>
       <c r="O377" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.35">
@@ -19493,7 +19472,7 @@
         <v>2610</v>
       </c>
       <c r="B378" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C378" t="s">
         <v>15</v>
@@ -19532,7 +19511,7 @@
         <v>192</v>
       </c>
       <c r="O378" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.35">
@@ -19540,7 +19519,7 @@
         <v>2610</v>
       </c>
       <c r="B379" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C379" t="s">
         <v>16</v>
@@ -19579,7 +19558,7 @@
         <v>192</v>
       </c>
       <c r="O379" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.35">
@@ -19587,7 +19566,7 @@
         <v>2610</v>
       </c>
       <c r="B380" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C380" t="s">
         <v>57</v>
@@ -19626,7 +19605,7 @@
         <v>192</v>
       </c>
       <c r="O380" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.35">
@@ -19634,7 +19613,7 @@
         <v>2610</v>
       </c>
       <c r="B381" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C381" t="s">
         <v>20</v>
@@ -19673,7 +19652,7 @@
         <v>192</v>
       </c>
       <c r="O381" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.35">
@@ -19681,13 +19660,13 @@
         <v>2611</v>
       </c>
       <c r="B382" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C382" t="s">
         <v>14</v>
       </c>
       <c r="D382" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E382">
         <v>129</v>
@@ -19720,7 +19699,7 @@
         <v>192</v>
       </c>
       <c r="O382" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.35">
@@ -19728,7 +19707,7 @@
         <v>2611</v>
       </c>
       <c r="B383" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C383" t="s">
         <v>57</v>
@@ -19767,7 +19746,7 @@
         <v>192</v>
       </c>
       <c r="O383" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.35">
@@ -19775,7 +19754,7 @@
         <v>2615</v>
       </c>
       <c r="B384" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C384" t="s">
         <v>11</v>
@@ -19822,13 +19801,13 @@
         <v>2615</v>
       </c>
       <c r="B385" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C385" t="s">
         <v>14</v>
       </c>
       <c r="D385" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E385">
         <v>185</v>
@@ -19869,7 +19848,7 @@
         <v>2615</v>
       </c>
       <c r="B386" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C386" t="s">
         <v>16</v>
@@ -19916,7 +19895,7 @@
         <v>2615</v>
       </c>
       <c r="B387" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C387" t="s">
         <v>20</v>
@@ -19963,7 +19942,7 @@
         <v>2615</v>
       </c>
       <c r="B388" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C388" t="s">
         <v>80</v>
@@ -20010,7 +19989,7 @@
         <v>2618</v>
       </c>
       <c r="B389" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C389" t="s">
         <v>16</v>
@@ -20057,7 +20036,7 @@
         <v>2618</v>
       </c>
       <c r="B390" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C390" t="s">
         <v>20</v>
@@ -20104,13 +20083,13 @@
         <v>2620</v>
       </c>
       <c r="B391" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C391" t="s">
         <v>14</v>
       </c>
       <c r="D391" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E391">
         <v>128.5</v>
@@ -20143,7 +20122,7 @@
         <v>192</v>
       </c>
       <c r="O391" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.35">
@@ -20151,7 +20130,7 @@
         <v>2622</v>
       </c>
       <c r="B392" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C392" t="s">
         <v>11</v>
@@ -20190,7 +20169,7 @@
         <v>197</v>
       </c>
       <c r="O392" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.35">
@@ -20198,7 +20177,7 @@
         <v>2622</v>
       </c>
       <c r="B393" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C393" t="s">
         <v>29</v>
@@ -20237,7 +20216,7 @@
         <v>197</v>
       </c>
       <c r="O393" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.35">
@@ -20245,13 +20224,13 @@
         <v>2622</v>
       </c>
       <c r="B394" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C394" t="s">
         <v>14</v>
       </c>
       <c r="D394" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E394">
         <v>163</v>
@@ -20284,7 +20263,7 @@
         <v>197</v>
       </c>
       <c r="O394" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.35">
@@ -20292,7 +20271,7 @@
         <v>2622</v>
       </c>
       <c r="B395" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C395" t="s">
         <v>15</v>
@@ -20331,7 +20310,7 @@
         <v>197</v>
       </c>
       <c r="O395" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.35">
@@ -20339,7 +20318,7 @@
         <v>2622</v>
       </c>
       <c r="B396" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C396" t="s">
         <v>57</v>
@@ -20378,7 +20357,7 @@
         <v>197</v>
       </c>
       <c r="O396" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.35">
@@ -20386,7 +20365,7 @@
         <v>2622</v>
       </c>
       <c r="B397" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C397" t="s">
         <v>20</v>
@@ -20425,7 +20404,7 @@
         <v>197</v>
       </c>
       <c r="O397" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.35">
@@ -20433,13 +20412,13 @@
         <v>2636</v>
       </c>
       <c r="B398" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C398" t="s">
         <v>14</v>
       </c>
       <c r="D398" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E398">
         <v>132</v>
@@ -20472,7 +20451,7 @@
         <v>178</v>
       </c>
       <c r="O398" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.35">
@@ -20480,13 +20459,13 @@
         <v>2640</v>
       </c>
       <c r="B399" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C399" t="s">
         <v>14</v>
       </c>
       <c r="D399" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E399">
         <v>98.5</v>
@@ -20519,7 +20498,7 @@
         <v>176</v>
       </c>
       <c r="O399" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.35">
@@ -20527,7 +20506,7 @@
         <v>2660</v>
       </c>
       <c r="B400" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C400" t="s">
         <v>52</v>
@@ -20566,7 +20545,7 @@
         <v>192</v>
       </c>
       <c r="O400" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.35">
@@ -20574,7 +20553,7 @@
         <v>2702</v>
       </c>
       <c r="B401" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C401" t="s">
         <v>54</v>
@@ -20621,13 +20600,13 @@
         <v>2704</v>
       </c>
       <c r="B402" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C402" t="s">
         <v>14</v>
       </c>
       <c r="D402" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E402">
         <v>162.5</v>
@@ -20660,7 +20639,7 @@
         <v>175</v>
       </c>
       <c r="O402" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.35">
@@ -20668,7 +20647,7 @@
         <v>2711</v>
       </c>
       <c r="B403" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C403" t="s">
         <v>20</v>
@@ -20707,7 +20686,7 @@
         <v>179</v>
       </c>
       <c r="O403" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.35">
@@ -20715,7 +20694,7 @@
         <v>2712</v>
       </c>
       <c r="B404" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C404" t="s">
         <v>11</v>
@@ -20754,7 +20733,7 @@
         <v>175</v>
       </c>
       <c r="O404" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.35">
@@ -20762,13 +20741,13 @@
         <v>2712</v>
       </c>
       <c r="B405" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C405" t="s">
         <v>14</v>
       </c>
       <c r="D405" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E405">
         <v>187</v>
@@ -20801,7 +20780,7 @@
         <v>175</v>
       </c>
       <c r="O405" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.35">
@@ -20809,7 +20788,7 @@
         <v>2712</v>
       </c>
       <c r="B406" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C406" t="s">
         <v>15</v>
@@ -20848,7 +20827,7 @@
         <v>175</v>
       </c>
       <c r="O406" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.35">
@@ -20856,7 +20835,7 @@
         <v>2712</v>
       </c>
       <c r="B407" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C407" t="s">
         <v>16</v>
@@ -20895,7 +20874,7 @@
         <v>175</v>
       </c>
       <c r="O407" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.35">
@@ -20903,7 +20882,7 @@
         <v>2712</v>
       </c>
       <c r="B408" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C408" t="s">
         <v>57</v>
@@ -20942,7 +20921,7 @@
         <v>175</v>
       </c>
       <c r="O408" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.35">
@@ -20950,7 +20929,7 @@
         <v>2712</v>
       </c>
       <c r="B409" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C409" t="s">
         <v>20</v>
@@ -20989,7 +20968,7 @@
         <v>175</v>
       </c>
       <c r="O409" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.35">
@@ -20997,13 +20976,13 @@
         <v>2718</v>
       </c>
       <c r="B410" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C410" t="s">
         <v>14</v>
       </c>
       <c r="D410" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E410">
         <v>183</v>
@@ -21036,7 +21015,7 @@
         <v>175</v>
       </c>
       <c r="O410" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.35">
@@ -21044,7 +21023,7 @@
         <v>2718</v>
       </c>
       <c r="B411" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C411" t="s">
         <v>15</v>
@@ -21083,7 +21062,7 @@
         <v>175</v>
       </c>
       <c r="O411" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.35">
@@ -21091,7 +21070,7 @@
         <v>2718</v>
       </c>
       <c r="B412" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C412" t="s">
         <v>20</v>
@@ -21130,7 +21109,7 @@
         <v>175</v>
       </c>
       <c r="O412" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.35">
@@ -21138,7 +21117,7 @@
         <v>2719</v>
       </c>
       <c r="B413" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C413" t="s">
         <v>16</v>
@@ -21177,7 +21156,7 @@
         <v>175</v>
       </c>
       <c r="O413" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.35">
@@ -21185,7 +21164,7 @@
         <v>2723</v>
       </c>
       <c r="B414" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C414" t="s">
         <v>15</v>
@@ -21224,7 +21203,7 @@
         <v>179</v>
       </c>
       <c r="O414" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.35">
@@ -21232,13 +21211,13 @@
         <v>2727</v>
       </c>
       <c r="B415" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C415" t="s">
         <v>14</v>
       </c>
       <c r="D415" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E415">
         <v>155.5</v>
@@ -21271,7 +21250,7 @@
         <v>175</v>
       </c>
       <c r="O415" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.35">
@@ -21279,13 +21258,13 @@
         <v>2736</v>
       </c>
       <c r="B416" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C416" t="s">
         <v>14</v>
       </c>
       <c r="D416" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E416">
         <v>142</v>
@@ -21318,7 +21297,7 @@
         <v>175</v>
       </c>
       <c r="O416" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.35">
@@ -21326,7 +21305,7 @@
         <v>2741</v>
       </c>
       <c r="B417" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C417" t="s">
         <v>15</v>
@@ -21365,7 +21344,7 @@
         <v>175</v>
       </c>
       <c r="O417" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.35">
@@ -21373,7 +21352,7 @@
         <v>2750</v>
       </c>
       <c r="B418" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C418" t="s">
         <v>15</v>
@@ -21412,7 +21391,7 @@
         <v>175</v>
       </c>
       <c r="O418" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.35">
@@ -21420,7 +21399,7 @@
         <v>2750</v>
       </c>
       <c r="B419" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C419" t="s">
         <v>20</v>
@@ -21459,7 +21438,7 @@
         <v>175</v>
       </c>
       <c r="O419" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.35">
@@ -21467,7 +21446,7 @@
         <v>3011</v>
       </c>
       <c r="B420" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C420" t="s">
         <v>54</v>
@@ -21506,7 +21485,7 @@
         <v>182</v>
       </c>
       <c r="O420" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.35">
@@ -21514,7 +21493,7 @@
         <v>3011</v>
       </c>
       <c r="B421" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C421" t="s">
         <v>11</v>
@@ -21553,7 +21532,7 @@
         <v>182</v>
       </c>
       <c r="O421" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.35">
@@ -21561,13 +21540,13 @@
         <v>3011</v>
       </c>
       <c r="B422" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C422" t="s">
         <v>14</v>
       </c>
       <c r="D422" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E422">
         <v>171.5</v>
@@ -21600,7 +21579,7 @@
         <v>182</v>
       </c>
       <c r="O422" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.35">
@@ -21608,7 +21587,7 @@
         <v>3011</v>
       </c>
       <c r="B423" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C423" t="s">
         <v>15</v>
@@ -21647,7 +21626,7 @@
         <v>182</v>
       </c>
       <c r="O423" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.35">
@@ -21655,7 +21634,7 @@
         <v>3011</v>
       </c>
       <c r="B424" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C424" t="s">
         <v>16</v>
@@ -21694,7 +21673,7 @@
         <v>182</v>
       </c>
       <c r="O424" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.35">
@@ -21702,7 +21681,7 @@
         <v>3011</v>
       </c>
       <c r="B425" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C425" t="s">
         <v>57</v>
@@ -21741,7 +21720,7 @@
         <v>182</v>
       </c>
       <c r="O425" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.35">
@@ -21749,7 +21728,7 @@
         <v>3011</v>
       </c>
       <c r="B426" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C426" t="s">
         <v>20</v>
@@ -21788,7 +21767,7 @@
         <v>182</v>
       </c>
       <c r="O426" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.35">
@@ -21796,7 +21775,7 @@
         <v>3458</v>
       </c>
       <c r="B427" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C427" t="s">
         <v>84</v>
@@ -21835,7 +21814,7 @@
         <v>198</v>
       </c>
       <c r="O427" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.35">
@@ -21843,7 +21822,7 @@
         <v>3464</v>
       </c>
       <c r="B428" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C428" t="s">
         <v>20</v>
@@ -21882,7 +21861,7 @@
         <v>181</v>
       </c>
       <c r="O428" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.35">
@@ -21890,13 +21869,13 @@
         <v>3465</v>
       </c>
       <c r="B429" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C429" t="s">
         <v>14</v>
       </c>
       <c r="D429" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E429">
         <v>164</v>
@@ -21929,7 +21908,7 @@
         <v>182</v>
       </c>
       <c r="O429" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="430" spans="1:15" x14ac:dyDescent="0.35">
@@ -21937,7 +21916,7 @@
         <v>3465</v>
       </c>
       <c r="B430" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C430" t="s">
         <v>16</v>
@@ -21976,7 +21955,7 @@
         <v>182</v>
       </c>
       <c r="O430" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.35">
@@ -21984,7 +21963,7 @@
         <v>3465</v>
       </c>
       <c r="B431" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C431" t="s">
         <v>20</v>
@@ -22023,7 +22002,7 @@
         <v>182</v>
       </c>
       <c r="O431" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.35">
@@ -22031,13 +22010,13 @@
         <v>3819</v>
       </c>
       <c r="B432" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C432" t="s">
         <v>14</v>
       </c>
       <c r="D432" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E432">
         <v>161.5</v>
@@ -22070,7 +22049,7 @@
         <v>182</v>
       </c>
       <c r="O432" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.35">
@@ -22078,7 +22057,7 @@
         <v>3826</v>
       </c>
       <c r="B433" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C433" t="s">
         <v>20</v>
@@ -22117,7 +22096,7 @@
         <v>182</v>
       </c>
       <c r="O433" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.35">
@@ -22125,7 +22104,7 @@
         <v>3845</v>
       </c>
       <c r="B434" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C434" t="s">
         <v>15</v>
@@ -22164,7 +22143,7 @@
         <v>182</v>
       </c>
       <c r="O434" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.35">
@@ -22172,7 +22151,7 @@
         <v>4974</v>
       </c>
       <c r="B435" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C435" t="s">
         <v>11</v>
@@ -22211,7 +22190,7 @@
         <v>194</v>
       </c>
       <c r="O435" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.35">
@@ -22219,7 +22198,7 @@
         <v>4974</v>
       </c>
       <c r="B436" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C436" t="s">
         <v>15</v>
@@ -22258,7 +22237,7 @@
         <v>194</v>
       </c>
       <c r="O436" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.35">
@@ -22266,7 +22245,7 @@
         <v>4974</v>
       </c>
       <c r="B437" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C437" t="s">
         <v>20</v>
@@ -22305,7 +22284,7 @@
         <v>194</v>
       </c>
       <c r="O437" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.35">
@@ -22313,7 +22292,7 @@
         <v>5008</v>
       </c>
       <c r="B438" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C438" t="s">
         <v>11</v>
@@ -22352,7 +22331,7 @@
         <v>187</v>
       </c>
       <c r="O438" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.35">
@@ -22360,13 +22339,13 @@
         <v>5008</v>
       </c>
       <c r="B439" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C439" t="s">
         <v>13</v>
       </c>
       <c r="D439" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E439">
         <v>189</v>
@@ -22399,7 +22378,7 @@
         <v>187</v>
       </c>
       <c r="O439" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.35">
@@ -22407,7 +22386,7 @@
         <v>5008</v>
       </c>
       <c r="B440" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C440" t="s">
         <v>107</v>
@@ -22446,7 +22425,7 @@
         <v>187</v>
       </c>
       <c r="O440" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.35">
@@ -22454,13 +22433,13 @@
         <v>5008</v>
       </c>
       <c r="B441" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C441" t="s">
         <v>14</v>
       </c>
       <c r="D441" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E441">
         <v>190.5</v>
@@ -22493,7 +22472,7 @@
         <v>187</v>
       </c>
       <c r="O441" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.35">
@@ -22501,7 +22480,7 @@
         <v>5008</v>
       </c>
       <c r="B442" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C442" t="s">
         <v>18</v>
@@ -22540,7 +22519,7 @@
         <v>187</v>
       </c>
       <c r="O442" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.35">
@@ -22548,7 +22527,7 @@
         <v>5010</v>
       </c>
       <c r="B443" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C443" t="s">
         <v>15</v>
@@ -22587,7 +22566,7 @@
         <v>187</v>
       </c>
       <c r="O443" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.35">
@@ -22595,13 +22574,13 @@
         <v>5901</v>
       </c>
       <c r="B444" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C444" t="s">
         <v>14</v>
       </c>
       <c r="D444" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E444">
         <v>182.5</v>
@@ -22634,7 +22613,7 @@
         <v>195</v>
       </c>
       <c r="O444" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.35">
@@ -22642,7 +22621,7 @@
         <v>5901</v>
       </c>
       <c r="B445" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C445" t="s">
         <v>15</v>
@@ -22681,7 +22660,7 @@
         <v>195</v>
       </c>
       <c r="O445" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.35">
@@ -22689,7 +22668,7 @@
         <v>5901</v>
       </c>
       <c r="B446" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C446" t="s">
         <v>16</v>
@@ -22728,7 +22707,7 @@
         <v>195</v>
       </c>
       <c r="O446" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.35">
@@ -22736,7 +22715,7 @@
         <v>5901</v>
       </c>
       <c r="B447" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C447" t="s">
         <v>20</v>
@@ -22775,7 +22754,7 @@
         <v>195</v>
       </c>
       <c r="O447" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.35">
@@ -22883,7 +22862,7 @@
         <v>13</v>
       </c>
       <c r="D450" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E450">
         <v>196</v>
@@ -22930,7 +22909,7 @@
         <v>14</v>
       </c>
       <c r="D451" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E451">
         <v>198.25</v>
@@ -23071,7 +23050,7 @@
         <v>17</v>
       </c>
       <c r="D454" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E454">
         <v>193.5</v>
@@ -23488,7 +23467,7 @@
         <v>4</v>
       </c>
       <c r="B463" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C463" t="s">
         <v>37</v>
@@ -23535,13 +23514,13 @@
         <v>4</v>
       </c>
       <c r="B464" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C464" t="s">
         <v>13</v>
       </c>
       <c r="D464" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E464">
         <v>193</v>
@@ -23582,7 +23561,7 @@
         <v>4</v>
       </c>
       <c r="B465" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C465" t="s">
         <v>15</v>
@@ -23629,13 +23608,13 @@
         <v>4</v>
       </c>
       <c r="B466" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C466" t="s">
         <v>17</v>
       </c>
       <c r="D466" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E466">
         <v>191</v>
@@ -23676,7 +23655,7 @@
         <v>4</v>
       </c>
       <c r="B467" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C467" t="s">
         <v>18</v>
@@ -23723,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="B468" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C468" t="s">
         <v>40</v>
@@ -23770,7 +23749,7 @@
         <v>4</v>
       </c>
       <c r="B469" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C469" t="s">
         <v>42</v>
@@ -23817,7 +23796,7 @@
         <v>4</v>
       </c>
       <c r="B470" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C470" t="s">
         <v>44</v>
@@ -23870,7 +23849,7 @@
         <v>14</v>
       </c>
       <c r="D471" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E471">
         <v>154.5</v>
@@ -23917,7 +23896,7 @@
         <v>14</v>
       </c>
       <c r="D472" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E472">
         <v>183.5</v>
@@ -23958,13 +23937,13 @@
         <v>1210</v>
       </c>
       <c r="B473" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C473" t="s">
         <v>14</v>
       </c>
       <c r="D473" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E473">
         <v>169.5</v>
@@ -24005,7 +23984,7 @@
         <v>1210</v>
       </c>
       <c r="B474" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C474" t="s">
         <v>15</v>
@@ -24052,7 +24031,7 @@
         <v>1211</v>
       </c>
       <c r="B475" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C475" t="s">
         <v>147</v>
@@ -24099,7 +24078,7 @@
         <v>1211</v>
       </c>
       <c r="B476" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C476" t="s">
         <v>54</v>
@@ -24146,13 +24125,13 @@
         <v>1211</v>
       </c>
       <c r="B477" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C477" t="s">
         <v>14</v>
       </c>
       <c r="D477" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E477">
         <v>182.5</v>
@@ -24193,7 +24172,7 @@
         <v>1211</v>
       </c>
       <c r="B478" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C478" t="s">
         <v>15</v>
@@ -24240,13 +24219,13 @@
         <v>1219</v>
       </c>
       <c r="B479" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C479" t="s">
         <v>14</v>
       </c>
       <c r="D479" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E479">
         <v>190</v>
@@ -24287,13 +24266,13 @@
         <v>1304</v>
       </c>
       <c r="B480" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C480" t="s">
         <v>14</v>
       </c>
       <c r="D480" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E480">
         <v>183</v>
@@ -24334,13 +24313,13 @@
         <v>1315</v>
       </c>
       <c r="B481" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C481" t="s">
         <v>14</v>
       </c>
       <c r="D481" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E481">
         <v>194</v>
@@ -24381,7 +24360,7 @@
         <v>1315</v>
       </c>
       <c r="B482" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C482" t="s">
         <v>15</v>
@@ -24428,7 +24407,7 @@
         <v>1315</v>
       </c>
       <c r="B483" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C483" t="s">
         <v>57</v>
@@ -24475,7 +24454,7 @@
         <v>1321</v>
       </c>
       <c r="B484" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C484" t="s">
         <v>61</v>
@@ -24522,7 +24501,7 @@
         <v>1325</v>
       </c>
       <c r="B485" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C485" t="s">
         <v>57</v>
@@ -24561,7 +24540,7 @@
         <v>170</v>
       </c>
       <c r="O485" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="486" spans="1:15" x14ac:dyDescent="0.35">
@@ -24569,13 +24548,13 @@
         <v>1399</v>
       </c>
       <c r="B486" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C486" t="s">
         <v>14</v>
       </c>
       <c r="D486" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E486">
         <v>181</v>
@@ -24608,7 +24587,7 @@
         <v>169</v>
       </c>
       <c r="O486" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.35">
@@ -24616,13 +24595,13 @@
         <v>1419</v>
       </c>
       <c r="B487" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C487" t="s">
         <v>14</v>
       </c>
       <c r="D487" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E487">
         <v>182</v>
@@ -24663,7 +24642,7 @@
         <v>1516</v>
       </c>
       <c r="B488" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C488" t="s">
         <v>15</v>
@@ -24710,7 +24689,7 @@
         <v>2005</v>
       </c>
       <c r="B489" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C489" t="s">
         <v>11</v>
@@ -24757,7 +24736,7 @@
         <v>2005</v>
       </c>
       <c r="B490" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C490" t="s">
         <v>16</v>
@@ -24804,7 +24783,7 @@
         <v>2005</v>
       </c>
       <c r="B491" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C491" t="s">
         <v>39</v>
@@ -24851,7 +24830,7 @@
         <v>2005</v>
       </c>
       <c r="B492" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C492" t="s">
         <v>67</v>
@@ -24898,7 +24877,7 @@
         <v>2005</v>
       </c>
       <c r="B493" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C493" t="s">
         <v>57</v>
@@ -24945,7 +24924,7 @@
         <v>2005</v>
       </c>
       <c r="B494" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C494" t="s">
         <v>20</v>
@@ -24992,7 +24971,7 @@
         <v>2005</v>
       </c>
       <c r="B495" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C495" t="s">
         <v>42</v>
@@ -25039,13 +25018,13 @@
         <v>2006</v>
       </c>
       <c r="B496" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C496" t="s">
         <v>13</v>
       </c>
       <c r="D496" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E496">
         <v>193.75</v>
@@ -25086,7 +25065,7 @@
         <v>2006</v>
       </c>
       <c r="B497" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C497" t="s">
         <v>15</v>
@@ -25133,7 +25112,7 @@
         <v>2006</v>
       </c>
       <c r="B498" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C498" t="s">
         <v>16</v>
@@ -25180,13 +25159,13 @@
         <v>2006</v>
       </c>
       <c r="B499" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C499" t="s">
         <v>17</v>
       </c>
       <c r="D499" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E499">
         <v>191</v>
@@ -25227,7 +25206,7 @@
         <v>2006</v>
       </c>
       <c r="B500" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C500" t="s">
         <v>141</v>
@@ -25274,7 +25253,7 @@
         <v>2006</v>
       </c>
       <c r="B501" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C501" t="s">
         <v>72</v>
@@ -25321,7 +25300,7 @@
         <v>2006</v>
       </c>
       <c r="B502" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C502" t="s">
         <v>18</v>
@@ -25368,7 +25347,7 @@
         <v>2006</v>
       </c>
       <c r="B503" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C503" t="s">
         <v>20</v>
@@ -25415,7 +25394,7 @@
         <v>2006</v>
       </c>
       <c r="B504" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C504" t="s">
         <v>40</v>
@@ -25462,13 +25441,13 @@
         <v>2006</v>
       </c>
       <c r="B505" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C505" t="s">
         <v>143</v>
       </c>
       <c r="D505" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E505">
         <v>189.5</v>
@@ -25509,13 +25488,13 @@
         <v>2007</v>
       </c>
       <c r="B506" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C506" t="s">
         <v>14</v>
       </c>
       <c r="D506" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E506">
         <v>190.5</v>
@@ -25556,7 +25535,7 @@
         <v>2007</v>
       </c>
       <c r="B507" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C507" t="s">
         <v>15</v>
@@ -25603,13 +25582,13 @@
         <v>2007</v>
       </c>
       <c r="B508" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C508" t="s">
         <v>17</v>
       </c>
       <c r="D508" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E508">
         <v>189</v>
@@ -25650,7 +25629,7 @@
         <v>2007</v>
       </c>
       <c r="B509" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C509" t="s">
         <v>20</v>
@@ -25697,7 +25676,7 @@
         <v>2007</v>
       </c>
       <c r="B510" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C510" t="s">
         <v>40</v>
@@ -25744,13 +25723,13 @@
         <v>2025</v>
       </c>
       <c r="B511" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C511" t="s">
         <v>14</v>
       </c>
       <c r="D511" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E511">
         <v>182</v>
@@ -25783,7 +25762,7 @@
         <v>175</v>
       </c>
       <c r="O511" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="512" spans="1:15" x14ac:dyDescent="0.35">
@@ -25791,7 +25770,7 @@
         <v>2025</v>
       </c>
       <c r="B512" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C512" t="s">
         <v>15</v>
@@ -25830,7 +25809,7 @@
         <v>175</v>
       </c>
       <c r="O512" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="513" spans="1:15" x14ac:dyDescent="0.35">
@@ -25838,7 +25817,7 @@
         <v>2025</v>
       </c>
       <c r="B513" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C513" t="s">
         <v>16</v>
@@ -25877,7 +25856,7 @@
         <v>175</v>
       </c>
       <c r="O513" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="514" spans="1:15" x14ac:dyDescent="0.35">
@@ -25885,13 +25864,13 @@
         <v>2357</v>
       </c>
       <c r="B514" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C514" t="s">
         <v>14</v>
       </c>
       <c r="D514" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E514">
         <v>113</v>
@@ -25924,7 +25903,7 @@
         <v>175</v>
       </c>
       <c r="O514" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="515" spans="1:15" x14ac:dyDescent="0.35">
@@ -25932,7 +25911,7 @@
         <v>2369</v>
       </c>
       <c r="B515" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C515" t="s">
         <v>11</v>
@@ -25979,7 +25958,7 @@
         <v>2369</v>
       </c>
       <c r="B516" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C516" t="s">
         <v>15</v>
@@ -26026,7 +26005,7 @@
         <v>2377</v>
       </c>
       <c r="B517" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C517" t="s">
         <v>11</v>
@@ -26073,7 +26052,7 @@
         <v>2377</v>
       </c>
       <c r="B518" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C518" t="s">
         <v>20</v>
@@ -26120,13 +26099,13 @@
         <v>2603</v>
       </c>
       <c r="B519" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C519" t="s">
         <v>14</v>
       </c>
       <c r="D519" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E519">
         <v>167</v>
@@ -26167,7 +26146,7 @@
         <v>2603</v>
       </c>
       <c r="B520" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C520" t="s">
         <v>16</v>
@@ -26214,13 +26193,13 @@
         <v>2609</v>
       </c>
       <c r="B521" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C521" t="s">
         <v>14</v>
       </c>
       <c r="D521" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E521">
         <v>109.5</v>
@@ -26253,7 +26232,7 @@
         <v>192</v>
       </c>
       <c r="O521" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="522" spans="1:15" x14ac:dyDescent="0.35">
@@ -26261,7 +26240,7 @@
         <v>2611</v>
       </c>
       <c r="B522" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C522" t="s">
         <v>52</v>
@@ -26300,7 +26279,7 @@
         <v>192</v>
       </c>
       <c r="O522" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="523" spans="1:15" x14ac:dyDescent="0.35">
@@ -26308,13 +26287,13 @@
         <v>2611</v>
       </c>
       <c r="B523" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C523" t="s">
         <v>14</v>
       </c>
       <c r="D523" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E523">
         <v>116.5</v>
@@ -26347,7 +26326,7 @@
         <v>192</v>
       </c>
       <c r="O523" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="524" spans="1:15" x14ac:dyDescent="0.35">
@@ -26355,7 +26334,7 @@
         <v>2615</v>
       </c>
       <c r="B524" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C524" t="s">
         <v>11</v>
@@ -26402,13 +26381,13 @@
         <v>2615</v>
       </c>
       <c r="B525" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C525" t="s">
         <v>14</v>
       </c>
       <c r="D525" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E525">
         <v>185</v>
@@ -26449,7 +26428,7 @@
         <v>2615</v>
       </c>
       <c r="B526" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C526" t="s">
         <v>16</v>
@@ -26496,7 +26475,7 @@
         <v>2615</v>
       </c>
       <c r="B527" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C527" t="s">
         <v>20</v>
@@ -26543,7 +26522,7 @@
         <v>2615</v>
       </c>
       <c r="B528" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C528" t="s">
         <v>80</v>
@@ -26590,13 +26569,13 @@
         <v>2620</v>
       </c>
       <c r="B529" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C529" t="s">
         <v>14</v>
       </c>
       <c r="D529" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E529">
         <v>132.5</v>
@@ -26629,7 +26608,7 @@
         <v>192</v>
       </c>
       <c r="O529" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="530" spans="1:15" x14ac:dyDescent="0.35">
@@ -26637,7 +26616,7 @@
         <v>2622</v>
       </c>
       <c r="B530" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C530" t="s">
         <v>52</v>
@@ -26676,7 +26655,7 @@
         <v>197</v>
       </c>
       <c r="O530" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="531" spans="1:15" x14ac:dyDescent="0.35">
@@ -26684,13 +26663,13 @@
         <v>2622</v>
       </c>
       <c r="B531" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C531" t="s">
         <v>14</v>
       </c>
       <c r="D531" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E531">
         <v>150.5</v>
@@ -26723,7 +26702,7 @@
         <v>197</v>
       </c>
       <c r="O531" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="532" spans="1:15" x14ac:dyDescent="0.35">
@@ -26731,7 +26710,7 @@
         <v>2622</v>
       </c>
       <c r="B532" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C532" t="s">
         <v>15</v>
@@ -26770,7 +26749,7 @@
         <v>197</v>
       </c>
       <c r="O532" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="533" spans="1:15" x14ac:dyDescent="0.35">
@@ -26778,7 +26757,7 @@
         <v>2622</v>
       </c>
       <c r="B533" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C533" t="s">
         <v>57</v>
@@ -26817,7 +26796,7 @@
         <v>197</v>
       </c>
       <c r="O533" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="534" spans="1:15" x14ac:dyDescent="0.35">
@@ -26825,7 +26804,7 @@
         <v>2623</v>
       </c>
       <c r="B534" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C534" t="s">
         <v>52</v>
@@ -26864,7 +26843,7 @@
         <v>178</v>
       </c>
       <c r="O534" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="535" spans="1:15" x14ac:dyDescent="0.35">
@@ -26872,7 +26851,7 @@
         <v>2624</v>
       </c>
       <c r="B535" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C535" t="s">
         <v>52</v>
@@ -26911,7 +26890,7 @@
         <v>192</v>
       </c>
       <c r="O535" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="536" spans="1:15" x14ac:dyDescent="0.35">
@@ -26919,13 +26898,13 @@
         <v>2632</v>
       </c>
       <c r="B536" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C536" t="s">
         <v>14</v>
       </c>
       <c r="D536" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E536">
         <v>97</v>
@@ -26958,7 +26937,7 @@
         <v>192</v>
       </c>
       <c r="O536" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="537" spans="1:15" x14ac:dyDescent="0.35">
@@ -26966,7 +26945,7 @@
         <v>2702</v>
       </c>
       <c r="B537" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C537" t="s">
         <v>54</v>
@@ -27013,7 +26992,7 @@
         <v>2702</v>
       </c>
       <c r="B538" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C538" t="s">
         <v>16</v>
@@ -27060,13 +27039,13 @@
         <v>2704</v>
       </c>
       <c r="B539" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C539" t="s">
         <v>14</v>
       </c>
       <c r="D539" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E539">
         <v>153.5</v>
@@ -27099,7 +27078,7 @@
         <v>175</v>
       </c>
       <c r="O539" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="540" spans="1:15" x14ac:dyDescent="0.35">
@@ -27107,7 +27086,7 @@
         <v>2704</v>
       </c>
       <c r="B540" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C540" t="s">
         <v>57</v>
@@ -27146,7 +27125,7 @@
         <v>175</v>
       </c>
       <c r="O540" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="541" spans="1:15" x14ac:dyDescent="0.35">
@@ -27154,13 +27133,13 @@
         <v>2711</v>
       </c>
       <c r="B541" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C541" t="s">
         <v>14</v>
       </c>
       <c r="D541" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E541">
         <v>177.5</v>
@@ -27193,7 +27172,7 @@
         <v>179</v>
       </c>
       <c r="O541" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="542" spans="1:15" x14ac:dyDescent="0.35">
@@ -27201,13 +27180,13 @@
         <v>2712</v>
       </c>
       <c r="B542" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C542" t="s">
         <v>14</v>
       </c>
       <c r="D542" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E542">
         <v>188.5</v>
@@ -27240,7 +27219,7 @@
         <v>175</v>
       </c>
       <c r="O542" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="543" spans="1:15" x14ac:dyDescent="0.35">
@@ -27248,7 +27227,7 @@
         <v>2712</v>
       </c>
       <c r="B543" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C543" t="s">
         <v>15</v>
@@ -27287,7 +27266,7 @@
         <v>175</v>
       </c>
       <c r="O543" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="544" spans="1:15" x14ac:dyDescent="0.35">
@@ -27295,7 +27274,7 @@
         <v>2712</v>
       </c>
       <c r="B544" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C544" t="s">
         <v>16</v>
@@ -27334,7 +27313,7 @@
         <v>175</v>
       </c>
       <c r="O544" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="545" spans="1:15" x14ac:dyDescent="0.35">
@@ -27342,7 +27321,7 @@
         <v>2712</v>
       </c>
       <c r="B545" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C545" t="s">
         <v>150</v>
@@ -27381,7 +27360,7 @@
         <v>175</v>
       </c>
       <c r="O545" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="546" spans="1:15" x14ac:dyDescent="0.35">
@@ -27389,7 +27368,7 @@
         <v>2712</v>
       </c>
       <c r="B546" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C546" t="s">
         <v>20</v>
@@ -27428,7 +27407,7 @@
         <v>175</v>
       </c>
       <c r="O546" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="547" spans="1:15" x14ac:dyDescent="0.35">
@@ -27436,13 +27415,13 @@
         <v>2718</v>
       </c>
       <c r="B547" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C547" t="s">
         <v>14</v>
       </c>
       <c r="D547" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E547">
         <v>184</v>
@@ -27475,7 +27454,7 @@
         <v>175</v>
       </c>
       <c r="O547" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="548" spans="1:15" x14ac:dyDescent="0.35">
@@ -27483,7 +27462,7 @@
         <v>2718</v>
       </c>
       <c r="B548" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C548" t="s">
         <v>15</v>
@@ -27522,7 +27501,7 @@
         <v>175</v>
       </c>
       <c r="O548" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="549" spans="1:15" x14ac:dyDescent="0.35">
@@ -27530,7 +27509,7 @@
         <v>2718</v>
       </c>
       <c r="B549" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C549" t="s">
         <v>57</v>
@@ -27569,7 +27548,7 @@
         <v>175</v>
       </c>
       <c r="O549" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="550" spans="1:15" x14ac:dyDescent="0.35">
@@ -27577,13 +27556,13 @@
         <v>2719</v>
       </c>
       <c r="B550" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C550" t="s">
         <v>14</v>
       </c>
       <c r="D550" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E550">
         <v>171</v>
@@ -27616,7 +27595,7 @@
         <v>175</v>
       </c>
       <c r="O550" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="551" spans="1:15" x14ac:dyDescent="0.35">
@@ -27624,7 +27603,7 @@
         <v>2719</v>
       </c>
       <c r="B551" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C551" t="s">
         <v>16</v>
@@ -27663,7 +27642,7 @@
         <v>175</v>
       </c>
       <c r="O551" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="552" spans="1:15" x14ac:dyDescent="0.35">
@@ -27671,13 +27650,13 @@
         <v>2729</v>
       </c>
       <c r="B552" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C552" t="s">
         <v>14</v>
       </c>
       <c r="D552" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E552">
         <v>115.5</v>
@@ -27710,7 +27689,7 @@
         <v>175</v>
       </c>
       <c r="O552" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="553" spans="1:15" x14ac:dyDescent="0.35">
@@ -27718,7 +27697,7 @@
         <v>2750</v>
       </c>
       <c r="B553" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C553" t="s">
         <v>15</v>
@@ -27757,7 +27736,7 @@
         <v>175</v>
       </c>
       <c r="O553" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="554" spans="1:15" x14ac:dyDescent="0.35">
@@ -27765,7 +27744,7 @@
         <v>3011</v>
       </c>
       <c r="B554" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C554" t="s">
         <v>54</v>
@@ -27804,7 +27783,7 @@
         <v>200</v>
       </c>
       <c r="O554" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="555" spans="1:15" x14ac:dyDescent="0.35">
@@ -27812,7 +27791,7 @@
         <v>3011</v>
       </c>
       <c r="B555" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C555" t="s">
         <v>15</v>
@@ -27851,7 +27830,7 @@
         <v>200</v>
       </c>
       <c r="O555" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="556" spans="1:15" x14ac:dyDescent="0.35">
@@ -27859,7 +27838,7 @@
         <v>3011</v>
       </c>
       <c r="B556" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C556" t="s">
         <v>93</v>
@@ -27898,7 +27877,7 @@
         <v>200</v>
       </c>
       <c r="O556" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="557" spans="1:15" x14ac:dyDescent="0.35">
@@ -27906,13 +27885,13 @@
         <v>3465</v>
       </c>
       <c r="B557" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C557" t="s">
         <v>14</v>
       </c>
       <c r="D557" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E557">
         <v>167</v>
@@ -27945,7 +27924,7 @@
         <v>200</v>
       </c>
       <c r="O557" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="558" spans="1:15" x14ac:dyDescent="0.35">
@@ -27953,7 +27932,7 @@
         <v>3465</v>
       </c>
       <c r="B558" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C558" t="s">
         <v>20</v>
@@ -27992,7 +27971,7 @@
         <v>200</v>
       </c>
       <c r="O558" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="559" spans="1:15" x14ac:dyDescent="0.35">
@@ -28000,13 +27979,13 @@
         <v>3819</v>
       </c>
       <c r="B559" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C559" t="s">
         <v>14</v>
       </c>
       <c r="D559" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E559">
         <v>162</v>
@@ -28039,7 +28018,7 @@
         <v>200</v>
       </c>
       <c r="O559" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="560" spans="1:15" x14ac:dyDescent="0.35">
@@ -28047,7 +28026,7 @@
         <v>4974</v>
       </c>
       <c r="B560" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C560" t="s">
         <v>11</v>
@@ -28086,7 +28065,7 @@
         <v>201</v>
       </c>
       <c r="O560" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.35">
@@ -28094,13 +28073,13 @@
         <v>4974</v>
       </c>
       <c r="B561" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C561" t="s">
         <v>14</v>
       </c>
       <c r="D561" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E561">
         <v>179</v>
@@ -28133,7 +28112,7 @@
         <v>201</v>
       </c>
       <c r="O561" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="562" spans="1:15" x14ac:dyDescent="0.35">
@@ -28141,7 +28120,7 @@
         <v>5008</v>
       </c>
       <c r="B562" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C562" t="s">
         <v>11</v>
@@ -28180,7 +28159,7 @@
         <v>187</v>
       </c>
       <c r="O562" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="563" spans="1:15" x14ac:dyDescent="0.35">
@@ -28188,13 +28167,13 @@
         <v>5008</v>
       </c>
       <c r="B563" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C563" t="s">
         <v>13</v>
       </c>
       <c r="D563" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E563">
         <v>190</v>
@@ -28227,7 +28206,7 @@
         <v>187</v>
       </c>
       <c r="O563" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="564" spans="1:15" x14ac:dyDescent="0.35">
@@ -28235,7 +28214,7 @@
         <v>5008</v>
       </c>
       <c r="B564" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C564" t="s">
         <v>107</v>
@@ -28274,7 +28253,7 @@
         <v>187</v>
       </c>
       <c r="O564" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="565" spans="1:15" x14ac:dyDescent="0.35">
@@ -28282,13 +28261,13 @@
         <v>5008</v>
       </c>
       <c r="B565" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C565" t="s">
         <v>14</v>
       </c>
       <c r="D565" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E565">
         <v>190</v>
@@ -28321,7 +28300,7 @@
         <v>187</v>
       </c>
       <c r="O565" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.35">
@@ -28329,13 +28308,13 @@
         <v>5008</v>
       </c>
       <c r="B566" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C566" t="s">
         <v>108</v>
       </c>
       <c r="D566" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E566">
         <v>184.5</v>
@@ -28368,7 +28347,7 @@
         <v>187</v>
       </c>
       <c r="O566" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="567" spans="1:15" x14ac:dyDescent="0.35">
@@ -28376,7 +28355,7 @@
         <v>5008</v>
       </c>
       <c r="B567" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C567" t="s">
         <v>18</v>
@@ -28415,7 +28394,7 @@
         <v>187</v>
       </c>
       <c r="O567" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="568" spans="1:15" x14ac:dyDescent="0.35">
@@ -28423,13 +28402,13 @@
         <v>5010</v>
       </c>
       <c r="B568" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C568" t="s">
         <v>14</v>
       </c>
       <c r="D568" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E568">
         <v>169</v>
@@ -28462,7 +28441,7 @@
         <v>187</v>
       </c>
       <c r="O568" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="569" spans="1:15" x14ac:dyDescent="0.35">
@@ -28470,13 +28449,13 @@
         <v>5901</v>
       </c>
       <c r="B569" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C569" t="s">
         <v>14</v>
       </c>
       <c r="D569" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E569">
         <v>181</v>
@@ -28509,7 +28488,7 @@
         <v>195</v>
       </c>
       <c r="O569" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="570" spans="1:15" x14ac:dyDescent="0.35">
@@ -28517,7 +28496,7 @@
         <v>5901</v>
       </c>
       <c r="B570" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C570" t="s">
         <v>16</v>
@@ -28556,7 +28535,7 @@
         <v>195</v>
       </c>
       <c r="O570" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="571" spans="1:15" x14ac:dyDescent="0.35">
@@ -28570,7 +28549,7 @@
         <v>10</v>
       </c>
       <c r="D571" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E571">
         <v>195</v>
@@ -28664,7 +28643,7 @@
         <v>13</v>
       </c>
       <c r="D573" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E573">
         <v>198</v>
@@ -28711,7 +28690,7 @@
         <v>14</v>
       </c>
       <c r="D574" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E574">
         <v>199</v>
@@ -28852,7 +28831,7 @@
         <v>17</v>
       </c>
       <c r="D577" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E577">
         <v>196.57499999999999</v>
@@ -28993,7 +28972,7 @@
         <v>115</v>
       </c>
       <c r="D580" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E580">
         <v>191.35499999999999</v>
@@ -29087,7 +29066,7 @@
         <v>136</v>
       </c>
       <c r="D582" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E582">
         <v>190.5</v>
@@ -29175,13 +29154,13 @@
         <v>4</v>
       </c>
       <c r="B584" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C584" t="s">
         <v>13</v>
       </c>
       <c r="D584" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E584">
         <v>196.5</v>
@@ -29222,7 +29201,7 @@
         <v>4</v>
       </c>
       <c r="B585" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C585" t="s">
         <v>39</v>
@@ -29269,13 +29248,13 @@
         <v>4</v>
       </c>
       <c r="B586" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C586" t="s">
         <v>40</v>
       </c>
       <c r="D586" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E586">
         <v>193</v>
@@ -29316,13 +29295,13 @@
         <v>5</v>
       </c>
       <c r="B587" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C587" t="s">
         <v>152</v>
       </c>
       <c r="D587" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E587">
         <v>176.95500000000001</v>
@@ -29355,7 +29334,7 @@
         <v>196</v>
       </c>
       <c r="O587" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="588" spans="1:15" x14ac:dyDescent="0.35">
@@ -29363,7 +29342,7 @@
         <v>5</v>
       </c>
       <c r="B588" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C588" t="s">
         <v>29</v>
@@ -29402,7 +29381,7 @@
         <v>196</v>
       </c>
       <c r="O588" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="589" spans="1:15" x14ac:dyDescent="0.35">
@@ -29410,13 +29389,13 @@
         <v>5</v>
       </c>
       <c r="B589" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C589" t="s">
         <v>14</v>
       </c>
       <c r="D589" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E589">
         <v>184.185</v>
@@ -29449,7 +29428,7 @@
         <v>196</v>
       </c>
       <c r="O589" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="590" spans="1:15" x14ac:dyDescent="0.35">
@@ -29457,7 +29436,7 @@
         <v>5</v>
       </c>
       <c r="B590" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C590" t="s">
         <v>57</v>
@@ -29496,7 +29475,7 @@
         <v>196</v>
       </c>
       <c r="O590" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="591" spans="1:15" x14ac:dyDescent="0.35">
@@ -29557,7 +29536,7 @@
         <v>14</v>
       </c>
       <c r="D592" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E592">
         <v>176.625</v>
@@ -29604,7 +29583,7 @@
         <v>14</v>
       </c>
       <c r="D593" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E593">
         <v>191.01</v>
@@ -29651,7 +29630,7 @@
         <v>14</v>
       </c>
       <c r="D594" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E594">
         <v>185.20500000000001</v>
@@ -29698,7 +29677,7 @@
         <v>14</v>
       </c>
       <c r="D595" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E595">
         <v>184.82</v>
@@ -29739,13 +29718,13 @@
         <v>1210</v>
       </c>
       <c r="B596" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C596" t="s">
         <v>14</v>
       </c>
       <c r="D596" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E596">
         <v>187.405</v>
@@ -29786,7 +29765,7 @@
         <v>1211</v>
       </c>
       <c r="B597" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C597" t="s">
         <v>147</v>
@@ -29833,13 +29812,13 @@
         <v>1211</v>
       </c>
       <c r="B598" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C598" t="s">
         <v>14</v>
       </c>
       <c r="D598" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E598">
         <v>192</v>
@@ -29880,7 +29859,7 @@
         <v>1211</v>
       </c>
       <c r="B599" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C599" t="s">
         <v>15</v>
@@ -29927,7 +29906,7 @@
         <v>1211</v>
       </c>
       <c r="B600" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C600" t="s">
         <v>57</v>
@@ -29974,7 +29953,7 @@
         <v>1219</v>
       </c>
       <c r="B601" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C601" t="s">
         <v>15</v>
@@ -30021,7 +30000,7 @@
         <v>1219</v>
       </c>
       <c r="B602" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C602" t="s">
         <v>16</v>
@@ -30068,7 +30047,7 @@
         <v>1219</v>
       </c>
       <c r="B603" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C603" t="s">
         <v>57</v>
@@ -30115,13 +30094,13 @@
         <v>1231</v>
       </c>
       <c r="B604" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C604" t="s">
         <v>153</v>
       </c>
       <c r="D604" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E604">
         <v>178.26</v>
@@ -30154,7 +30133,7 @@
         <v>169</v>
       </c>
       <c r="O604" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="605" spans="1:15" x14ac:dyDescent="0.35">
@@ -30162,13 +30141,13 @@
         <v>1231</v>
       </c>
       <c r="B605" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C605" t="s">
         <v>14</v>
       </c>
       <c r="D605" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E605">
         <v>182</v>
@@ -30201,7 +30180,7 @@
         <v>169</v>
       </c>
       <c r="O605" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="606" spans="1:15" x14ac:dyDescent="0.35">
@@ -30209,13 +30188,13 @@
         <v>1233</v>
       </c>
       <c r="B606" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C606" t="s">
         <v>14</v>
       </c>
       <c r="D606" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E606">
         <v>176.48500000000001</v>
@@ -30248,7 +30227,7 @@
         <v>170</v>
       </c>
       <c r="O606" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="607" spans="1:15" x14ac:dyDescent="0.35">
@@ -30256,13 +30235,13 @@
         <v>1307</v>
       </c>
       <c r="B607" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C607" t="s">
         <v>14</v>
       </c>
       <c r="D607" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E607">
         <v>176.155</v>
@@ -30295,7 +30274,7 @@
         <v>169</v>
       </c>
       <c r="O607" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="608" spans="1:15" x14ac:dyDescent="0.35">
@@ -30303,7 +30282,7 @@
         <v>1315</v>
       </c>
       <c r="B608" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C608" t="s">
         <v>11</v>
@@ -30350,13 +30329,13 @@
         <v>1315</v>
       </c>
       <c r="B609" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C609" t="s">
         <v>14</v>
       </c>
       <c r="D609" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E609">
         <v>197</v>
@@ -30397,7 +30376,7 @@
         <v>1315</v>
       </c>
       <c r="B610" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C610" t="s">
         <v>16</v>
@@ -30444,7 +30423,7 @@
         <v>1315</v>
       </c>
       <c r="B611" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C611" t="s">
         <v>57</v>
@@ -30491,7 +30470,7 @@
         <v>1315</v>
       </c>
       <c r="B612" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C612" t="s">
         <v>20</v>
@@ -30544,7 +30523,7 @@
         <v>14</v>
       </c>
       <c r="D613" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E613">
         <v>191.21</v>
@@ -30585,13 +30564,13 @@
         <v>1321</v>
       </c>
       <c r="B614" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C614" t="s">
         <v>115</v>
       </c>
       <c r="D614" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E614">
         <v>184.49</v>
@@ -30632,13 +30611,13 @@
         <v>1399</v>
       </c>
       <c r="B615" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C615" t="s">
         <v>153</v>
       </c>
       <c r="D615" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E615">
         <v>191.36</v>
@@ -30671,7 +30650,7 @@
         <v>169</v>
       </c>
       <c r="O615" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="616" spans="1:15" x14ac:dyDescent="0.35">
@@ -30679,13 +30658,13 @@
         <v>1422</v>
       </c>
       <c r="B616" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C616" t="s">
         <v>14</v>
       </c>
       <c r="D616" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E616">
         <v>185.51499999999999</v>
@@ -30718,7 +30697,7 @@
         <v>169</v>
       </c>
       <c r="O616" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="617" spans="1:15" x14ac:dyDescent="0.35">
@@ -30726,13 +30705,13 @@
         <v>1432</v>
       </c>
       <c r="B617" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C617" t="s">
         <v>14</v>
       </c>
       <c r="D617" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E617">
         <v>186.5</v>
@@ -30765,7 +30744,7 @@
         <v>170</v>
       </c>
       <c r="O617" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="618" spans="1:15" x14ac:dyDescent="0.35">
@@ -30773,7 +30752,7 @@
         <v>1452</v>
       </c>
       <c r="B618" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C618" t="s">
         <v>15</v>
@@ -30812,7 +30791,7 @@
         <v>169</v>
       </c>
       <c r="O618" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="619" spans="1:15" x14ac:dyDescent="0.35">
@@ -30820,13 +30799,13 @@
         <v>1516</v>
       </c>
       <c r="B619" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C619" t="s">
         <v>14</v>
       </c>
       <c r="D619" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E619">
         <v>187.285</v>
@@ -30867,7 +30846,7 @@
         <v>1516</v>
       </c>
       <c r="B620" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C620" t="s">
         <v>15</v>
@@ -30914,7 +30893,7 @@
         <v>1516</v>
       </c>
       <c r="B621" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C621" t="s">
         <v>20</v>
@@ -30961,7 +30940,7 @@
         <v>2005</v>
       </c>
       <c r="B622" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C622" t="s">
         <v>11</v>
@@ -31008,13 +30987,13 @@
         <v>2005</v>
       </c>
       <c r="B623" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C623" t="s">
         <v>67</v>
       </c>
       <c r="D623" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E623">
         <v>189.38499999999999</v>
@@ -31055,7 +31034,7 @@
         <v>2005</v>
       </c>
       <c r="B624" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C624" t="s">
         <v>57</v>
@@ -31102,7 +31081,7 @@
         <v>2005</v>
       </c>
       <c r="B625" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C625" t="s">
         <v>20</v>
@@ -31149,7 +31128,7 @@
         <v>2005</v>
       </c>
       <c r="B626" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C626" t="s">
         <v>42</v>
@@ -31196,7 +31175,7 @@
         <v>2006</v>
       </c>
       <c r="B627" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C627" t="s">
         <v>70</v>
@@ -31243,13 +31222,13 @@
         <v>2006</v>
       </c>
       <c r="B628" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C628" t="s">
         <v>10</v>
       </c>
       <c r="D628" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E628">
         <v>192.59</v>
@@ -31290,13 +31269,13 @@
         <v>2006</v>
       </c>
       <c r="B629" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C629" t="s">
         <v>13</v>
       </c>
       <c r="D629" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E629">
         <v>197.5</v>
@@ -31337,7 +31316,7 @@
         <v>2006</v>
       </c>
       <c r="B630" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C630" t="s">
         <v>16</v>
@@ -31384,7 +31363,7 @@
         <v>2006</v>
       </c>
       <c r="B631" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C631" t="s">
         <v>18</v>
@@ -31431,13 +31410,13 @@
         <v>2006</v>
       </c>
       <c r="B632" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C632" t="s">
         <v>143</v>
       </c>
       <c r="D632" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E632">
         <v>193.065</v>
@@ -31478,13 +31457,13 @@
         <v>2007</v>
       </c>
       <c r="B633" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C633" t="s">
         <v>154</v>
       </c>
       <c r="D633" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E633">
         <v>193.5</v>
@@ -31525,13 +31504,13 @@
         <v>2007</v>
       </c>
       <c r="B634" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C634" t="s">
         <v>14</v>
       </c>
       <c r="D634" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E634">
         <v>194.9</v>
@@ -31572,7 +31551,7 @@
         <v>2007</v>
       </c>
       <c r="B635" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C635" t="s">
         <v>15</v>
@@ -31619,13 +31598,13 @@
         <v>2007</v>
       </c>
       <c r="B636" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C636" t="s">
         <v>17</v>
       </c>
       <c r="D636" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E636">
         <v>193.1</v>
@@ -31666,13 +31645,13 @@
         <v>2025</v>
       </c>
       <c r="B637" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C637" t="s">
         <v>14</v>
       </c>
       <c r="D637" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E637">
         <v>190.57</v>
@@ -31705,7 +31684,7 @@
         <v>175</v>
       </c>
       <c r="O637" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="638" spans="1:15" x14ac:dyDescent="0.35">
@@ -31713,7 +31692,7 @@
         <v>2025</v>
       </c>
       <c r="B638" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C638" t="s">
         <v>16</v>
@@ -31752,7 +31731,7 @@
         <v>175</v>
       </c>
       <c r="O638" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="639" spans="1:15" x14ac:dyDescent="0.35">
@@ -31760,13 +31739,13 @@
         <v>2329</v>
       </c>
       <c r="B639" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C639" t="s">
         <v>14</v>
       </c>
       <c r="D639" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E639">
         <v>173.42</v>
@@ -31799,7 +31778,7 @@
         <v>175</v>
       </c>
       <c r="O639" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="640" spans="1:15" x14ac:dyDescent="0.35">
@@ -31807,13 +31786,13 @@
         <v>2357</v>
       </c>
       <c r="B640" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C640" t="s">
         <v>14</v>
       </c>
       <c r="D640" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E640">
         <v>170.01</v>
@@ -31846,7 +31825,7 @@
         <v>175</v>
       </c>
       <c r="O640" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="641" spans="1:15" x14ac:dyDescent="0.35">
@@ -31854,7 +31833,7 @@
         <v>2369</v>
       </c>
       <c r="B641" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C641" t="s">
         <v>15</v>
@@ -31901,7 +31880,7 @@
         <v>2377</v>
       </c>
       <c r="B642" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C642" t="s">
         <v>15</v>
@@ -31948,7 +31927,7 @@
         <v>2377</v>
       </c>
       <c r="B643" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C643" t="s">
         <v>16</v>
@@ -31995,7 +31974,7 @@
         <v>2603</v>
       </c>
       <c r="B644" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C644" t="s">
         <v>15</v>
@@ -32042,7 +32021,7 @@
         <v>2603</v>
       </c>
       <c r="B645" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C645" t="s">
         <v>20</v>
@@ -32089,7 +32068,7 @@
         <v>2609</v>
       </c>
       <c r="B646" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C646" t="s">
         <v>57</v>
@@ -32128,7 +32107,7 @@
         <v>192</v>
       </c>
       <c r="O646" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="647" spans="1:15" x14ac:dyDescent="0.35">
@@ -32136,13 +32115,13 @@
         <v>2610</v>
       </c>
       <c r="B647" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C647" t="s">
         <v>14</v>
       </c>
       <c r="D647" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E647">
         <v>173.46</v>
@@ -32175,7 +32154,7 @@
         <v>192</v>
       </c>
       <c r="O647" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="648" spans="1:15" x14ac:dyDescent="0.35">
@@ -32183,7 +32162,7 @@
         <v>2610</v>
       </c>
       <c r="B648" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C648" t="s">
         <v>57</v>
@@ -32222,7 +32201,7 @@
         <v>192</v>
       </c>
       <c r="O648" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="649" spans="1:15" x14ac:dyDescent="0.35">
@@ -32230,13 +32209,13 @@
         <v>2611</v>
       </c>
       <c r="B649" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C649" t="s">
         <v>14</v>
       </c>
       <c r="D649" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E649">
         <v>170.61</v>
@@ -32269,7 +32248,7 @@
         <v>192</v>
       </c>
       <c r="O649" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="650" spans="1:15" x14ac:dyDescent="0.35">
@@ -32277,7 +32256,7 @@
         <v>2611</v>
       </c>
       <c r="B650" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C650" t="s">
         <v>15</v>
@@ -32316,7 +32295,7 @@
         <v>192</v>
       </c>
       <c r="O650" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="651" spans="1:15" x14ac:dyDescent="0.35">
@@ -32324,7 +32303,7 @@
         <v>2611</v>
       </c>
       <c r="B651" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C651" t="s">
         <v>57</v>
@@ -32363,7 +32342,7 @@
         <v>192</v>
       </c>
       <c r="O651" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="652" spans="1:15" x14ac:dyDescent="0.35">
@@ -32371,13 +32350,13 @@
         <v>2613</v>
       </c>
       <c r="B652" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C652" t="s">
         <v>14</v>
       </c>
       <c r="D652" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E652">
         <v>171.65</v>
@@ -32410,7 +32389,7 @@
         <v>192</v>
       </c>
       <c r="O652" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="653" spans="1:15" x14ac:dyDescent="0.35">
@@ -32418,7 +32397,7 @@
         <v>2615</v>
       </c>
       <c r="B653" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C653" t="s">
         <v>11</v>
@@ -32465,7 +32444,7 @@
         <v>2615</v>
       </c>
       <c r="B654" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C654" t="s">
         <v>20</v>
@@ -32512,7 +32491,7 @@
         <v>2615</v>
       </c>
       <c r="B655" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C655" t="s">
         <v>80</v>
@@ -32559,7 +32538,7 @@
         <v>2618</v>
       </c>
       <c r="B656" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C656" t="s">
         <v>57</v>
@@ -32606,13 +32585,13 @@
         <v>2620</v>
       </c>
       <c r="B657" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C657" t="s">
         <v>14</v>
       </c>
       <c r="D657" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E657">
         <v>174.38499999999999</v>
@@ -32645,7 +32624,7 @@
         <v>178</v>
       </c>
       <c r="O657" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="658" spans="1:15" x14ac:dyDescent="0.35">
@@ -32653,7 +32632,7 @@
         <v>2622</v>
       </c>
       <c r="B658" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C658" t="s">
         <v>52</v>
@@ -32692,7 +32671,7 @@
         <v>197</v>
       </c>
       <c r="O658" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="659" spans="1:15" x14ac:dyDescent="0.35">
@@ -32700,7 +32679,7 @@
         <v>2622</v>
       </c>
       <c r="B659" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C659" t="s">
         <v>54</v>
@@ -32739,7 +32718,7 @@
         <v>197</v>
       </c>
       <c r="O659" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="660" spans="1:15" x14ac:dyDescent="0.35">
@@ -32747,7 +32726,7 @@
         <v>2622</v>
       </c>
       <c r="B660" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C660" t="s">
         <v>15</v>
@@ -32786,7 +32765,7 @@
         <v>197</v>
       </c>
       <c r="O660" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="661" spans="1:15" x14ac:dyDescent="0.35">
@@ -32794,7 +32773,7 @@
         <v>2622</v>
       </c>
       <c r="B661" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C661" t="s">
         <v>57</v>
@@ -32833,7 +32812,7 @@
         <v>197</v>
       </c>
       <c r="O661" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="662" spans="1:15" x14ac:dyDescent="0.35">
@@ -32841,13 +32820,13 @@
         <v>2628</v>
       </c>
       <c r="B662" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C662" t="s">
         <v>14</v>
       </c>
       <c r="D662" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E662">
         <v>159.82499999999999</v>
@@ -32880,7 +32859,7 @@
         <v>192</v>
       </c>
       <c r="O662" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="663" spans="1:15" x14ac:dyDescent="0.35">
@@ -32888,13 +32867,13 @@
         <v>2636</v>
       </c>
       <c r="B663" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C663" t="s">
         <v>14</v>
       </c>
       <c r="D663" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E663">
         <v>165.48</v>
@@ -32927,7 +32906,7 @@
         <v>178</v>
       </c>
       <c r="O663" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="664" spans="1:15" x14ac:dyDescent="0.35">
@@ -32935,7 +32914,7 @@
         <v>2636</v>
       </c>
       <c r="B664" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C664" t="s">
         <v>15</v>
@@ -32974,7 +32953,7 @@
         <v>178</v>
       </c>
       <c r="O664" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="665" spans="1:15" x14ac:dyDescent="0.35">
@@ -32982,7 +32961,7 @@
         <v>2642</v>
       </c>
       <c r="B665" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C665" t="s">
         <v>57</v>
@@ -33021,7 +33000,7 @@
         <v>177</v>
       </c>
       <c r="O665" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="666" spans="1:15" x14ac:dyDescent="0.35">
@@ -33029,13 +33008,13 @@
         <v>2643</v>
       </c>
       <c r="B666" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C666" t="s">
         <v>14</v>
       </c>
       <c r="D666" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E666">
         <v>164.88</v>
@@ -33068,7 +33047,7 @@
         <v>178</v>
       </c>
       <c r="O666" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="667" spans="1:15" x14ac:dyDescent="0.35">
@@ -33076,13 +33055,13 @@
         <v>2650</v>
       </c>
       <c r="B667" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C667" t="s">
         <v>14</v>
       </c>
       <c r="D667" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E667">
         <v>152.01</v>
@@ -33115,7 +33094,7 @@
         <v>175</v>
       </c>
       <c r="O667" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="668" spans="1:15" x14ac:dyDescent="0.35">
@@ -33123,13 +33102,13 @@
         <v>2656</v>
       </c>
       <c r="B668" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C668" t="s">
         <v>14</v>
       </c>
       <c r="D668" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E668">
         <v>178.17500000000001</v>
@@ -33162,7 +33141,7 @@
         <v>205</v>
       </c>
       <c r="O668" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="669" spans="1:15" x14ac:dyDescent="0.35">
@@ -33170,13 +33149,13 @@
         <v>2657</v>
       </c>
       <c r="B669" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C669" t="s">
         <v>14</v>
       </c>
       <c r="D669" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E669">
         <v>160.185</v>
@@ -33209,7 +33188,7 @@
         <v>192</v>
       </c>
       <c r="O669" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="670" spans="1:15" x14ac:dyDescent="0.35">
@@ -33217,13 +33196,13 @@
         <v>2665</v>
       </c>
       <c r="B670" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C670" t="s">
         <v>14</v>
       </c>
       <c r="D670" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E670">
         <v>144.41</v>
@@ -33256,7 +33235,7 @@
         <v>192</v>
       </c>
       <c r="O670" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="671" spans="1:15" x14ac:dyDescent="0.35">
@@ -33264,13 +33243,13 @@
         <v>2702</v>
       </c>
       <c r="B671" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C671" t="s">
         <v>153</v>
       </c>
       <c r="D671" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E671">
         <v>187.14</v>
@@ -33311,13 +33290,13 @@
         <v>2702</v>
       </c>
       <c r="B672" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C672" t="s">
         <v>14</v>
       </c>
       <c r="D672" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E672">
         <v>189.815</v>
@@ -33358,13 +33337,13 @@
         <v>2702</v>
       </c>
       <c r="B673" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C673" t="s">
         <v>155</v>
       </c>
       <c r="D673" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E673">
         <v>181.70500000000001</v>
@@ -33405,7 +33384,7 @@
         <v>2702</v>
       </c>
       <c r="B674" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C674" t="s">
         <v>57</v>
@@ -33452,7 +33431,7 @@
         <v>2704</v>
       </c>
       <c r="B675" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C675" t="s">
         <v>57</v>
@@ -33491,7 +33470,7 @@
         <v>175</v>
       </c>
       <c r="O675" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="676" spans="1:15" x14ac:dyDescent="0.35">
@@ -33499,13 +33478,13 @@
         <v>2707</v>
       </c>
       <c r="B676" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C676" t="s">
         <v>153</v>
       </c>
       <c r="D676" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E676">
         <v>167.14</v>
@@ -33538,7 +33517,7 @@
         <v>179</v>
       </c>
       <c r="O676" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="677" spans="1:15" x14ac:dyDescent="0.35">
@@ -33546,7 +33525,7 @@
         <v>2707</v>
       </c>
       <c r="B677" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C677" t="s">
         <v>57</v>
@@ -33585,7 +33564,7 @@
         <v>179</v>
       </c>
       <c r="O677" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="678" spans="1:15" x14ac:dyDescent="0.35">
@@ -33593,7 +33572,7 @@
         <v>2708</v>
       </c>
       <c r="B678" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C678" t="s">
         <v>57</v>
@@ -33632,7 +33611,7 @@
         <v>175</v>
       </c>
       <c r="O678" t="s">
-        <v>238</v>
+        <v>445</v>
       </c>
     </row>
     <row r="679" spans="1:15" x14ac:dyDescent="0.35">
@@ -33640,13 +33619,13 @@
         <v>2709</v>
       </c>
       <c r="B679" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C679" t="s">
         <v>14</v>
       </c>
       <c r="D679" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E679">
         <v>188.44</v>
@@ -33679,7 +33658,7 @@
         <v>179</v>
       </c>
       <c r="O679" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="680" spans="1:15" x14ac:dyDescent="0.35">
@@ -33687,13 +33666,13 @@
         <v>2710</v>
       </c>
       <c r="B680" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C680" t="s">
         <v>14</v>
       </c>
       <c r="D680" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E680">
         <v>183.56</v>
@@ -33726,7 +33705,7 @@
         <v>175</v>
       </c>
       <c r="O680" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="681" spans="1:15" x14ac:dyDescent="0.35">
@@ -33734,7 +33713,7 @@
         <v>2710</v>
       </c>
       <c r="B681" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C681" t="s">
         <v>15</v>
@@ -33773,7 +33752,7 @@
         <v>175</v>
       </c>
       <c r="O681" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="682" spans="1:15" x14ac:dyDescent="0.35">
@@ -33781,7 +33760,7 @@
         <v>2710</v>
       </c>
       <c r="B682" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C682" t="s">
         <v>57</v>
@@ -33820,7 +33799,7 @@
         <v>175</v>
       </c>
       <c r="O682" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="683" spans="1:15" x14ac:dyDescent="0.35">
@@ -33828,13 +33807,13 @@
         <v>2711</v>
       </c>
       <c r="B683" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C683" t="s">
         <v>14</v>
       </c>
       <c r="D683" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E683">
         <v>189.5</v>
@@ -33867,7 +33846,7 @@
         <v>179</v>
       </c>
       <c r="O683" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="684" spans="1:15" x14ac:dyDescent="0.35">
@@ -33875,7 +33854,7 @@
         <v>2711</v>
       </c>
       <c r="B684" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C684" t="s">
         <v>57</v>
@@ -33914,7 +33893,7 @@
         <v>179</v>
       </c>
       <c r="O684" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="685" spans="1:15" x14ac:dyDescent="0.35">
@@ -33922,7 +33901,7 @@
         <v>2712</v>
       </c>
       <c r="B685" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C685" t="s">
         <v>11</v>
@@ -33961,7 +33940,7 @@
         <v>175</v>
       </c>
       <c r="O685" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="686" spans="1:15" x14ac:dyDescent="0.35">
@@ -33969,13 +33948,13 @@
         <v>2712</v>
       </c>
       <c r="B686" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C686" t="s">
         <v>14</v>
       </c>
       <c r="D686" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E686">
         <v>193.49</v>
@@ -34008,7 +33987,7 @@
         <v>175</v>
       </c>
       <c r="O686" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="687" spans="1:15" x14ac:dyDescent="0.35">
@@ -34016,7 +33995,7 @@
         <v>2712</v>
       </c>
       <c r="B687" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C687" t="s">
         <v>15</v>
@@ -34055,7 +34034,7 @@
         <v>175</v>
       </c>
       <c r="O687" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="688" spans="1:15" x14ac:dyDescent="0.35">
@@ -34063,7 +34042,7 @@
         <v>2712</v>
       </c>
       <c r="B688" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C688" t="s">
         <v>150</v>
@@ -34102,7 +34081,7 @@
         <v>175</v>
       </c>
       <c r="O688" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="689" spans="1:15" x14ac:dyDescent="0.35">
@@ -34110,7 +34089,7 @@
         <v>2712</v>
       </c>
       <c r="B689" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C689" t="s">
         <v>20</v>
@@ -34149,7 +34128,7 @@
         <v>175</v>
       </c>
       <c r="O689" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="690" spans="1:15" x14ac:dyDescent="0.35">
@@ -34157,7 +34136,7 @@
         <v>2712</v>
       </c>
       <c r="B690" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C690" t="s">
         <v>156</v>
@@ -34196,7 +34175,7 @@
         <v>175</v>
       </c>
       <c r="O690" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="691" spans="1:15" x14ac:dyDescent="0.35">
@@ -34204,13 +34183,13 @@
         <v>2718</v>
       </c>
       <c r="B691" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C691" t="s">
         <v>14</v>
       </c>
       <c r="D691" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E691">
         <v>192</v>
@@ -34243,7 +34222,7 @@
         <v>175</v>
       </c>
       <c r="O691" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="692" spans="1:15" x14ac:dyDescent="0.35">
@@ -34251,7 +34230,7 @@
         <v>2718</v>
       </c>
       <c r="B692" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C692" t="s">
         <v>15</v>
@@ -34290,7 +34269,7 @@
         <v>175</v>
       </c>
       <c r="O692" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="693" spans="1:15" x14ac:dyDescent="0.35">
@@ -34298,7 +34277,7 @@
         <v>2718</v>
       </c>
       <c r="B693" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C693" t="s">
         <v>57</v>
@@ -34337,7 +34316,7 @@
         <v>175</v>
       </c>
       <c r="O693" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="694" spans="1:15" x14ac:dyDescent="0.35">
@@ -34345,13 +34324,13 @@
         <v>2719</v>
       </c>
       <c r="B694" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C694" t="s">
         <v>14</v>
       </c>
       <c r="D694" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E694">
         <v>188.66499999999999</v>
@@ -34384,7 +34363,7 @@
         <v>175</v>
       </c>
       <c r="O694" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="695" spans="1:15" x14ac:dyDescent="0.35">
@@ -34392,7 +34371,7 @@
         <v>2719</v>
       </c>
       <c r="B695" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C695" t="s">
         <v>15</v>
@@ -34431,7 +34410,7 @@
         <v>175</v>
       </c>
       <c r="O695" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="696" spans="1:15" x14ac:dyDescent="0.35">
@@ -34439,13 +34418,13 @@
         <v>2722</v>
       </c>
       <c r="B696" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C696" t="s">
         <v>14</v>
       </c>
       <c r="D696" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E696">
         <v>188.01499999999999</v>
@@ -34478,7 +34457,7 @@
         <v>175</v>
       </c>
       <c r="O696" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="697" spans="1:15" x14ac:dyDescent="0.35">
@@ -34486,7 +34465,7 @@
         <v>2723</v>
       </c>
       <c r="B697" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C697" t="s">
         <v>52</v>
@@ -34525,7 +34504,7 @@
         <v>179</v>
       </c>
       <c r="O697" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="698" spans="1:15" x14ac:dyDescent="0.35">
@@ -34533,7 +34512,7 @@
         <v>2723</v>
       </c>
       <c r="B698" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C698" t="s">
         <v>57</v>
@@ -34572,7 +34551,7 @@
         <v>179</v>
       </c>
       <c r="O698" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="699" spans="1:15" x14ac:dyDescent="0.35">
@@ -34580,13 +34559,13 @@
         <v>2727</v>
       </c>
       <c r="B699" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C699" t="s">
         <v>14</v>
       </c>
       <c r="D699" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E699">
         <v>181.55</v>
@@ -34619,7 +34598,7 @@
         <v>175</v>
       </c>
       <c r="O699" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="700" spans="1:15" x14ac:dyDescent="0.35">
@@ -34627,13 +34606,13 @@
         <v>2731</v>
       </c>
       <c r="B700" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C700" t="s">
         <v>14</v>
       </c>
       <c r="D700" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E700">
         <v>170.76</v>
@@ -34666,7 +34645,7 @@
         <v>175</v>
       </c>
       <c r="O700" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="701" spans="1:15" x14ac:dyDescent="0.35">
@@ -34674,13 +34653,13 @@
         <v>2740</v>
       </c>
       <c r="B701" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C701" t="s">
         <v>14</v>
       </c>
       <c r="D701" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E701">
         <v>175.44</v>
@@ -34713,7 +34692,7 @@
         <v>175</v>
       </c>
       <c r="O701" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="702" spans="1:15" x14ac:dyDescent="0.35">
@@ -34721,13 +34700,13 @@
         <v>2741</v>
       </c>
       <c r="B702" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C702" t="s">
         <v>14</v>
       </c>
       <c r="D702" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E702">
         <v>179.58</v>
@@ -34760,7 +34739,7 @@
         <v>175</v>
       </c>
       <c r="O702" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="703" spans="1:15" x14ac:dyDescent="0.35">
@@ -34768,7 +34747,7 @@
         <v>2741</v>
       </c>
       <c r="B703" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C703" t="s">
         <v>16</v>
@@ -34807,7 +34786,7 @@
         <v>175</v>
       </c>
       <c r="O703" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="704" spans="1:15" x14ac:dyDescent="0.35">
@@ -34815,7 +34794,7 @@
         <v>2744</v>
       </c>
       <c r="B704" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C704" t="s">
         <v>57</v>
@@ -34854,7 +34833,7 @@
         <v>175</v>
       </c>
       <c r="O704" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="705" spans="1:15" x14ac:dyDescent="0.35">
@@ -34862,7 +34841,7 @@
         <v>2750</v>
       </c>
       <c r="B705" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C705" t="s">
         <v>15</v>
@@ -34901,7 +34880,7 @@
         <v>175</v>
       </c>
       <c r="O705" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="706" spans="1:15" x14ac:dyDescent="0.35">
@@ -34909,7 +34888,7 @@
         <v>2750</v>
       </c>
       <c r="B706" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C706" t="s">
         <v>16</v>
@@ -34948,7 +34927,7 @@
         <v>175</v>
       </c>
       <c r="O706" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="707" spans="1:15" x14ac:dyDescent="0.35">
@@ -34956,13 +34935,13 @@
         <v>2755</v>
       </c>
       <c r="B707" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C707" t="s">
         <v>155</v>
       </c>
       <c r="D707" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E707">
         <v>159.82499999999999</v>
@@ -34995,7 +34974,7 @@
         <v>175</v>
       </c>
       <c r="O707" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="708" spans="1:15" x14ac:dyDescent="0.35">
@@ -35003,13 +34982,13 @@
         <v>2776</v>
       </c>
       <c r="B708" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C708" t="s">
         <v>14</v>
       </c>
       <c r="D708" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E708">
         <v>163.745</v>
@@ -35042,7 +35021,7 @@
         <v>175</v>
       </c>
       <c r="O708" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="709" spans="1:15" x14ac:dyDescent="0.35">
@@ -35050,7 +35029,7 @@
         <v>3011</v>
       </c>
       <c r="B709" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C709" t="s">
         <v>54</v>
@@ -35089,7 +35068,7 @@
         <v>182</v>
       </c>
       <c r="O709" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="710" spans="1:15" x14ac:dyDescent="0.35">
@@ -35097,13 +35076,13 @@
         <v>3011</v>
       </c>
       <c r="B710" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C710" t="s">
         <v>14</v>
       </c>
       <c r="D710" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E710">
         <v>186</v>
@@ -35136,7 +35115,7 @@
         <v>182</v>
       </c>
       <c r="O710" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="711" spans="1:15" x14ac:dyDescent="0.35">
@@ -35144,7 +35123,7 @@
         <v>3011</v>
       </c>
       <c r="B711" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C711" t="s">
         <v>57</v>
@@ -35183,7 +35162,7 @@
         <v>182</v>
       </c>
       <c r="O711" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="712" spans="1:15" x14ac:dyDescent="0.35">
@@ -35191,7 +35170,7 @@
         <v>3011</v>
       </c>
       <c r="B712" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C712" t="s">
         <v>20</v>
@@ -35230,7 +35209,7 @@
         <v>182</v>
       </c>
       <c r="O712" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="713" spans="1:15" x14ac:dyDescent="0.35">
@@ -35238,7 +35217,7 @@
         <v>3011</v>
       </c>
       <c r="B713" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C713" t="s">
         <v>95</v>
@@ -35277,7 +35256,7 @@
         <v>182</v>
       </c>
       <c r="O713" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="714" spans="1:15" x14ac:dyDescent="0.35">
@@ -35285,13 +35264,13 @@
         <v>3465</v>
       </c>
       <c r="B714" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C714" t="s">
         <v>14</v>
       </c>
       <c r="D714" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E714">
         <v>186.745</v>
@@ -35324,7 +35303,7 @@
         <v>182</v>
       </c>
       <c r="O714" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="715" spans="1:15" x14ac:dyDescent="0.35">
@@ -35332,7 +35311,7 @@
         <v>3465</v>
       </c>
       <c r="B715" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C715" t="s">
         <v>20</v>
@@ -35371,7 +35350,7 @@
         <v>182</v>
       </c>
       <c r="O715" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="716" spans="1:15" x14ac:dyDescent="0.35">
@@ -35379,13 +35358,13 @@
         <v>3786</v>
       </c>
       <c r="B716" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C716" t="s">
         <v>158</v>
       </c>
       <c r="D716" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E716">
         <v>152.95500000000001</v>
@@ -35418,7 +35397,7 @@
         <v>182</v>
       </c>
       <c r="O716" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="717" spans="1:15" x14ac:dyDescent="0.35">
@@ -35426,13 +35405,13 @@
         <v>3805</v>
       </c>
       <c r="B717" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C717" t="s">
         <v>14</v>
       </c>
       <c r="D717" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E717">
         <v>168.35</v>
@@ -35465,7 +35444,7 @@
         <v>198</v>
       </c>
       <c r="O717" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="718" spans="1:15" x14ac:dyDescent="0.35">
@@ -35473,13 +35452,13 @@
         <v>3819</v>
       </c>
       <c r="B718" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C718" t="s">
         <v>14</v>
       </c>
       <c r="D718" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E718">
         <v>184.38499999999999</v>
@@ -35512,7 +35491,7 @@
         <v>182</v>
       </c>
       <c r="O718" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="719" spans="1:15" x14ac:dyDescent="0.35">
@@ -35520,7 +35499,7 @@
         <v>3819</v>
       </c>
       <c r="B719" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C719" t="s">
         <v>15</v>
@@ -35559,7 +35538,7 @@
         <v>182</v>
       </c>
       <c r="O719" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="720" spans="1:15" x14ac:dyDescent="0.35">
@@ -35567,13 +35546,13 @@
         <v>3826</v>
       </c>
       <c r="B720" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C720" t="s">
         <v>14</v>
       </c>
       <c r="D720" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E720">
         <v>181.69</v>
@@ -35606,7 +35585,7 @@
         <v>182</v>
       </c>
       <c r="O720" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="721" spans="1:15" x14ac:dyDescent="0.35">
@@ -35614,7 +35593,7 @@
         <v>3826</v>
       </c>
       <c r="B721" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C721" t="s">
         <v>20</v>
@@ -35653,7 +35632,7 @@
         <v>182</v>
       </c>
       <c r="O721" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="722" spans="1:15" x14ac:dyDescent="0.35">
@@ -35661,13 +35640,13 @@
         <v>4020</v>
       </c>
       <c r="B722" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C722" t="s">
         <v>14</v>
       </c>
       <c r="D722" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E722">
         <v>183.61500000000001</v>
@@ -35700,7 +35679,7 @@
         <v>194</v>
       </c>
       <c r="O722" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="723" spans="1:15" x14ac:dyDescent="0.35">
@@ -35708,7 +35687,7 @@
         <v>4020</v>
       </c>
       <c r="B723" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C723" t="s">
         <v>15</v>
@@ -35747,7 +35726,7 @@
         <v>194</v>
       </c>
       <c r="O723" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="724" spans="1:15" x14ac:dyDescent="0.35">
@@ -35755,7 +35734,7 @@
         <v>4974</v>
       </c>
       <c r="B724" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C724" t="s">
         <v>15</v>
@@ -35794,7 +35773,7 @@
         <v>194</v>
       </c>
       <c r="O724" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="725" spans="1:15" x14ac:dyDescent="0.35">
@@ -35802,7 +35781,7 @@
         <v>4974</v>
       </c>
       <c r="B725" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C725" t="s">
         <v>20</v>
@@ -35841,7 +35820,7 @@
         <v>194</v>
       </c>
       <c r="O725" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="726" spans="1:15" x14ac:dyDescent="0.35">
@@ -35849,7 +35828,7 @@
         <v>5008</v>
       </c>
       <c r="B726" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C726" t="s">
         <v>11</v>
@@ -35888,7 +35867,7 @@
         <v>187</v>
       </c>
       <c r="O726" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="727" spans="1:15" x14ac:dyDescent="0.35">
@@ -35896,7 +35875,7 @@
         <v>5008</v>
       </c>
       <c r="B727" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C727" t="s">
         <v>107</v>
@@ -35935,7 +35914,7 @@
         <v>187</v>
       </c>
       <c r="O727" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="728" spans="1:15" x14ac:dyDescent="0.35">
@@ -35943,7 +35922,7 @@
         <v>5008</v>
       </c>
       <c r="B728" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C728" t="s">
         <v>159</v>
@@ -35982,7 +35961,7 @@
         <v>187</v>
       </c>
       <c r="O728" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="729" spans="1:15" x14ac:dyDescent="0.35">
@@ -35990,13 +35969,13 @@
         <v>5008</v>
       </c>
       <c r="B729" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C729" t="s">
         <v>17</v>
       </c>
       <c r="D729" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E729">
         <v>193.12</v>
@@ -36029,7 +36008,7 @@
         <v>187</v>
       </c>
       <c r="O729" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="730" spans="1:15" x14ac:dyDescent="0.35">
@@ -36037,7 +36016,7 @@
         <v>5008</v>
       </c>
       <c r="B730" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C730" t="s">
         <v>18</v>
@@ -36076,7 +36055,7 @@
         <v>187</v>
       </c>
       <c r="O730" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="731" spans="1:15" x14ac:dyDescent="0.35">
@@ -36084,13 +36063,13 @@
         <v>5010</v>
       </c>
       <c r="B731" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C731" t="s">
         <v>14</v>
       </c>
       <c r="D731" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E731">
         <v>184.01</v>
@@ -36123,7 +36102,7 @@
         <v>187</v>
       </c>
       <c r="O731" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="732" spans="1:15" x14ac:dyDescent="0.35">
@@ -36131,7 +36110,7 @@
         <v>5010</v>
       </c>
       <c r="B732" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C732" t="s">
         <v>15</v>
@@ -36170,7 +36149,7 @@
         <v>187</v>
       </c>
       <c r="O732" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="733" spans="1:15" x14ac:dyDescent="0.35">
@@ -36178,7 +36157,7 @@
         <v>5901</v>
       </c>
       <c r="B733" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C733" t="s">
         <v>11</v>
@@ -36217,7 +36196,7 @@
         <v>195</v>
       </c>
       <c r="O733" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="734" spans="1:15" x14ac:dyDescent="0.35">
@@ -36225,7 +36204,7 @@
         <v>5901</v>
       </c>
       <c r="B734" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C734" t="s">
         <v>15</v>
@@ -36264,7 +36243,7 @@
         <v>195</v>
       </c>
       <c r="O734" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="735" spans="1:15" x14ac:dyDescent="0.35">
@@ -36272,7 +36251,7 @@
         <v>5901</v>
       </c>
       <c r="B735" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C735" t="s">
         <v>16</v>
@@ -36311,11 +36290,10 @@
         <v>195</v>
       </c>
       <c r="O735" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C735" xr:uid="{6592C329-423D-456B-A327-481CAD1C7A9A}"/>
   <hyperlinks>
     <hyperlink ref="O20" r:id="rId1" xr:uid="{07DCBE4D-2A15-4396-AF1E-8BCC524D5786}"/>
     <hyperlink ref="O38" r:id="rId2" xr:uid="{526B0AB3-8B61-4345-8862-632DF66B2882}"/>
